--- a/data_and_code/Tabel_Distribusi_Frekuensi.xlsx
+++ b/data_and_code/Tabel_Distribusi_Frekuensi.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2020\_R_Project\rev_drainase_purwakarta\data_and_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22f5ef4527203c63/PROYEK/R_Project/drainase_purwakarta/data_and_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35D8EC3-9874-4AD2-B771-AD63D0DFD1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{A35D8EC3-9874-4AD2-B771-AD63D0DFD1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0121015C-AE3E-40D9-A5E5-60770A3EA9ED}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15465" xr2:uid="{AD7706C6-5E18-4BD2-AE6B-C9BAD8C97B36}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="11850" windowHeight="11580" activeTab="2" xr2:uid="{AD7706C6-5E18-4BD2-AE6B-C9BAD8C97B36}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel_Z" sheetId="1" r:id="rId1"/>
-    <sheet name="Freq_K_Factors_Pearson_Type_III" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabel" sheetId="3" r:id="rId3"/>
+    <sheet name="log_pearson_III" sheetId="2" r:id="rId2"/>
+    <sheet name="lp_III" sheetId="4" r:id="rId3"/>
+    <sheet name="Tabel" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
@@ -34,6 +34,7 @@
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="____Pd1">#REF!</definedName>
@@ -64,7 +65,8 @@
     <definedName name="dsfew" hidden="1">[2]n!$B$19:$B$138</definedName>
     <definedName name="Dua">#REF!</definedName>
     <definedName name="ea">[4]Et!$B$6</definedName>
-    <definedName name="ExternalData_1" localSheetId="1">Freq_K_Factors_Pearson_Type_III!$A$3:$J$43</definedName>
+    <definedName name="ExternalData_1" localSheetId="1">log_pearson_III!$A$3:$J$43</definedName>
+    <definedName name="ExternalData_1" localSheetId="2">lp_III!$A$3:$J$40</definedName>
     <definedName name="fgdg">#REF!</definedName>
     <definedName name="fwf" hidden="1">[2]n!$P$19:$P$138</definedName>
     <definedName name="h">[4]Et!$K$4</definedName>
@@ -72,14 +74,14 @@
     <definedName name="HB">#N/A</definedName>
     <definedName name="i">#REF!</definedName>
     <definedName name="IGWS">#REF!</definedName>
-    <definedName name="INPUT_DATA" localSheetId="2">'[7]Analisa Frekuensi Manual'!$C$4:$C$55</definedName>
+    <definedName name="INPUT_DATA" localSheetId="3">'[7]Analisa Frekuensi Manual'!$C$4:$C$55</definedName>
     <definedName name="INPUT_DATA">[8]main_sheet!$C$4:$C$55</definedName>
-    <definedName name="input_ln" localSheetId="2">'[7]Analisa Frekuensi Manual'!$D$4:$D$55</definedName>
+    <definedName name="input_ln" localSheetId="3">'[7]Analisa Frekuensi Manual'!$D$4:$D$55</definedName>
     <definedName name="input_ln">[8]main_sheet!$D$4:$D$55</definedName>
     <definedName name="ISM">#REF!</definedName>
     <definedName name="Jml_Data">[6]Lembar2!$M$24</definedName>
     <definedName name="k">#REF!</definedName>
-    <definedName name="k10_gumbel" localSheetId="2">'[7]Analisa Frekuensi Manual'!$O$69</definedName>
+    <definedName name="k10_gumbel" localSheetId="3">'[7]Analisa Frekuensi Manual'!$O$69</definedName>
     <definedName name="k10_gumbel">[8]main_sheet!$O$69</definedName>
     <definedName name="ka">'[9]hujan eff'!$R$11</definedName>
     <definedName name="kb">'[9]hujan eff'!$S$11</definedName>
@@ -89,24 +91,33 @@
     <definedName name="L">[3]R_rerata!$F$5</definedName>
     <definedName name="Lima">'[5]Tab-LG3'!$I$12:$I$72</definedName>
     <definedName name="Lima10">#REF!</definedName>
-    <definedName name="lp_1.5" localSheetId="2">[7]Freq_K_Factors_Pearson_Type_III!$O$18</definedName>
-    <definedName name="lp_1.5">Freq_K_Factors_Pearson_Type_III!$O$18</definedName>
-    <definedName name="lp_10" localSheetId="2">[7]Freq_K_Factors_Pearson_Type_III!$R$18</definedName>
-    <definedName name="lp_10">Freq_K_Factors_Pearson_Type_III!$R$18</definedName>
-    <definedName name="lp_100" localSheetId="2">[7]Freq_K_Factors_Pearson_Type_III!$U$18</definedName>
-    <definedName name="lp_100">Freq_K_Factors_Pearson_Type_III!$U$18</definedName>
-    <definedName name="lp_1000" localSheetId="2">[7]Freq_K_Factors_Pearson_Type_III!$W$18</definedName>
-    <definedName name="lp_1000">Freq_K_Factors_Pearson_Type_III!$W$18</definedName>
-    <definedName name="lp_2" localSheetId="2">[7]Freq_K_Factors_Pearson_Type_III!$P$18</definedName>
-    <definedName name="lp_2">Freq_K_Factors_Pearson_Type_III!$P$18</definedName>
-    <definedName name="lp_200" localSheetId="2">[7]Freq_K_Factors_Pearson_Type_III!$V$18</definedName>
-    <definedName name="lp_200">Freq_K_Factors_Pearson_Type_III!$V$18</definedName>
-    <definedName name="lp_25" localSheetId="2">[7]Freq_K_Factors_Pearson_Type_III!$S$18</definedName>
-    <definedName name="lp_25">Freq_K_Factors_Pearson_Type_III!$S$18</definedName>
-    <definedName name="lp_5" localSheetId="2">[7]Freq_K_Factors_Pearson_Type_III!$Q$18</definedName>
-    <definedName name="lp_5">Freq_K_Factors_Pearson_Type_III!$Q$18</definedName>
-    <definedName name="lp_50" localSheetId="2">[7]Freq_K_Factors_Pearson_Type_III!$T$18</definedName>
-    <definedName name="lp_50">Freq_K_Factors_Pearson_Type_III!$T$18</definedName>
+    <definedName name="lp_1.5" localSheetId="2">lp_III!$O$15</definedName>
+    <definedName name="lp_1.5" localSheetId="3">[7]Freq_K_Factors_Pearson_Type_III!$O$18</definedName>
+    <definedName name="lp_1.5">log_pearson_III!$O$18</definedName>
+    <definedName name="lp_10" localSheetId="2">lp_III!$R$15</definedName>
+    <definedName name="lp_10" localSheetId="3">[7]Freq_K_Factors_Pearson_Type_III!$R$18</definedName>
+    <definedName name="lp_10">log_pearson_III!$R$18</definedName>
+    <definedName name="lp_100" localSheetId="2">lp_III!$U$15</definedName>
+    <definedName name="lp_100" localSheetId="3">[7]Freq_K_Factors_Pearson_Type_III!$U$18</definedName>
+    <definedName name="lp_100">log_pearson_III!$U$18</definedName>
+    <definedName name="lp_1000" localSheetId="2">lp_III!$W$15</definedName>
+    <definedName name="lp_1000" localSheetId="3">[7]Freq_K_Factors_Pearson_Type_III!$W$18</definedName>
+    <definedName name="lp_1000">log_pearson_III!$W$18</definedName>
+    <definedName name="lp_2" localSheetId="2">lp_III!$P$15</definedName>
+    <definedName name="lp_2" localSheetId="3">[7]Freq_K_Factors_Pearson_Type_III!$P$18</definedName>
+    <definedName name="lp_2">log_pearson_III!$P$18</definedName>
+    <definedName name="lp_200" localSheetId="2">lp_III!$V$15</definedName>
+    <definedName name="lp_200" localSheetId="3">[7]Freq_K_Factors_Pearson_Type_III!$V$18</definedName>
+    <definedName name="lp_200">log_pearson_III!$V$18</definedName>
+    <definedName name="lp_25" localSheetId="2">lp_III!$S$15</definedName>
+    <definedName name="lp_25" localSheetId="3">[7]Freq_K_Factors_Pearson_Type_III!$S$18</definedName>
+    <definedName name="lp_25">log_pearson_III!$S$18</definedName>
+    <definedName name="lp_5" localSheetId="2">lp_III!$Q$15</definedName>
+    <definedName name="lp_5" localSheetId="3">[7]Freq_K_Factors_Pearson_Type_III!$Q$18</definedName>
+    <definedName name="lp_5">log_pearson_III!$Q$18</definedName>
+    <definedName name="lp_50" localSheetId="2">lp_III!$T$15</definedName>
+    <definedName name="lp_50" localSheetId="3">[7]Freq_K_Factors_Pearson_Type_III!$T$18</definedName>
+    <definedName name="lp_50">log_pearson_III!$T$18</definedName>
     <definedName name="LuasDPS">[3]R_rerata!$F$6</definedName>
     <definedName name="m">#REF!</definedName>
     <definedName name="Mokel_89">#REF!</definedName>
@@ -126,9 +137,9 @@
     <definedName name="QB">#N/A</definedName>
     <definedName name="Qp">[3]R_rerata!$F$13</definedName>
     <definedName name="ra">[4]Et!$B$4</definedName>
-    <definedName name="rata2" localSheetId="2">'[7]Analisa Frekuensi Manual'!$M$33</definedName>
+    <definedName name="rata2" localSheetId="3">'[7]Analisa Frekuensi Manual'!$M$33</definedName>
     <definedName name="rata2">[8]main_sheet!$M$33</definedName>
-    <definedName name="rata2_ln" localSheetId="2">'[7]Analisa Frekuensi Manual'!$U$33</definedName>
+    <definedName name="rata2_ln" localSheetId="3">'[7]Analisa Frekuensi Manual'!$U$33</definedName>
     <definedName name="rata2_ln">[8]main_sheet!$U$33</definedName>
     <definedName name="Re_Soa">#REF!</definedName>
     <definedName name="Rerata">'[12]Statistik Dasar'!$D$17</definedName>
@@ -137,11 +148,11 @@
     <definedName name="rge" hidden="1">[2]n!$I$19:$I$138</definedName>
     <definedName name="Ro">[3]R_rerata!$F$7</definedName>
     <definedName name="SimpanganBaku">'[12]Statistik Dasar'!$D$18</definedName>
-    <definedName name="skew" localSheetId="2">'[7]Analisa Frekuensi Manual'!$M$41</definedName>
+    <definedName name="skew" localSheetId="3">'[7]Analisa Frekuensi Manual'!$M$41</definedName>
     <definedName name="skew">[8]main_sheet!$M$41</definedName>
-    <definedName name="skew_ln" localSheetId="2">'[7]Analisa Frekuensi Manual'!$U$41</definedName>
+    <definedName name="skew_ln" localSheetId="3">'[7]Analisa Frekuensi Manual'!$U$41</definedName>
     <definedName name="skew_ln">[8]main_sheet!$U$41</definedName>
-    <definedName name="sn" localSheetId="2">'[7]Analisa Frekuensi Manual'!$M$50</definedName>
+    <definedName name="sn" localSheetId="3">'[7]Analisa Frekuensi Manual'!$M$50</definedName>
     <definedName name="sn">[8]main_sheet!$M$50</definedName>
     <definedName name="sn_tabel">Tabel!$O$5:$P$25</definedName>
     <definedName name="Soa_89">#REF!</definedName>
@@ -154,13 +165,14 @@
     <definedName name="Soa_96">#REF!</definedName>
     <definedName name="Soa_97">#REF!</definedName>
     <definedName name="Soa_98">#REF!</definedName>
-    <definedName name="stdev" localSheetId="2">'[7]Analisa Frekuensi Manual'!$M$38</definedName>
+    <definedName name="stdev" localSheetId="3">'[7]Analisa Frekuensi Manual'!$M$38</definedName>
     <definedName name="stdev">[8]main_sheet!$M$38</definedName>
-    <definedName name="stdev_ln" localSheetId="2">'[7]Analisa Frekuensi Manual'!$U$38</definedName>
+    <definedName name="stdev_ln" localSheetId="3">'[7]Analisa Frekuensi Manual'!$U$38</definedName>
     <definedName name="stdev_ln">[8]main_sheet!$U$38</definedName>
     <definedName name="Tabel_CS">'[14]Koefisien Cs dan G'!$B$10:$J$46</definedName>
     <definedName name="tahunan">#REF!</definedName>
-    <definedName name="test_lp_1.5">Freq_K_Factors_Pearson_Type_III!$O$12</definedName>
+    <definedName name="test_lp_1.5" localSheetId="2">lp_III!$O$9</definedName>
+    <definedName name="test_lp_1.5">log_pearson_III!$O$12</definedName>
     <definedName name="tg">[3]R_rerata!$F$9</definedName>
     <definedName name="Tp">[3]R_rerata!$F$15</definedName>
     <definedName name="Tp03_05">[3]R_rerata!$F$16</definedName>
@@ -170,13 +182,13 @@
     <definedName name="UH">#N/A</definedName>
     <definedName name="variasi">[8]main_sheet!$M$47</definedName>
     <definedName name="w">[4]Et!#REF!</definedName>
-    <definedName name="x10_gumbel" localSheetId="2">'[7]Analisa Frekuensi Manual'!$P$69</definedName>
+    <definedName name="x10_gumbel" localSheetId="3">'[7]Analisa Frekuensi Manual'!$P$69</definedName>
     <definedName name="x10_gumbel">[8]main_sheet!$P$69</definedName>
-    <definedName name="yn" localSheetId="2">'[7]Analisa Frekuensi Manual'!$M$49</definedName>
+    <definedName name="yn" localSheetId="3">'[7]Analisa Frekuensi Manual'!$M$49</definedName>
     <definedName name="yn">[8]main_sheet!$M$49</definedName>
     <definedName name="yn_sn_tabel">'[15]Yn dan Sn'!$M$25:$O$68</definedName>
     <definedName name="yn_tabel">Tabel!$D$5:$E$25</definedName>
-    <definedName name="yt_10" localSheetId="2">'[7]Analisa Frekuensi Manual'!$S$137</definedName>
+    <definedName name="yt_10" localSheetId="3">'[7]Analisa Frekuensi Manual'!$S$137</definedName>
     <definedName name="yt_10">[8]main_sheet!$S$137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -205,11 +217,18 @@
       </tables>
     </webPr>
   </connection>
+  <connection id="2" xr16:uid="{E8AA4163-2FC8-432B-ADC4-220CB2AE606C}" name="Koneksi11" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://water.oregonstate.edu/streamflow/analysis/floodfreq/skew.htm" htmlTables="1">
+      <tables count="1">
+        <x v="1"/>
+      </tables>
+    </webPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>z</t>
   </si>
@@ -385,6 +404,9 @@
   </si>
   <si>
     <t>1/2</t>
+  </si>
+  <si>
+    <t>Cw*</t>
   </si>
 </sst>
 </file>
@@ -18343,6 +18365,10 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" growShrinkType="overwriteClear" connectionId="1" xr16:uid="{4EECA492-6E74-4737-BF69-2959DA88DB4A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" growShrinkType="overwriteClear" connectionId="2" xr16:uid="{789A922D-DA2E-4AE4-9300-90A679053122}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -18642,8 +18668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18321E7F-C006-4E75-90A8-6483001BA0EE}">
   <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20039,16 +20065,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9E96E9-027A-4CE1-8FB7-89410A03FB3B}">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="9" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="9" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3" max="4" width="7.7109375" style="9" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="9" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="9" customWidth="1"/>
     <col min="7" max="7" width="8" style="9" customWidth="1"/>
@@ -22229,6 +22254,2042 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E24856-46E9-4A0B-A4EA-A049AFEA0388}">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="8" style="9" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11" max="257" width="9.140625" style="9"/>
+    <col min="258" max="258" width="20.140625" style="9" customWidth="1"/>
+    <col min="259" max="259" width="9.28515625" style="9" customWidth="1"/>
+    <col min="260" max="260" width="7.7109375" style="9" customWidth="1"/>
+    <col min="261" max="261" width="8.7109375" style="9" customWidth="1"/>
+    <col min="262" max="262" width="7.85546875" style="9" customWidth="1"/>
+    <col min="263" max="263" width="8" style="9" customWidth="1"/>
+    <col min="264" max="264" width="7.42578125" style="9" customWidth="1"/>
+    <col min="265" max="265" width="7.7109375" style="9" customWidth="1"/>
+    <col min="266" max="266" width="7.85546875" style="9" customWidth="1"/>
+    <col min="267" max="513" width="9.140625" style="9"/>
+    <col min="514" max="514" width="20.140625" style="9" customWidth="1"/>
+    <col min="515" max="515" width="9.28515625" style="9" customWidth="1"/>
+    <col min="516" max="516" width="7.7109375" style="9" customWidth="1"/>
+    <col min="517" max="517" width="8.7109375" style="9" customWidth="1"/>
+    <col min="518" max="518" width="7.85546875" style="9" customWidth="1"/>
+    <col min="519" max="519" width="8" style="9" customWidth="1"/>
+    <col min="520" max="520" width="7.42578125" style="9" customWidth="1"/>
+    <col min="521" max="521" width="7.7109375" style="9" customWidth="1"/>
+    <col min="522" max="522" width="7.85546875" style="9" customWidth="1"/>
+    <col min="523" max="769" width="9.140625" style="9"/>
+    <col min="770" max="770" width="20.140625" style="9" customWidth="1"/>
+    <col min="771" max="771" width="9.28515625" style="9" customWidth="1"/>
+    <col min="772" max="772" width="7.7109375" style="9" customWidth="1"/>
+    <col min="773" max="773" width="8.7109375" style="9" customWidth="1"/>
+    <col min="774" max="774" width="7.85546875" style="9" customWidth="1"/>
+    <col min="775" max="775" width="8" style="9" customWidth="1"/>
+    <col min="776" max="776" width="7.42578125" style="9" customWidth="1"/>
+    <col min="777" max="777" width="7.7109375" style="9" customWidth="1"/>
+    <col min="778" max="778" width="7.85546875" style="9" customWidth="1"/>
+    <col min="779" max="1025" width="9.140625" style="9"/>
+    <col min="1026" max="1026" width="20.140625" style="9" customWidth="1"/>
+    <col min="1027" max="1027" width="9.28515625" style="9" customWidth="1"/>
+    <col min="1028" max="1028" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1029" max="1029" width="8.7109375" style="9" customWidth="1"/>
+    <col min="1030" max="1030" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1031" max="1031" width="8" style="9" customWidth="1"/>
+    <col min="1032" max="1032" width="7.42578125" style="9" customWidth="1"/>
+    <col min="1033" max="1033" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1034" max="1034" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1035" max="1281" width="9.140625" style="9"/>
+    <col min="1282" max="1282" width="20.140625" style="9" customWidth="1"/>
+    <col min="1283" max="1283" width="9.28515625" style="9" customWidth="1"/>
+    <col min="1284" max="1284" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1285" max="1285" width="8.7109375" style="9" customWidth="1"/>
+    <col min="1286" max="1286" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1287" max="1287" width="8" style="9" customWidth="1"/>
+    <col min="1288" max="1288" width="7.42578125" style="9" customWidth="1"/>
+    <col min="1289" max="1289" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1290" max="1290" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1291" max="1537" width="9.140625" style="9"/>
+    <col min="1538" max="1538" width="20.140625" style="9" customWidth="1"/>
+    <col min="1539" max="1539" width="9.28515625" style="9" customWidth="1"/>
+    <col min="1540" max="1540" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1541" max="1541" width="8.7109375" style="9" customWidth="1"/>
+    <col min="1542" max="1542" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1543" max="1543" width="8" style="9" customWidth="1"/>
+    <col min="1544" max="1544" width="7.42578125" style="9" customWidth="1"/>
+    <col min="1545" max="1545" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1546" max="1546" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1547" max="1793" width="9.140625" style="9"/>
+    <col min="1794" max="1794" width="20.140625" style="9" customWidth="1"/>
+    <col min="1795" max="1795" width="9.28515625" style="9" customWidth="1"/>
+    <col min="1796" max="1796" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1797" max="1797" width="8.7109375" style="9" customWidth="1"/>
+    <col min="1798" max="1798" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1799" max="1799" width="8" style="9" customWidth="1"/>
+    <col min="1800" max="1800" width="7.42578125" style="9" customWidth="1"/>
+    <col min="1801" max="1801" width="7.7109375" style="9" customWidth="1"/>
+    <col min="1802" max="1802" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1803" max="2049" width="9.140625" style="9"/>
+    <col min="2050" max="2050" width="20.140625" style="9" customWidth="1"/>
+    <col min="2051" max="2051" width="9.28515625" style="9" customWidth="1"/>
+    <col min="2052" max="2052" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2053" max="2053" width="8.7109375" style="9" customWidth="1"/>
+    <col min="2054" max="2054" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2055" max="2055" width="8" style="9" customWidth="1"/>
+    <col min="2056" max="2056" width="7.42578125" style="9" customWidth="1"/>
+    <col min="2057" max="2057" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2058" max="2058" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2059" max="2305" width="9.140625" style="9"/>
+    <col min="2306" max="2306" width="20.140625" style="9" customWidth="1"/>
+    <col min="2307" max="2307" width="9.28515625" style="9" customWidth="1"/>
+    <col min="2308" max="2308" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2309" max="2309" width="8.7109375" style="9" customWidth="1"/>
+    <col min="2310" max="2310" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2311" max="2311" width="8" style="9" customWidth="1"/>
+    <col min="2312" max="2312" width="7.42578125" style="9" customWidth="1"/>
+    <col min="2313" max="2313" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2314" max="2314" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2315" max="2561" width="9.140625" style="9"/>
+    <col min="2562" max="2562" width="20.140625" style="9" customWidth="1"/>
+    <col min="2563" max="2563" width="9.28515625" style="9" customWidth="1"/>
+    <col min="2564" max="2564" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2565" max="2565" width="8.7109375" style="9" customWidth="1"/>
+    <col min="2566" max="2566" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2567" max="2567" width="8" style="9" customWidth="1"/>
+    <col min="2568" max="2568" width="7.42578125" style="9" customWidth="1"/>
+    <col min="2569" max="2569" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2570" max="2570" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2571" max="2817" width="9.140625" style="9"/>
+    <col min="2818" max="2818" width="20.140625" style="9" customWidth="1"/>
+    <col min="2819" max="2819" width="9.28515625" style="9" customWidth="1"/>
+    <col min="2820" max="2820" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2821" max="2821" width="8.7109375" style="9" customWidth="1"/>
+    <col min="2822" max="2822" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2823" max="2823" width="8" style="9" customWidth="1"/>
+    <col min="2824" max="2824" width="7.42578125" style="9" customWidth="1"/>
+    <col min="2825" max="2825" width="7.7109375" style="9" customWidth="1"/>
+    <col min="2826" max="2826" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2827" max="3073" width="9.140625" style="9"/>
+    <col min="3074" max="3074" width="20.140625" style="9" customWidth="1"/>
+    <col min="3075" max="3075" width="9.28515625" style="9" customWidth="1"/>
+    <col min="3076" max="3076" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3077" max="3077" width="8.7109375" style="9" customWidth="1"/>
+    <col min="3078" max="3078" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3079" max="3079" width="8" style="9" customWidth="1"/>
+    <col min="3080" max="3080" width="7.42578125" style="9" customWidth="1"/>
+    <col min="3081" max="3081" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3082" max="3082" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3083" max="3329" width="9.140625" style="9"/>
+    <col min="3330" max="3330" width="20.140625" style="9" customWidth="1"/>
+    <col min="3331" max="3331" width="9.28515625" style="9" customWidth="1"/>
+    <col min="3332" max="3332" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3333" max="3333" width="8.7109375" style="9" customWidth="1"/>
+    <col min="3334" max="3334" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3335" max="3335" width="8" style="9" customWidth="1"/>
+    <col min="3336" max="3336" width="7.42578125" style="9" customWidth="1"/>
+    <col min="3337" max="3337" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3338" max="3338" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3339" max="3585" width="9.140625" style="9"/>
+    <col min="3586" max="3586" width="20.140625" style="9" customWidth="1"/>
+    <col min="3587" max="3587" width="9.28515625" style="9" customWidth="1"/>
+    <col min="3588" max="3588" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3589" max="3589" width="8.7109375" style="9" customWidth="1"/>
+    <col min="3590" max="3590" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3591" max="3591" width="8" style="9" customWidth="1"/>
+    <col min="3592" max="3592" width="7.42578125" style="9" customWidth="1"/>
+    <col min="3593" max="3593" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3594" max="3594" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3595" max="3841" width="9.140625" style="9"/>
+    <col min="3842" max="3842" width="20.140625" style="9" customWidth="1"/>
+    <col min="3843" max="3843" width="9.28515625" style="9" customWidth="1"/>
+    <col min="3844" max="3844" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3845" max="3845" width="8.7109375" style="9" customWidth="1"/>
+    <col min="3846" max="3846" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3847" max="3847" width="8" style="9" customWidth="1"/>
+    <col min="3848" max="3848" width="7.42578125" style="9" customWidth="1"/>
+    <col min="3849" max="3849" width="7.7109375" style="9" customWidth="1"/>
+    <col min="3850" max="3850" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3851" max="4097" width="9.140625" style="9"/>
+    <col min="4098" max="4098" width="20.140625" style="9" customWidth="1"/>
+    <col min="4099" max="4099" width="9.28515625" style="9" customWidth="1"/>
+    <col min="4100" max="4100" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4101" max="4101" width="8.7109375" style="9" customWidth="1"/>
+    <col min="4102" max="4102" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4103" max="4103" width="8" style="9" customWidth="1"/>
+    <col min="4104" max="4104" width="7.42578125" style="9" customWidth="1"/>
+    <col min="4105" max="4105" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4106" max="4106" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4107" max="4353" width="9.140625" style="9"/>
+    <col min="4354" max="4354" width="20.140625" style="9" customWidth="1"/>
+    <col min="4355" max="4355" width="9.28515625" style="9" customWidth="1"/>
+    <col min="4356" max="4356" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4357" max="4357" width="8.7109375" style="9" customWidth="1"/>
+    <col min="4358" max="4358" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4359" max="4359" width="8" style="9" customWidth="1"/>
+    <col min="4360" max="4360" width="7.42578125" style="9" customWidth="1"/>
+    <col min="4361" max="4361" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4362" max="4362" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4363" max="4609" width="9.140625" style="9"/>
+    <col min="4610" max="4610" width="20.140625" style="9" customWidth="1"/>
+    <col min="4611" max="4611" width="9.28515625" style="9" customWidth="1"/>
+    <col min="4612" max="4612" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4613" max="4613" width="8.7109375" style="9" customWidth="1"/>
+    <col min="4614" max="4614" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4615" max="4615" width="8" style="9" customWidth="1"/>
+    <col min="4616" max="4616" width="7.42578125" style="9" customWidth="1"/>
+    <col min="4617" max="4617" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4618" max="4618" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4619" max="4865" width="9.140625" style="9"/>
+    <col min="4866" max="4866" width="20.140625" style="9" customWidth="1"/>
+    <col min="4867" max="4867" width="9.28515625" style="9" customWidth="1"/>
+    <col min="4868" max="4868" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4869" max="4869" width="8.7109375" style="9" customWidth="1"/>
+    <col min="4870" max="4870" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4871" max="4871" width="8" style="9" customWidth="1"/>
+    <col min="4872" max="4872" width="7.42578125" style="9" customWidth="1"/>
+    <col min="4873" max="4873" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4874" max="4874" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4875" max="5121" width="9.140625" style="9"/>
+    <col min="5122" max="5122" width="20.140625" style="9" customWidth="1"/>
+    <col min="5123" max="5123" width="9.28515625" style="9" customWidth="1"/>
+    <col min="5124" max="5124" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5125" max="5125" width="8.7109375" style="9" customWidth="1"/>
+    <col min="5126" max="5126" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5127" max="5127" width="8" style="9" customWidth="1"/>
+    <col min="5128" max="5128" width="7.42578125" style="9" customWidth="1"/>
+    <col min="5129" max="5129" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5130" max="5130" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5131" max="5377" width="9.140625" style="9"/>
+    <col min="5378" max="5378" width="20.140625" style="9" customWidth="1"/>
+    <col min="5379" max="5379" width="9.28515625" style="9" customWidth="1"/>
+    <col min="5380" max="5380" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5381" max="5381" width="8.7109375" style="9" customWidth="1"/>
+    <col min="5382" max="5382" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5383" max="5383" width="8" style="9" customWidth="1"/>
+    <col min="5384" max="5384" width="7.42578125" style="9" customWidth="1"/>
+    <col min="5385" max="5385" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5386" max="5386" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5387" max="5633" width="9.140625" style="9"/>
+    <col min="5634" max="5634" width="20.140625" style="9" customWidth="1"/>
+    <col min="5635" max="5635" width="9.28515625" style="9" customWidth="1"/>
+    <col min="5636" max="5636" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5637" max="5637" width="8.7109375" style="9" customWidth="1"/>
+    <col min="5638" max="5638" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5639" max="5639" width="8" style="9" customWidth="1"/>
+    <col min="5640" max="5640" width="7.42578125" style="9" customWidth="1"/>
+    <col min="5641" max="5641" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5642" max="5642" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5643" max="5889" width="9.140625" style="9"/>
+    <col min="5890" max="5890" width="20.140625" style="9" customWidth="1"/>
+    <col min="5891" max="5891" width="9.28515625" style="9" customWidth="1"/>
+    <col min="5892" max="5892" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5893" max="5893" width="8.7109375" style="9" customWidth="1"/>
+    <col min="5894" max="5894" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5895" max="5895" width="8" style="9" customWidth="1"/>
+    <col min="5896" max="5896" width="7.42578125" style="9" customWidth="1"/>
+    <col min="5897" max="5897" width="7.7109375" style="9" customWidth="1"/>
+    <col min="5898" max="5898" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5899" max="6145" width="9.140625" style="9"/>
+    <col min="6146" max="6146" width="20.140625" style="9" customWidth="1"/>
+    <col min="6147" max="6147" width="9.28515625" style="9" customWidth="1"/>
+    <col min="6148" max="6148" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6149" max="6149" width="8.7109375" style="9" customWidth="1"/>
+    <col min="6150" max="6150" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6151" max="6151" width="8" style="9" customWidth="1"/>
+    <col min="6152" max="6152" width="7.42578125" style="9" customWidth="1"/>
+    <col min="6153" max="6153" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6154" max="6154" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6155" max="6401" width="9.140625" style="9"/>
+    <col min="6402" max="6402" width="20.140625" style="9" customWidth="1"/>
+    <col min="6403" max="6403" width="9.28515625" style="9" customWidth="1"/>
+    <col min="6404" max="6404" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6405" max="6405" width="8.7109375" style="9" customWidth="1"/>
+    <col min="6406" max="6406" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6407" max="6407" width="8" style="9" customWidth="1"/>
+    <col min="6408" max="6408" width="7.42578125" style="9" customWidth="1"/>
+    <col min="6409" max="6409" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6410" max="6410" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6411" max="6657" width="9.140625" style="9"/>
+    <col min="6658" max="6658" width="20.140625" style="9" customWidth="1"/>
+    <col min="6659" max="6659" width="9.28515625" style="9" customWidth="1"/>
+    <col min="6660" max="6660" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6661" max="6661" width="8.7109375" style="9" customWidth="1"/>
+    <col min="6662" max="6662" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6663" max="6663" width="8" style="9" customWidth="1"/>
+    <col min="6664" max="6664" width="7.42578125" style="9" customWidth="1"/>
+    <col min="6665" max="6665" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6666" max="6666" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6667" max="6913" width="9.140625" style="9"/>
+    <col min="6914" max="6914" width="20.140625" style="9" customWidth="1"/>
+    <col min="6915" max="6915" width="9.28515625" style="9" customWidth="1"/>
+    <col min="6916" max="6916" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6917" max="6917" width="8.7109375" style="9" customWidth="1"/>
+    <col min="6918" max="6918" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6919" max="6919" width="8" style="9" customWidth="1"/>
+    <col min="6920" max="6920" width="7.42578125" style="9" customWidth="1"/>
+    <col min="6921" max="6921" width="7.7109375" style="9" customWidth="1"/>
+    <col min="6922" max="6922" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6923" max="7169" width="9.140625" style="9"/>
+    <col min="7170" max="7170" width="20.140625" style="9" customWidth="1"/>
+    <col min="7171" max="7171" width="9.28515625" style="9" customWidth="1"/>
+    <col min="7172" max="7172" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7173" max="7173" width="8.7109375" style="9" customWidth="1"/>
+    <col min="7174" max="7174" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7175" max="7175" width="8" style="9" customWidth="1"/>
+    <col min="7176" max="7176" width="7.42578125" style="9" customWidth="1"/>
+    <col min="7177" max="7177" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7178" max="7178" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7179" max="7425" width="9.140625" style="9"/>
+    <col min="7426" max="7426" width="20.140625" style="9" customWidth="1"/>
+    <col min="7427" max="7427" width="9.28515625" style="9" customWidth="1"/>
+    <col min="7428" max="7428" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7429" max="7429" width="8.7109375" style="9" customWidth="1"/>
+    <col min="7430" max="7430" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7431" max="7431" width="8" style="9" customWidth="1"/>
+    <col min="7432" max="7432" width="7.42578125" style="9" customWidth="1"/>
+    <col min="7433" max="7433" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7434" max="7434" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7435" max="7681" width="9.140625" style="9"/>
+    <col min="7682" max="7682" width="20.140625" style="9" customWidth="1"/>
+    <col min="7683" max="7683" width="9.28515625" style="9" customWidth="1"/>
+    <col min="7684" max="7684" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7685" max="7685" width="8.7109375" style="9" customWidth="1"/>
+    <col min="7686" max="7686" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7687" max="7687" width="8" style="9" customWidth="1"/>
+    <col min="7688" max="7688" width="7.42578125" style="9" customWidth="1"/>
+    <col min="7689" max="7689" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7690" max="7690" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7691" max="7937" width="9.140625" style="9"/>
+    <col min="7938" max="7938" width="20.140625" style="9" customWidth="1"/>
+    <col min="7939" max="7939" width="9.28515625" style="9" customWidth="1"/>
+    <col min="7940" max="7940" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7941" max="7941" width="8.7109375" style="9" customWidth="1"/>
+    <col min="7942" max="7942" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7943" max="7943" width="8" style="9" customWidth="1"/>
+    <col min="7944" max="7944" width="7.42578125" style="9" customWidth="1"/>
+    <col min="7945" max="7945" width="7.7109375" style="9" customWidth="1"/>
+    <col min="7946" max="7946" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7947" max="8193" width="9.140625" style="9"/>
+    <col min="8194" max="8194" width="20.140625" style="9" customWidth="1"/>
+    <col min="8195" max="8195" width="9.28515625" style="9" customWidth="1"/>
+    <col min="8196" max="8196" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8197" max="8197" width="8.7109375" style="9" customWidth="1"/>
+    <col min="8198" max="8198" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8199" max="8199" width="8" style="9" customWidth="1"/>
+    <col min="8200" max="8200" width="7.42578125" style="9" customWidth="1"/>
+    <col min="8201" max="8201" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8202" max="8202" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8203" max="8449" width="9.140625" style="9"/>
+    <col min="8450" max="8450" width="20.140625" style="9" customWidth="1"/>
+    <col min="8451" max="8451" width="9.28515625" style="9" customWidth="1"/>
+    <col min="8452" max="8452" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8453" max="8453" width="8.7109375" style="9" customWidth="1"/>
+    <col min="8454" max="8454" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8455" max="8455" width="8" style="9" customWidth="1"/>
+    <col min="8456" max="8456" width="7.42578125" style="9" customWidth="1"/>
+    <col min="8457" max="8457" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8458" max="8458" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8459" max="8705" width="9.140625" style="9"/>
+    <col min="8706" max="8706" width="20.140625" style="9" customWidth="1"/>
+    <col min="8707" max="8707" width="9.28515625" style="9" customWidth="1"/>
+    <col min="8708" max="8708" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8709" max="8709" width="8.7109375" style="9" customWidth="1"/>
+    <col min="8710" max="8710" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8711" max="8711" width="8" style="9" customWidth="1"/>
+    <col min="8712" max="8712" width="7.42578125" style="9" customWidth="1"/>
+    <col min="8713" max="8713" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8714" max="8714" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8715" max="8961" width="9.140625" style="9"/>
+    <col min="8962" max="8962" width="20.140625" style="9" customWidth="1"/>
+    <col min="8963" max="8963" width="9.28515625" style="9" customWidth="1"/>
+    <col min="8964" max="8964" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8965" max="8965" width="8.7109375" style="9" customWidth="1"/>
+    <col min="8966" max="8966" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8967" max="8967" width="8" style="9" customWidth="1"/>
+    <col min="8968" max="8968" width="7.42578125" style="9" customWidth="1"/>
+    <col min="8969" max="8969" width="7.7109375" style="9" customWidth="1"/>
+    <col min="8970" max="8970" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8971" max="9217" width="9.140625" style="9"/>
+    <col min="9218" max="9218" width="20.140625" style="9" customWidth="1"/>
+    <col min="9219" max="9219" width="9.28515625" style="9" customWidth="1"/>
+    <col min="9220" max="9220" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9221" max="9221" width="8.7109375" style="9" customWidth="1"/>
+    <col min="9222" max="9222" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9223" max="9223" width="8" style="9" customWidth="1"/>
+    <col min="9224" max="9224" width="7.42578125" style="9" customWidth="1"/>
+    <col min="9225" max="9225" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9226" max="9226" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9227" max="9473" width="9.140625" style="9"/>
+    <col min="9474" max="9474" width="20.140625" style="9" customWidth="1"/>
+    <col min="9475" max="9475" width="9.28515625" style="9" customWidth="1"/>
+    <col min="9476" max="9476" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9477" max="9477" width="8.7109375" style="9" customWidth="1"/>
+    <col min="9478" max="9478" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9479" max="9479" width="8" style="9" customWidth="1"/>
+    <col min="9480" max="9480" width="7.42578125" style="9" customWidth="1"/>
+    <col min="9481" max="9481" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9482" max="9482" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9483" max="9729" width="9.140625" style="9"/>
+    <col min="9730" max="9730" width="20.140625" style="9" customWidth="1"/>
+    <col min="9731" max="9731" width="9.28515625" style="9" customWidth="1"/>
+    <col min="9732" max="9732" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9733" max="9733" width="8.7109375" style="9" customWidth="1"/>
+    <col min="9734" max="9734" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9735" max="9735" width="8" style="9" customWidth="1"/>
+    <col min="9736" max="9736" width="7.42578125" style="9" customWidth="1"/>
+    <col min="9737" max="9737" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9738" max="9738" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9739" max="9985" width="9.140625" style="9"/>
+    <col min="9986" max="9986" width="20.140625" style="9" customWidth="1"/>
+    <col min="9987" max="9987" width="9.28515625" style="9" customWidth="1"/>
+    <col min="9988" max="9988" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9989" max="9989" width="8.7109375" style="9" customWidth="1"/>
+    <col min="9990" max="9990" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9991" max="9991" width="8" style="9" customWidth="1"/>
+    <col min="9992" max="9992" width="7.42578125" style="9" customWidth="1"/>
+    <col min="9993" max="9993" width="7.7109375" style="9" customWidth="1"/>
+    <col min="9994" max="9994" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9995" max="10241" width="9.140625" style="9"/>
+    <col min="10242" max="10242" width="20.140625" style="9" customWidth="1"/>
+    <col min="10243" max="10243" width="9.28515625" style="9" customWidth="1"/>
+    <col min="10244" max="10244" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10245" max="10245" width="8.7109375" style="9" customWidth="1"/>
+    <col min="10246" max="10246" width="7.85546875" style="9" customWidth="1"/>
+    <col min="10247" max="10247" width="8" style="9" customWidth="1"/>
+    <col min="10248" max="10248" width="7.42578125" style="9" customWidth="1"/>
+    <col min="10249" max="10249" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10250" max="10250" width="7.85546875" style="9" customWidth="1"/>
+    <col min="10251" max="10497" width="9.140625" style="9"/>
+    <col min="10498" max="10498" width="20.140625" style="9" customWidth="1"/>
+    <col min="10499" max="10499" width="9.28515625" style="9" customWidth="1"/>
+    <col min="10500" max="10500" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10501" max="10501" width="8.7109375" style="9" customWidth="1"/>
+    <col min="10502" max="10502" width="7.85546875" style="9" customWidth="1"/>
+    <col min="10503" max="10503" width="8" style="9" customWidth="1"/>
+    <col min="10504" max="10504" width="7.42578125" style="9" customWidth="1"/>
+    <col min="10505" max="10505" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10506" max="10506" width="7.85546875" style="9" customWidth="1"/>
+    <col min="10507" max="10753" width="9.140625" style="9"/>
+    <col min="10754" max="10754" width="20.140625" style="9" customWidth="1"/>
+    <col min="10755" max="10755" width="9.28515625" style="9" customWidth="1"/>
+    <col min="10756" max="10756" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10757" max="10757" width="8.7109375" style="9" customWidth="1"/>
+    <col min="10758" max="10758" width="7.85546875" style="9" customWidth="1"/>
+    <col min="10759" max="10759" width="8" style="9" customWidth="1"/>
+    <col min="10760" max="10760" width="7.42578125" style="9" customWidth="1"/>
+    <col min="10761" max="10761" width="7.7109375" style="9" customWidth="1"/>
+    <col min="10762" max="10762" width="7.85546875" style="9" customWidth="1"/>
+    <col min="10763" max="11009" width="9.140625" style="9"/>
+    <col min="11010" max="11010" width="20.140625" style="9" customWidth="1"/>
+    <col min="11011" max="11011" width="9.28515625" style="9" customWidth="1"/>
+    <col min="11012" max="11012" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11013" max="11013" width="8.7109375" style="9" customWidth="1"/>
+    <col min="11014" max="11014" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11015" max="11015" width="8" style="9" customWidth="1"/>
+    <col min="11016" max="11016" width="7.42578125" style="9" customWidth="1"/>
+    <col min="11017" max="11017" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11018" max="11018" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11019" max="11265" width="9.140625" style="9"/>
+    <col min="11266" max="11266" width="20.140625" style="9" customWidth="1"/>
+    <col min="11267" max="11267" width="9.28515625" style="9" customWidth="1"/>
+    <col min="11268" max="11268" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11269" max="11269" width="8.7109375" style="9" customWidth="1"/>
+    <col min="11270" max="11270" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11271" max="11271" width="8" style="9" customWidth="1"/>
+    <col min="11272" max="11272" width="7.42578125" style="9" customWidth="1"/>
+    <col min="11273" max="11273" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11274" max="11274" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11275" max="11521" width="9.140625" style="9"/>
+    <col min="11522" max="11522" width="20.140625" style="9" customWidth="1"/>
+    <col min="11523" max="11523" width="9.28515625" style="9" customWidth="1"/>
+    <col min="11524" max="11524" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11525" max="11525" width="8.7109375" style="9" customWidth="1"/>
+    <col min="11526" max="11526" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11527" max="11527" width="8" style="9" customWidth="1"/>
+    <col min="11528" max="11528" width="7.42578125" style="9" customWidth="1"/>
+    <col min="11529" max="11529" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11530" max="11530" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11531" max="11777" width="9.140625" style="9"/>
+    <col min="11778" max="11778" width="20.140625" style="9" customWidth="1"/>
+    <col min="11779" max="11779" width="9.28515625" style="9" customWidth="1"/>
+    <col min="11780" max="11780" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11781" max="11781" width="8.7109375" style="9" customWidth="1"/>
+    <col min="11782" max="11782" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11783" max="11783" width="8" style="9" customWidth="1"/>
+    <col min="11784" max="11784" width="7.42578125" style="9" customWidth="1"/>
+    <col min="11785" max="11785" width="7.7109375" style="9" customWidth="1"/>
+    <col min="11786" max="11786" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11787" max="12033" width="9.140625" style="9"/>
+    <col min="12034" max="12034" width="20.140625" style="9" customWidth="1"/>
+    <col min="12035" max="12035" width="9.28515625" style="9" customWidth="1"/>
+    <col min="12036" max="12036" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12037" max="12037" width="8.7109375" style="9" customWidth="1"/>
+    <col min="12038" max="12038" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12039" max="12039" width="8" style="9" customWidth="1"/>
+    <col min="12040" max="12040" width="7.42578125" style="9" customWidth="1"/>
+    <col min="12041" max="12041" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12042" max="12042" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12043" max="12289" width="9.140625" style="9"/>
+    <col min="12290" max="12290" width="20.140625" style="9" customWidth="1"/>
+    <col min="12291" max="12291" width="9.28515625" style="9" customWidth="1"/>
+    <col min="12292" max="12292" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12293" max="12293" width="8.7109375" style="9" customWidth="1"/>
+    <col min="12294" max="12294" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12295" max="12295" width="8" style="9" customWidth="1"/>
+    <col min="12296" max="12296" width="7.42578125" style="9" customWidth="1"/>
+    <col min="12297" max="12297" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12298" max="12298" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12299" max="12545" width="9.140625" style="9"/>
+    <col min="12546" max="12546" width="20.140625" style="9" customWidth="1"/>
+    <col min="12547" max="12547" width="9.28515625" style="9" customWidth="1"/>
+    <col min="12548" max="12548" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12549" max="12549" width="8.7109375" style="9" customWidth="1"/>
+    <col min="12550" max="12550" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12551" max="12551" width="8" style="9" customWidth="1"/>
+    <col min="12552" max="12552" width="7.42578125" style="9" customWidth="1"/>
+    <col min="12553" max="12553" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12554" max="12554" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12555" max="12801" width="9.140625" style="9"/>
+    <col min="12802" max="12802" width="20.140625" style="9" customWidth="1"/>
+    <col min="12803" max="12803" width="9.28515625" style="9" customWidth="1"/>
+    <col min="12804" max="12804" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12805" max="12805" width="8.7109375" style="9" customWidth="1"/>
+    <col min="12806" max="12806" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12807" max="12807" width="8" style="9" customWidth="1"/>
+    <col min="12808" max="12808" width="7.42578125" style="9" customWidth="1"/>
+    <col min="12809" max="12809" width="7.7109375" style="9" customWidth="1"/>
+    <col min="12810" max="12810" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12811" max="13057" width="9.140625" style="9"/>
+    <col min="13058" max="13058" width="20.140625" style="9" customWidth="1"/>
+    <col min="13059" max="13059" width="9.28515625" style="9" customWidth="1"/>
+    <col min="13060" max="13060" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13061" max="13061" width="8.7109375" style="9" customWidth="1"/>
+    <col min="13062" max="13062" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13063" max="13063" width="8" style="9" customWidth="1"/>
+    <col min="13064" max="13064" width="7.42578125" style="9" customWidth="1"/>
+    <col min="13065" max="13065" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13066" max="13066" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13067" max="13313" width="9.140625" style="9"/>
+    <col min="13314" max="13314" width="20.140625" style="9" customWidth="1"/>
+    <col min="13315" max="13315" width="9.28515625" style="9" customWidth="1"/>
+    <col min="13316" max="13316" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13317" max="13317" width="8.7109375" style="9" customWidth="1"/>
+    <col min="13318" max="13318" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13319" max="13319" width="8" style="9" customWidth="1"/>
+    <col min="13320" max="13320" width="7.42578125" style="9" customWidth="1"/>
+    <col min="13321" max="13321" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13322" max="13322" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13323" max="13569" width="9.140625" style="9"/>
+    <col min="13570" max="13570" width="20.140625" style="9" customWidth="1"/>
+    <col min="13571" max="13571" width="9.28515625" style="9" customWidth="1"/>
+    <col min="13572" max="13572" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13573" max="13573" width="8.7109375" style="9" customWidth="1"/>
+    <col min="13574" max="13574" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13575" max="13575" width="8" style="9" customWidth="1"/>
+    <col min="13576" max="13576" width="7.42578125" style="9" customWidth="1"/>
+    <col min="13577" max="13577" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13578" max="13578" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13579" max="13825" width="9.140625" style="9"/>
+    <col min="13826" max="13826" width="20.140625" style="9" customWidth="1"/>
+    <col min="13827" max="13827" width="9.28515625" style="9" customWidth="1"/>
+    <col min="13828" max="13828" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13829" max="13829" width="8.7109375" style="9" customWidth="1"/>
+    <col min="13830" max="13830" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13831" max="13831" width="8" style="9" customWidth="1"/>
+    <col min="13832" max="13832" width="7.42578125" style="9" customWidth="1"/>
+    <col min="13833" max="13833" width="7.7109375" style="9" customWidth="1"/>
+    <col min="13834" max="13834" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13835" max="14081" width="9.140625" style="9"/>
+    <col min="14082" max="14082" width="20.140625" style="9" customWidth="1"/>
+    <col min="14083" max="14083" width="9.28515625" style="9" customWidth="1"/>
+    <col min="14084" max="14084" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14085" max="14085" width="8.7109375" style="9" customWidth="1"/>
+    <col min="14086" max="14086" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14087" max="14087" width="8" style="9" customWidth="1"/>
+    <col min="14088" max="14088" width="7.42578125" style="9" customWidth="1"/>
+    <col min="14089" max="14089" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14090" max="14090" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14091" max="14337" width="9.140625" style="9"/>
+    <col min="14338" max="14338" width="20.140625" style="9" customWidth="1"/>
+    <col min="14339" max="14339" width="9.28515625" style="9" customWidth="1"/>
+    <col min="14340" max="14340" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14341" max="14341" width="8.7109375" style="9" customWidth="1"/>
+    <col min="14342" max="14342" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14343" max="14343" width="8" style="9" customWidth="1"/>
+    <col min="14344" max="14344" width="7.42578125" style="9" customWidth="1"/>
+    <col min="14345" max="14345" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14346" max="14346" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14347" max="14593" width="9.140625" style="9"/>
+    <col min="14594" max="14594" width="20.140625" style="9" customWidth="1"/>
+    <col min="14595" max="14595" width="9.28515625" style="9" customWidth="1"/>
+    <col min="14596" max="14596" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14597" max="14597" width="8.7109375" style="9" customWidth="1"/>
+    <col min="14598" max="14598" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14599" max="14599" width="8" style="9" customWidth="1"/>
+    <col min="14600" max="14600" width="7.42578125" style="9" customWidth="1"/>
+    <col min="14601" max="14601" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14602" max="14602" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14603" max="14849" width="9.140625" style="9"/>
+    <col min="14850" max="14850" width="20.140625" style="9" customWidth="1"/>
+    <col min="14851" max="14851" width="9.28515625" style="9" customWidth="1"/>
+    <col min="14852" max="14852" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14853" max="14853" width="8.7109375" style="9" customWidth="1"/>
+    <col min="14854" max="14854" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14855" max="14855" width="8" style="9" customWidth="1"/>
+    <col min="14856" max="14856" width="7.42578125" style="9" customWidth="1"/>
+    <col min="14857" max="14857" width="7.7109375" style="9" customWidth="1"/>
+    <col min="14858" max="14858" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14859" max="15105" width="9.140625" style="9"/>
+    <col min="15106" max="15106" width="20.140625" style="9" customWidth="1"/>
+    <col min="15107" max="15107" width="9.28515625" style="9" customWidth="1"/>
+    <col min="15108" max="15108" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15109" max="15109" width="8.7109375" style="9" customWidth="1"/>
+    <col min="15110" max="15110" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15111" max="15111" width="8" style="9" customWidth="1"/>
+    <col min="15112" max="15112" width="7.42578125" style="9" customWidth="1"/>
+    <col min="15113" max="15113" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15114" max="15114" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15115" max="15361" width="9.140625" style="9"/>
+    <col min="15362" max="15362" width="20.140625" style="9" customWidth="1"/>
+    <col min="15363" max="15363" width="9.28515625" style="9" customWidth="1"/>
+    <col min="15364" max="15364" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15365" max="15365" width="8.7109375" style="9" customWidth="1"/>
+    <col min="15366" max="15366" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15367" max="15367" width="8" style="9" customWidth="1"/>
+    <col min="15368" max="15368" width="7.42578125" style="9" customWidth="1"/>
+    <col min="15369" max="15369" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15370" max="15370" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15371" max="15617" width="9.140625" style="9"/>
+    <col min="15618" max="15618" width="20.140625" style="9" customWidth="1"/>
+    <col min="15619" max="15619" width="9.28515625" style="9" customWidth="1"/>
+    <col min="15620" max="15620" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15621" max="15621" width="8.7109375" style="9" customWidth="1"/>
+    <col min="15622" max="15622" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15623" max="15623" width="8" style="9" customWidth="1"/>
+    <col min="15624" max="15624" width="7.42578125" style="9" customWidth="1"/>
+    <col min="15625" max="15625" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15626" max="15626" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15627" max="15873" width="9.140625" style="9"/>
+    <col min="15874" max="15874" width="20.140625" style="9" customWidth="1"/>
+    <col min="15875" max="15875" width="9.28515625" style="9" customWidth="1"/>
+    <col min="15876" max="15876" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15877" max="15877" width="8.7109375" style="9" customWidth="1"/>
+    <col min="15878" max="15878" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15879" max="15879" width="8" style="9" customWidth="1"/>
+    <col min="15880" max="15880" width="7.42578125" style="9" customWidth="1"/>
+    <col min="15881" max="15881" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15882" max="15882" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15883" max="16129" width="9.140625" style="9"/>
+    <col min="16130" max="16130" width="20.140625" style="9" customWidth="1"/>
+    <col min="16131" max="16131" width="9.28515625" style="9" customWidth="1"/>
+    <col min="16132" max="16132" width="7.7109375" style="9" customWidth="1"/>
+    <col min="16133" max="16133" width="8.7109375" style="9" customWidth="1"/>
+    <col min="16134" max="16134" width="7.85546875" style="9" customWidth="1"/>
+    <col min="16135" max="16135" width="8" style="9" customWidth="1"/>
+    <col min="16136" max="16136" width="7.42578125" style="9" customWidth="1"/>
+    <col min="16137" max="16137" width="7.7109375" style="9" customWidth="1"/>
+    <col min="16138" max="16138" width="7.85546875" style="9" customWidth="1"/>
+    <col min="16139" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1.0101</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15">
+        <v>10</v>
+      </c>
+      <c r="G3" s="15">
+        <v>25</v>
+      </c>
+      <c r="H3" s="15">
+        <v>50</v>
+      </c>
+      <c r="I3" s="15">
+        <v>100</v>
+      </c>
+      <c r="J3" s="15">
+        <v>200</v>
+      </c>
+      <c r="K3" s="16">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24">
+        <v>-0.66700000000000004</v>
+      </c>
+      <c r="C4" s="25">
+        <f>AVERAGE(B4,D4)</f>
+        <v>-0.53150000000000008</v>
+      </c>
+      <c r="D4" s="25">
+        <v>-0.39600000000000002</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="F4" s="25">
+        <v>1.18</v>
+      </c>
+      <c r="G4" s="25">
+        <v>2.278</v>
+      </c>
+      <c r="H4" s="25">
+        <v>3.1520000000000001</v>
+      </c>
+      <c r="I4" s="25">
+        <v>4.0510000000000002</v>
+      </c>
+      <c r="J4" s="25">
+        <v>4.97</v>
+      </c>
+      <c r="K4" s="26">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="B5" s="28">
+        <v>-0.79900000000000004</v>
+      </c>
+      <c r="C5" s="29">
+        <f t="shared" ref="C5:C40" si="0">AVERAGE(B5,D5)</f>
+        <v>-0.57950000000000002</v>
+      </c>
+      <c r="D5" s="29">
+        <v>-0.36</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="F5" s="29">
+        <v>1.25</v>
+      </c>
+      <c r="G5" s="29">
+        <v>2.262</v>
+      </c>
+      <c r="H5" s="29">
+        <v>3.048</v>
+      </c>
+      <c r="I5" s="29">
+        <v>3.8450000000000002</v>
+      </c>
+      <c r="J5" s="29">
+        <v>4.6520000000000001</v>
+      </c>
+      <c r="K5" s="30">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" s="28">
+        <v>-0.90500000000000003</v>
+      </c>
+      <c r="C6" s="29">
+        <f t="shared" si="0"/>
+        <v>-0.61750000000000005</v>
+      </c>
+      <c r="D6" s="29">
+        <v>-0.33</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="F6" s="29">
+        <v>1.284</v>
+      </c>
+      <c r="G6" s="29">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H6" s="29">
+        <v>2.97</v>
+      </c>
+      <c r="I6" s="29">
+        <v>3.7050000000000001</v>
+      </c>
+      <c r="J6" s="29">
+        <v>4.444</v>
+      </c>
+      <c r="K6" s="30">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
+        <v>2</v>
+      </c>
+      <c r="B7" s="28">
+        <v>-0.99</v>
+      </c>
+      <c r="C7" s="29">
+        <f t="shared" si="0"/>
+        <v>-0.64849999999999997</v>
+      </c>
+      <c r="D7" s="29">
+        <v>-0.307</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1.302</v>
+      </c>
+      <c r="G7" s="29">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="H7" s="29">
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="I7" s="29">
+        <v>3.605</v>
+      </c>
+      <c r="J7" s="29">
+        <v>4.298</v>
+      </c>
+      <c r="K7" s="30">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="B8" s="28">
+        <v>-1.087</v>
+      </c>
+      <c r="C8" s="29">
+        <f t="shared" si="0"/>
+        <v>-0.6845</v>
+      </c>
+      <c r="D8" s="29">
+        <v>-0.28199999999999997</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="G8" s="29">
+        <v>2.1930000000000001</v>
+      </c>
+      <c r="H8" s="29">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="I8" s="29">
+        <v>3.4990000000000001</v>
+      </c>
+      <c r="J8" s="29">
+        <v>4.1470000000000002</v>
+      </c>
+      <c r="K8" s="30">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="B9" s="28">
+        <v>-1.1970000000000001</v>
+      </c>
+      <c r="C9" s="29">
+        <f t="shared" si="0"/>
+        <v>-0.72550000000000003</v>
+      </c>
+      <c r="D9" s="29">
+        <v>-0.254</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1.329</v>
+      </c>
+      <c r="G9" s="29">
+        <v>2.1629999999999998</v>
+      </c>
+      <c r="H9" s="29">
+        <v>2.78</v>
+      </c>
+      <c r="I9" s="29">
+        <v>3.3879999999999999</v>
+      </c>
+      <c r="J9" s="29">
+        <v>3.99</v>
+      </c>
+      <c r="K9" s="30">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
+        <v>1.4</v>
+      </c>
+      <c r="B10" s="28">
+        <v>-1.3180000000000001</v>
+      </c>
+      <c r="C10" s="29">
+        <f t="shared" si="0"/>
+        <v>-0.77150000000000007</v>
+      </c>
+      <c r="D10" s="29">
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="F10" s="29">
+        <v>1.337</v>
+      </c>
+      <c r="G10" s="29">
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="H10" s="29">
+        <v>2.706</v>
+      </c>
+      <c r="I10" s="29">
+        <v>3.2709999999999999</v>
+      </c>
+      <c r="J10" s="29">
+        <v>3.8279999999999998</v>
+      </c>
+      <c r="K10" s="30">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="B11" s="28">
+        <v>-1.4490000000000001</v>
+      </c>
+      <c r="C11" s="29">
+        <f t="shared" si="0"/>
+        <v>-0.82200000000000006</v>
+      </c>
+      <c r="D11" s="29">
+        <v>-0.19500000000000001</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1.34</v>
+      </c>
+      <c r="G11" s="29">
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="H11" s="29">
+        <v>2.6259999999999999</v>
+      </c>
+      <c r="I11" s="29">
+        <v>3.149</v>
+      </c>
+      <c r="J11" s="29">
+        <v>3.661</v>
+      </c>
+      <c r="K11" s="30">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
+        <v>1</v>
+      </c>
+      <c r="B12" s="28">
+        <v>-1.5880000000000001</v>
+      </c>
+      <c r="C12" s="29">
+        <f t="shared" si="0"/>
+        <v>-0.876</v>
+      </c>
+      <c r="D12" s="29">
+        <v>-0.16400000000000001</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1.34</v>
+      </c>
+      <c r="G12" s="29">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="H12" s="29">
+        <v>2.5419999999999998</v>
+      </c>
+      <c r="I12" s="29">
+        <v>3.0219999999999998</v>
+      </c>
+      <c r="J12" s="29">
+        <v>3.4889999999999999</v>
+      </c>
+      <c r="K12" s="30">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="B13" s="28">
+        <v>-1.66</v>
+      </c>
+      <c r="C13" s="29">
+        <f t="shared" si="0"/>
+        <v>-0.90399999999999991</v>
+      </c>
+      <c r="D13" s="29">
+        <v>-0.14799999999999999</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1.339</v>
+      </c>
+      <c r="G13" s="29">
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="H13" s="29">
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="I13" s="29">
+        <v>2.9569999999999999</v>
+      </c>
+      <c r="J13" s="29">
+        <v>3.4009999999999998</v>
+      </c>
+      <c r="K13" s="30">
+        <v>4.3949999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="28">
+        <v>-1.7330000000000001</v>
+      </c>
+      <c r="C14" s="29">
+        <f t="shared" si="0"/>
+        <v>-0.93250000000000011</v>
+      </c>
+      <c r="D14" s="29">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.78</v>
+      </c>
+      <c r="F14" s="29">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="G14" s="29">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="H14" s="29">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="I14" s="29">
+        <v>2.891</v>
+      </c>
+      <c r="J14" s="29">
+        <v>3.3119999999999998</v>
+      </c>
+      <c r="K14" s="30">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="B15" s="28">
+        <v>-1.806</v>
+      </c>
+      <c r="C15" s="29">
+        <f t="shared" si="0"/>
+        <v>-0.96100000000000008</v>
+      </c>
+      <c r="D15" s="29">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.79</v>
+      </c>
+      <c r="F15" s="29">
+        <v>1.333</v>
+      </c>
+      <c r="G15" s="29">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="H15" s="29">
+        <v>2.407</v>
+      </c>
+      <c r="I15" s="29">
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="J15" s="29">
+        <v>3.2229999999999999</v>
+      </c>
+      <c r="K15" s="30">
+        <v>4.1050000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="B16" s="28">
+        <v>-1.88</v>
+      </c>
+      <c r="C16" s="29">
+        <f t="shared" si="0"/>
+        <v>-0.98949999999999994</v>
+      </c>
+      <c r="D16" s="29">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="29">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="G16" s="29">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="H16" s="29">
+        <v>2.359</v>
+      </c>
+      <c r="I16" s="29">
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="J16" s="29">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="K16" s="30">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="B17" s="28">
+        <v>-1.9550000000000001</v>
+      </c>
+      <c r="C17" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.0190000000000001</v>
+      </c>
+      <c r="D17" s="29">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="F17" s="29">
+        <v>1.323</v>
+      </c>
+      <c r="G17" s="29">
+        <v>1.91</v>
+      </c>
+      <c r="H17" s="29">
+        <v>2.3109999999999999</v>
+      </c>
+      <c r="I17" s="29">
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="J17" s="29">
+        <v>3.0409999999999999</v>
+      </c>
+      <c r="K17" s="30">
+        <v>3.8149999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="B18" s="28">
+        <v>-2.0289999999999999</v>
+      </c>
+      <c r="C18" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.0474999999999999</v>
+      </c>
+      <c r="D18" s="29">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="F18" s="29">
+        <v>1.3169999999999999</v>
+      </c>
+      <c r="G18" s="29">
+        <v>1.88</v>
+      </c>
+      <c r="H18" s="29">
+        <v>2.2610000000000001</v>
+      </c>
+      <c r="I18" s="29">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="J18" s="29">
+        <v>2.9489999999999998</v>
+      </c>
+      <c r="K18" s="30">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="B19" s="28">
+        <v>-2.1040000000000001</v>
+      </c>
+      <c r="C19" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.077</v>
+      </c>
+      <c r="D19" s="29">
+        <v>-0.05</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F19" s="29">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="G19" s="29">
+        <v>1.849</v>
+      </c>
+      <c r="H19" s="29">
+        <v>2.2109999999999999</v>
+      </c>
+      <c r="I19" s="29">
+        <v>2.544</v>
+      </c>
+      <c r="J19" s="29">
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="K19" s="30">
+        <v>3.5249999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="B20" s="28">
+        <v>-2.1779999999999999</v>
+      </c>
+      <c r="C20" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.1054999999999999</v>
+      </c>
+      <c r="D20" s="29">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0.83</v>
+      </c>
+      <c r="F20" s="29">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="G20" s="29">
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="H20" s="29">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="I20" s="29">
+        <v>2.472</v>
+      </c>
+      <c r="J20" s="29">
+        <v>2.7629999999999999</v>
+      </c>
+      <c r="K20" s="30">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="B21" s="28">
+        <v>-2.2519999999999998</v>
+      </c>
+      <c r="C21" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.1344999999999998</v>
+      </c>
+      <c r="D21" s="29">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="E21" s="29">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="F21" s="29">
+        <v>1.292</v>
+      </c>
+      <c r="G21" s="29">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="H21" s="29">
+        <v>2.1070000000000002</v>
+      </c>
+      <c r="I21" s="29">
+        <v>2.4</v>
+      </c>
+      <c r="J21" s="29">
+        <v>2.67</v>
+      </c>
+      <c r="K21" s="30">
+        <v>3.2349999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="27">
+        <v>0</v>
+      </c>
+      <c r="B22" s="28">
+        <v>-2.3260000000000001</v>
+      </c>
+      <c r="C22" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.163</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="F22" s="29">
+        <v>1.282</v>
+      </c>
+      <c r="G22" s="29">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="H22" s="29">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="I22" s="29">
+        <v>2.3260000000000001</v>
+      </c>
+      <c r="J22" s="29">
+        <v>2.5760000000000001</v>
+      </c>
+      <c r="K22" s="30">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="27">
+        <v>-0.1</v>
+      </c>
+      <c r="B23" s="28">
+        <v>-2.4</v>
+      </c>
+      <c r="C23" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.1915</v>
+      </c>
+      <c r="D23" s="29">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E23" s="29">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="F23" s="29">
+        <v>1.27</v>
+      </c>
+      <c r="G23" s="29">
+        <v>1.716</v>
+      </c>
+      <c r="H23" s="29">
+        <v>2</v>
+      </c>
+      <c r="I23" s="29">
+        <v>2.2519999999999998</v>
+      </c>
+      <c r="J23" s="29">
+        <v>2.4820000000000002</v>
+      </c>
+      <c r="K23" s="30">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="B24" s="28">
+        <v>-2.472</v>
+      </c>
+      <c r="C24" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.2195</v>
+      </c>
+      <c r="D24" s="29">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0.85</v>
+      </c>
+      <c r="F24" s="29">
+        <v>1.258</v>
+      </c>
+      <c r="G24" s="29">
+        <v>1.68</v>
+      </c>
+      <c r="H24" s="29">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="I24" s="29">
+        <v>2.1779999999999999</v>
+      </c>
+      <c r="J24" s="29">
+        <v>2.3879999999999999</v>
+      </c>
+      <c r="K24" s="30">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="27">
+        <v>-0.3</v>
+      </c>
+      <c r="B25" s="28">
+        <v>-2.544</v>
+      </c>
+      <c r="C25" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.2470000000000001</v>
+      </c>
+      <c r="D25" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="E25" s="29">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="F25" s="29">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="G25" s="29">
+        <v>1.643</v>
+      </c>
+      <c r="H25" s="29">
+        <v>1.89</v>
+      </c>
+      <c r="I25" s="29">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="J25" s="29">
+        <v>2.294</v>
+      </c>
+      <c r="K25" s="30">
+        <v>2.6749999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="27">
+        <v>-0.4</v>
+      </c>
+      <c r="B26" s="28">
+        <v>-2.6150000000000002</v>
+      </c>
+      <c r="C26" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.2745000000000002</v>
+      </c>
+      <c r="D26" s="29">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F26" s="29">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="G26" s="29">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="H26" s="29">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="I26" s="29">
+        <v>2.0289999999999999</v>
+      </c>
+      <c r="J26" s="29">
+        <v>2.2010000000000001</v>
+      </c>
+      <c r="K26" s="30">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="27">
+        <v>-0.5</v>
+      </c>
+      <c r="B27" s="28">
+        <v>-2.6859999999999999</v>
+      </c>
+      <c r="C27" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.3014999999999999</v>
+      </c>
+      <c r="D27" s="29">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E27" s="29">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="F27" s="29">
+        <v>1.216</v>
+      </c>
+      <c r="G27" s="29">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="H27" s="29">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="I27" s="29">
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="J27" s="29">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="K27" s="30">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="27">
+        <v>-0.6</v>
+      </c>
+      <c r="B28" s="28">
+        <v>-2.7549999999999999</v>
+      </c>
+      <c r="C28" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.3279999999999998</v>
+      </c>
+      <c r="D28" s="29">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E28" s="29">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F28" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="G28" s="29">
+        <v>1.528</v>
+      </c>
+      <c r="H28" s="29">
+        <v>1.72</v>
+      </c>
+      <c r="I28" s="29">
+        <v>1.88</v>
+      </c>
+      <c r="J28" s="29">
+        <v>2.016</v>
+      </c>
+      <c r="K28" s="30">
+        <v>2.2749999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="27">
+        <v>-0.7</v>
+      </c>
+      <c r="B29" s="28">
+        <v>-2.8239999999999998</v>
+      </c>
+      <c r="C29" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.3539999999999999</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E29" s="29">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F29" s="29">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="G29" s="29">
+        <v>1.488</v>
+      </c>
+      <c r="H29" s="29">
+        <v>1.663</v>
+      </c>
+      <c r="I29" s="29">
+        <v>1.806</v>
+      </c>
+      <c r="J29" s="29">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="K29" s="30">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="27">
+        <v>-0.8</v>
+      </c>
+      <c r="B30" s="28">
+        <v>-2.891</v>
+      </c>
+      <c r="C30" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.3794999999999999</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E30" s="29">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="F30" s="29">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="G30" s="29">
+        <v>1.448</v>
+      </c>
+      <c r="H30" s="29">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="I30" s="29">
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="J30" s="29">
+        <v>1.837</v>
+      </c>
+      <c r="K30" s="30">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="27">
+        <v>-0.9</v>
+      </c>
+      <c r="B31" s="28">
+        <v>-2.9569999999999999</v>
+      </c>
+      <c r="C31" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.4044999999999999</v>
+      </c>
+      <c r="D31" s="29">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E31" s="29">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="F31" s="29">
+        <v>1.147</v>
+      </c>
+      <c r="G31" s="29">
+        <v>1.407</v>
+      </c>
+      <c r="H31" s="29">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="I31" s="29">
+        <v>1.66</v>
+      </c>
+      <c r="J31" s="29">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="K31" s="30">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="27">
+        <v>-1</v>
+      </c>
+      <c r="B32" s="28">
+        <v>-3.0219999999999998</v>
+      </c>
+      <c r="C32" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.4289999999999998</v>
+      </c>
+      <c r="D32" s="29">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E32" s="29">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F32" s="29">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="G32" s="29">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="H32" s="29">
+        <v>1.492</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="J32" s="29">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="K32" s="30">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="27">
+        <v>-1.2</v>
+      </c>
+      <c r="B33" s="28">
+        <v>-3.149</v>
+      </c>
+      <c r="C33" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.4770000000000001</v>
+      </c>
+      <c r="D33" s="29">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E33" s="29">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F33" s="29">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="G33" s="29">
+        <v>1.282</v>
+      </c>
+      <c r="H33" s="29">
+        <v>1.379</v>
+      </c>
+      <c r="I33" s="29">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="J33" s="29">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="K33" s="30">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="27">
+        <v>-1.4</v>
+      </c>
+      <c r="B34" s="28">
+        <v>-3.2709999999999999</v>
+      </c>
+      <c r="C34" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.5229999999999999</v>
+      </c>
+      <c r="D34" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E34" s="29">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="F34" s="29">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="G34" s="29">
+        <v>1.198</v>
+      </c>
+      <c r="H34" s="29">
+        <v>1.27</v>
+      </c>
+      <c r="I34" s="29">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="J34" s="29">
+        <v>1.351</v>
+      </c>
+      <c r="K34" s="30">
+        <v>1.4650000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="27">
+        <v>-1.6</v>
+      </c>
+      <c r="B35" s="28">
+        <v>-3.88</v>
+      </c>
+      <c r="C35" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.8129999999999999</v>
+      </c>
+      <c r="D35" s="29">
+        <v>0.254</v>
+      </c>
+      <c r="E35" s="29">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="F35" s="29">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G35" s="29">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="H35" s="29">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="I35" s="29">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="J35" s="29">
+        <v>1.216</v>
+      </c>
+      <c r="K35" s="30">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="27">
+        <v>-1.8</v>
+      </c>
+      <c r="B36" s="28">
+        <v>-3.4990000000000001</v>
+      </c>
+      <c r="C36" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.6085</v>
+      </c>
+      <c r="D36" s="29">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E36" s="29">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="F36" s="29">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G36" s="29">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="H36" s="29">
+        <v>1.069</v>
+      </c>
+      <c r="I36" s="29">
+        <v>1.087</v>
+      </c>
+      <c r="J36" s="29">
+        <v>1.097</v>
+      </c>
+      <c r="K36" s="30">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="27">
+        <v>-2</v>
+      </c>
+      <c r="B37" s="28">
+        <v>-3.605</v>
+      </c>
+      <c r="C37" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.649</v>
+      </c>
+      <c r="D37" s="29">
+        <v>0.307</v>
+      </c>
+      <c r="E37" s="29">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="F37" s="29">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G37" s="29">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="H37" s="29">
+        <v>0.98</v>
+      </c>
+      <c r="I37" s="29">
+        <v>0.99</v>
+      </c>
+      <c r="J37" s="29">
+        <v>0.995</v>
+      </c>
+      <c r="K37" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="27">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="B38" s="28">
+        <v>-3.7050000000000001</v>
+      </c>
+      <c r="C38" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.6875</v>
+      </c>
+      <c r="D38" s="29">
+        <v>0.33</v>
+      </c>
+      <c r="E38" s="29">
+        <v>0.752</v>
+      </c>
+      <c r="F38" s="29">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="G38" s="29">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="H38" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="I38" s="29">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="J38" s="29">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="K38" s="30">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="27">
+        <v>-2.5</v>
+      </c>
+      <c r="B39" s="28">
+        <v>-3.8450000000000002</v>
+      </c>
+      <c r="C39" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.7425000000000002</v>
+      </c>
+      <c r="D39" s="29">
+        <v>0.36</v>
+      </c>
+      <c r="E39" s="29">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="F39" s="29">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="G39" s="29">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="H39" s="29">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="I39" s="29">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="J39" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="K39" s="30">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="31">
+        <v>-3</v>
+      </c>
+      <c r="B40" s="32">
+        <v>-4.0510000000000002</v>
+      </c>
+      <c r="C40" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.8275000000000001</v>
+      </c>
+      <c r="D40" s="34">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E40" s="34">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="F40" s="34">
+        <v>0.66</v>
+      </c>
+      <c r="G40" s="34">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="H40" s="34">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="I40" s="34">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="J40" s="34">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K40" s="35">
+        <v>0.66800000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E439B207-698C-46EF-B68B-A0E898259F47}">
   <dimension ref="A1:AW72"/>
   <sheetViews>

--- a/data_and_code/Tabel_Distribusi_Frekuensi.xlsx
+++ b/data_and_code/Tabel_Distribusi_Frekuensi.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22f5ef4527203c63/PROYEK/R_Project/drainase_purwakarta/data_and_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2020\_R_Project\rev_drainase_purwakarta\data_and_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{A35D8EC3-9874-4AD2-B771-AD63D0DFD1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0121015C-AE3E-40D9-A5E5-60770A3EA9ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA71C00-B2AA-43F5-B678-575F14AD7261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="11850" windowHeight="11580" activeTab="2" xr2:uid="{AD7706C6-5E18-4BD2-AE6B-C9BAD8C97B36}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="5" xr2:uid="{AD7706C6-5E18-4BD2-AE6B-C9BAD8C97B36}"/>
+    <workbookView xWindow="6204" yWindow="3372" windowWidth="11520" windowHeight="11904" firstSheet="1" activeTab="3" xr2:uid="{72BD09A8-2734-4EB4-A916-154B81513C43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel_Z" sheetId="1" r:id="rId1"/>
     <sheet name="log_pearson_III" sheetId="2" r:id="rId2"/>
     <sheet name="lp_III" sheetId="4" r:id="rId3"/>
     <sheet name="Tabel" sheetId="3" r:id="rId4"/>
+    <sheet name="yn" sheetId="5" r:id="rId5"/>
+    <sheet name="sn" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
@@ -35,6 +36,8 @@
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
     <definedName name="____Pd1">#REF!</definedName>
@@ -228,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>z</t>
   </si>
@@ -407,6 +410,9 @@
   </si>
   <si>
     <t>Cw*</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -984,7 +990,19 @@
     <xf numFmtId="2" fontId="6" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="6" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -992,18 +1010,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -18671,18 +18677,19 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="12" width="8.7109375" customWidth="1"/>
+    <col min="2" max="12" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -18717,7 +18724,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>0</v>
       </c>
@@ -18752,7 +18759,7 @@
         <v>0.53585639258517204</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>0.1</v>
       </c>
@@ -18787,7 +18794,7 @@
         <v>0.57534543473479549</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>0.2</v>
       </c>
@@ -18822,7 +18829,7 @@
         <v>0.61409188119887737</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>0.3</v>
       </c>
@@ -18857,7 +18864,7 @@
         <v>0.65173172653598244</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>0.4</v>
       </c>
@@ -18892,7 +18899,7 @@
         <v>0.68793305058260945</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -18905,7 +18912,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>0.5</v>
       </c>
@@ -18940,7 +18947,7 @@
         <v>0.72240467524653507</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>0.6</v>
       </c>
@@ -18975,7 +18982,7 @@
         <v>0.75490290632569057</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>0.7</v>
       </c>
@@ -19010,7 +19017,7 @@
         <v>0.78523611583636277</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>0.8</v>
       </c>
@@ -19045,7 +19052,7 @@
         <v>0.81326705696282742</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>0.9</v>
       </c>
@@ -19080,7 +19087,7 @@
         <v>0.83891294048916909</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -19093,7 +19100,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>1</v>
       </c>
@@ -19128,7 +19135,7 @@
         <v>0.8621434279679645</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -19163,7 +19170,7 @@
         <v>0.88297680397689127</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>1.2</v>
       </c>
@@ -19198,7 +19205,7 @@
         <v>0.90147467095025213</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>1.3</v>
       </c>
@@ -19233,7 +19240,7 @@
         <v>0.91773556132233114</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>1.4</v>
       </c>
@@ -19268,7 +19275,7 @@
         <v>0.93188788203327455</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -19281,7 +19288,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>1.5</v>
       </c>
@@ -19316,7 +19323,7 @@
         <v>0.94408259748053058</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>1.6</v>
       </c>
@@ -19351,7 +19358,7 @@
         <v>0.95448602267845017</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>1.7</v>
       </c>
@@ -19386,7 +19393,7 @@
         <v>0.9632730443012737</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>1.8</v>
       </c>
@@ -19421,7 +19428,7 @@
         <v>0.9706210199595906</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>1.9</v>
       </c>
@@ -19456,7 +19463,7 @@
         <v>0.97670453224978815</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -19469,7 +19476,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>2</v>
       </c>
@@ -19504,7 +19511,7 @@
         <v>0.98169110014834104</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <v>2.1</v>
       </c>
@@ -19539,7 +19546,7 @@
         <v>0.98573788158933118</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -19574,7 +19581,7 @@
         <v>0.98898934167558861</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>2.2999999999999998</v>
       </c>
@@ -19609,7 +19616,7 @@
         <v>0.99157581360065428</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <v>2.4</v>
       </c>
@@ -19644,7 +19651,7 @@
         <v>0.99361284523505677</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -19657,7 +19664,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <v>2.5</v>
       </c>
@@ -19692,7 +19699,7 @@
         <v>0.99520120340287377</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>2.6</v>
       </c>
@@ -19727,7 +19734,7 @@
         <v>0.99642739904760025</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <v>2.7</v>
       </c>
@@ -19762,7 +19769,7 @@
         <v>0.99736459792209509</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>2.8</v>
       </c>
@@ -19797,7 +19804,7 @@
         <v>0.99807379086781212</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
         <v>2.9</v>
       </c>
@@ -19832,7 +19839,7 @@
         <v>0.9986051127645077</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -19845,7 +19852,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <v>3</v>
       </c>
@@ -19880,7 +19887,7 @@
         <v>0.99899921752338594</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <v>3.1</v>
       </c>
@@ -19915,7 +19922,7 @@
         <v>0.99928863603135465</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <v>3.2</v>
       </c>
@@ -19950,7 +19957,7 @@
         <v>0.99949906308621428</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <v>3.3</v>
       </c>
@@ -19985,7 +19992,7 @@
         <v>0.99965053688166206</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
         <v>3.4</v>
       </c>
@@ -20020,7 +20027,7 @@
         <v>0.99975848972643211</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>3.5</v>
       </c>
@@ -20068,660 +20075,661 @@
     <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="9" customWidth="1"/>
     <col min="7" max="7" width="8" style="9" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="9" customWidth="1"/>
-    <col min="11" max="257" width="9.140625" style="9"/>
-    <col min="258" max="258" width="20.140625" style="9" customWidth="1"/>
-    <col min="259" max="259" width="9.28515625" style="9" customWidth="1"/>
-    <col min="260" max="260" width="7.7109375" style="9" customWidth="1"/>
-    <col min="261" max="261" width="8.7109375" style="9" customWidth="1"/>
-    <col min="262" max="262" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="9" customWidth="1"/>
+    <col min="11" max="257" width="9.109375" style="9"/>
+    <col min="258" max="258" width="20.109375" style="9" customWidth="1"/>
+    <col min="259" max="259" width="9.33203125" style="9" customWidth="1"/>
+    <col min="260" max="260" width="7.6640625" style="9" customWidth="1"/>
+    <col min="261" max="261" width="8.6640625" style="9" customWidth="1"/>
+    <col min="262" max="262" width="7.88671875" style="9" customWidth="1"/>
     <col min="263" max="263" width="8" style="9" customWidth="1"/>
-    <col min="264" max="264" width="7.42578125" style="9" customWidth="1"/>
-    <col min="265" max="265" width="7.7109375" style="9" customWidth="1"/>
-    <col min="266" max="266" width="7.85546875" style="9" customWidth="1"/>
-    <col min="267" max="513" width="9.140625" style="9"/>
-    <col min="514" max="514" width="20.140625" style="9" customWidth="1"/>
-    <col min="515" max="515" width="9.28515625" style="9" customWidth="1"/>
-    <col min="516" max="516" width="7.7109375" style="9" customWidth="1"/>
-    <col min="517" max="517" width="8.7109375" style="9" customWidth="1"/>
-    <col min="518" max="518" width="7.85546875" style="9" customWidth="1"/>
+    <col min="264" max="264" width="7.44140625" style="9" customWidth="1"/>
+    <col min="265" max="265" width="7.6640625" style="9" customWidth="1"/>
+    <col min="266" max="266" width="7.88671875" style="9" customWidth="1"/>
+    <col min="267" max="513" width="9.109375" style="9"/>
+    <col min="514" max="514" width="20.109375" style="9" customWidth="1"/>
+    <col min="515" max="515" width="9.33203125" style="9" customWidth="1"/>
+    <col min="516" max="516" width="7.6640625" style="9" customWidth="1"/>
+    <col min="517" max="517" width="8.6640625" style="9" customWidth="1"/>
+    <col min="518" max="518" width="7.88671875" style="9" customWidth="1"/>
     <col min="519" max="519" width="8" style="9" customWidth="1"/>
-    <col min="520" max="520" width="7.42578125" style="9" customWidth="1"/>
-    <col min="521" max="521" width="7.7109375" style="9" customWidth="1"/>
-    <col min="522" max="522" width="7.85546875" style="9" customWidth="1"/>
-    <col min="523" max="769" width="9.140625" style="9"/>
-    <col min="770" max="770" width="20.140625" style="9" customWidth="1"/>
-    <col min="771" max="771" width="9.28515625" style="9" customWidth="1"/>
-    <col min="772" max="772" width="7.7109375" style="9" customWidth="1"/>
-    <col min="773" max="773" width="8.7109375" style="9" customWidth="1"/>
-    <col min="774" max="774" width="7.85546875" style="9" customWidth="1"/>
+    <col min="520" max="520" width="7.44140625" style="9" customWidth="1"/>
+    <col min="521" max="521" width="7.6640625" style="9" customWidth="1"/>
+    <col min="522" max="522" width="7.88671875" style="9" customWidth="1"/>
+    <col min="523" max="769" width="9.109375" style="9"/>
+    <col min="770" max="770" width="20.109375" style="9" customWidth="1"/>
+    <col min="771" max="771" width="9.33203125" style="9" customWidth="1"/>
+    <col min="772" max="772" width="7.6640625" style="9" customWidth="1"/>
+    <col min="773" max="773" width="8.6640625" style="9" customWidth="1"/>
+    <col min="774" max="774" width="7.88671875" style="9" customWidth="1"/>
     <col min="775" max="775" width="8" style="9" customWidth="1"/>
-    <col min="776" max="776" width="7.42578125" style="9" customWidth="1"/>
-    <col min="777" max="777" width="7.7109375" style="9" customWidth="1"/>
-    <col min="778" max="778" width="7.85546875" style="9" customWidth="1"/>
-    <col min="779" max="1025" width="9.140625" style="9"/>
-    <col min="1026" max="1026" width="20.140625" style="9" customWidth="1"/>
-    <col min="1027" max="1027" width="9.28515625" style="9" customWidth="1"/>
-    <col min="1028" max="1028" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1029" max="1029" width="8.7109375" style="9" customWidth="1"/>
-    <col min="1030" max="1030" width="7.85546875" style="9" customWidth="1"/>
+    <col min="776" max="776" width="7.44140625" style="9" customWidth="1"/>
+    <col min="777" max="777" width="7.6640625" style="9" customWidth="1"/>
+    <col min="778" max="778" width="7.88671875" style="9" customWidth="1"/>
+    <col min="779" max="1025" width="9.109375" style="9"/>
+    <col min="1026" max="1026" width="20.109375" style="9" customWidth="1"/>
+    <col min="1027" max="1027" width="9.33203125" style="9" customWidth="1"/>
+    <col min="1028" max="1028" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1029" max="1029" width="8.6640625" style="9" customWidth="1"/>
+    <col min="1030" max="1030" width="7.88671875" style="9" customWidth="1"/>
     <col min="1031" max="1031" width="8" style="9" customWidth="1"/>
-    <col min="1032" max="1032" width="7.42578125" style="9" customWidth="1"/>
-    <col min="1033" max="1033" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1034" max="1034" width="7.85546875" style="9" customWidth="1"/>
-    <col min="1035" max="1281" width="9.140625" style="9"/>
-    <col min="1282" max="1282" width="20.140625" style="9" customWidth="1"/>
-    <col min="1283" max="1283" width="9.28515625" style="9" customWidth="1"/>
-    <col min="1284" max="1284" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1285" max="1285" width="8.7109375" style="9" customWidth="1"/>
-    <col min="1286" max="1286" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1032" max="1032" width="7.44140625" style="9" customWidth="1"/>
+    <col min="1033" max="1033" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1034" max="1034" width="7.88671875" style="9" customWidth="1"/>
+    <col min="1035" max="1281" width="9.109375" style="9"/>
+    <col min="1282" max="1282" width="20.109375" style="9" customWidth="1"/>
+    <col min="1283" max="1283" width="9.33203125" style="9" customWidth="1"/>
+    <col min="1284" max="1284" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1285" max="1285" width="8.6640625" style="9" customWidth="1"/>
+    <col min="1286" max="1286" width="7.88671875" style="9" customWidth="1"/>
     <col min="1287" max="1287" width="8" style="9" customWidth="1"/>
-    <col min="1288" max="1288" width="7.42578125" style="9" customWidth="1"/>
-    <col min="1289" max="1289" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1290" max="1290" width="7.85546875" style="9" customWidth="1"/>
-    <col min="1291" max="1537" width="9.140625" style="9"/>
-    <col min="1538" max="1538" width="20.140625" style="9" customWidth="1"/>
-    <col min="1539" max="1539" width="9.28515625" style="9" customWidth="1"/>
-    <col min="1540" max="1540" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1541" max="1541" width="8.7109375" style="9" customWidth="1"/>
-    <col min="1542" max="1542" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1288" max="1288" width="7.44140625" style="9" customWidth="1"/>
+    <col min="1289" max="1289" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1290" max="1290" width="7.88671875" style="9" customWidth="1"/>
+    <col min="1291" max="1537" width="9.109375" style="9"/>
+    <col min="1538" max="1538" width="20.109375" style="9" customWidth="1"/>
+    <col min="1539" max="1539" width="9.33203125" style="9" customWidth="1"/>
+    <col min="1540" max="1540" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1541" max="1541" width="8.6640625" style="9" customWidth="1"/>
+    <col min="1542" max="1542" width="7.88671875" style="9" customWidth="1"/>
     <col min="1543" max="1543" width="8" style="9" customWidth="1"/>
-    <col min="1544" max="1544" width="7.42578125" style="9" customWidth="1"/>
-    <col min="1545" max="1545" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1546" max="1546" width="7.85546875" style="9" customWidth="1"/>
-    <col min="1547" max="1793" width="9.140625" style="9"/>
-    <col min="1794" max="1794" width="20.140625" style="9" customWidth="1"/>
-    <col min="1795" max="1795" width="9.28515625" style="9" customWidth="1"/>
-    <col min="1796" max="1796" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1797" max="1797" width="8.7109375" style="9" customWidth="1"/>
-    <col min="1798" max="1798" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1544" max="1544" width="7.44140625" style="9" customWidth="1"/>
+    <col min="1545" max="1545" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1546" max="1546" width="7.88671875" style="9" customWidth="1"/>
+    <col min="1547" max="1793" width="9.109375" style="9"/>
+    <col min="1794" max="1794" width="20.109375" style="9" customWidth="1"/>
+    <col min="1795" max="1795" width="9.33203125" style="9" customWidth="1"/>
+    <col min="1796" max="1796" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1797" max="1797" width="8.6640625" style="9" customWidth="1"/>
+    <col min="1798" max="1798" width="7.88671875" style="9" customWidth="1"/>
     <col min="1799" max="1799" width="8" style="9" customWidth="1"/>
-    <col min="1800" max="1800" width="7.42578125" style="9" customWidth="1"/>
-    <col min="1801" max="1801" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1802" max="1802" width="7.85546875" style="9" customWidth="1"/>
-    <col min="1803" max="2049" width="9.140625" style="9"/>
-    <col min="2050" max="2050" width="20.140625" style="9" customWidth="1"/>
-    <col min="2051" max="2051" width="9.28515625" style="9" customWidth="1"/>
-    <col min="2052" max="2052" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2053" max="2053" width="8.7109375" style="9" customWidth="1"/>
-    <col min="2054" max="2054" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1800" max="1800" width="7.44140625" style="9" customWidth="1"/>
+    <col min="1801" max="1801" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1802" max="1802" width="7.88671875" style="9" customWidth="1"/>
+    <col min="1803" max="2049" width="9.109375" style="9"/>
+    <col min="2050" max="2050" width="20.109375" style="9" customWidth="1"/>
+    <col min="2051" max="2051" width="9.33203125" style="9" customWidth="1"/>
+    <col min="2052" max="2052" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2053" max="2053" width="8.6640625" style="9" customWidth="1"/>
+    <col min="2054" max="2054" width="7.88671875" style="9" customWidth="1"/>
     <col min="2055" max="2055" width="8" style="9" customWidth="1"/>
-    <col min="2056" max="2056" width="7.42578125" style="9" customWidth="1"/>
-    <col min="2057" max="2057" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2058" max="2058" width="7.85546875" style="9" customWidth="1"/>
-    <col min="2059" max="2305" width="9.140625" style="9"/>
-    <col min="2306" max="2306" width="20.140625" style="9" customWidth="1"/>
-    <col min="2307" max="2307" width="9.28515625" style="9" customWidth="1"/>
-    <col min="2308" max="2308" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2309" max="2309" width="8.7109375" style="9" customWidth="1"/>
-    <col min="2310" max="2310" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2056" max="2056" width="7.44140625" style="9" customWidth="1"/>
+    <col min="2057" max="2057" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2058" max="2058" width="7.88671875" style="9" customWidth="1"/>
+    <col min="2059" max="2305" width="9.109375" style="9"/>
+    <col min="2306" max="2306" width="20.109375" style="9" customWidth="1"/>
+    <col min="2307" max="2307" width="9.33203125" style="9" customWidth="1"/>
+    <col min="2308" max="2308" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2309" max="2309" width="8.6640625" style="9" customWidth="1"/>
+    <col min="2310" max="2310" width="7.88671875" style="9" customWidth="1"/>
     <col min="2311" max="2311" width="8" style="9" customWidth="1"/>
-    <col min="2312" max="2312" width="7.42578125" style="9" customWidth="1"/>
-    <col min="2313" max="2313" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2314" max="2314" width="7.85546875" style="9" customWidth="1"/>
-    <col min="2315" max="2561" width="9.140625" style="9"/>
-    <col min="2562" max="2562" width="20.140625" style="9" customWidth="1"/>
-    <col min="2563" max="2563" width="9.28515625" style="9" customWidth="1"/>
-    <col min="2564" max="2564" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2565" max="2565" width="8.7109375" style="9" customWidth="1"/>
-    <col min="2566" max="2566" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2312" max="2312" width="7.44140625" style="9" customWidth="1"/>
+    <col min="2313" max="2313" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2314" max="2314" width="7.88671875" style="9" customWidth="1"/>
+    <col min="2315" max="2561" width="9.109375" style="9"/>
+    <col min="2562" max="2562" width="20.109375" style="9" customWidth="1"/>
+    <col min="2563" max="2563" width="9.33203125" style="9" customWidth="1"/>
+    <col min="2564" max="2564" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2565" max="2565" width="8.6640625" style="9" customWidth="1"/>
+    <col min="2566" max="2566" width="7.88671875" style="9" customWidth="1"/>
     <col min="2567" max="2567" width="8" style="9" customWidth="1"/>
-    <col min="2568" max="2568" width="7.42578125" style="9" customWidth="1"/>
-    <col min="2569" max="2569" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2570" max="2570" width="7.85546875" style="9" customWidth="1"/>
-    <col min="2571" max="2817" width="9.140625" style="9"/>
-    <col min="2818" max="2818" width="20.140625" style="9" customWidth="1"/>
-    <col min="2819" max="2819" width="9.28515625" style="9" customWidth="1"/>
-    <col min="2820" max="2820" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2821" max="2821" width="8.7109375" style="9" customWidth="1"/>
-    <col min="2822" max="2822" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2568" max="2568" width="7.44140625" style="9" customWidth="1"/>
+    <col min="2569" max="2569" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2570" max="2570" width="7.88671875" style="9" customWidth="1"/>
+    <col min="2571" max="2817" width="9.109375" style="9"/>
+    <col min="2818" max="2818" width="20.109375" style="9" customWidth="1"/>
+    <col min="2819" max="2819" width="9.33203125" style="9" customWidth="1"/>
+    <col min="2820" max="2820" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2821" max="2821" width="8.6640625" style="9" customWidth="1"/>
+    <col min="2822" max="2822" width="7.88671875" style="9" customWidth="1"/>
     <col min="2823" max="2823" width="8" style="9" customWidth="1"/>
-    <col min="2824" max="2824" width="7.42578125" style="9" customWidth="1"/>
-    <col min="2825" max="2825" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2826" max="2826" width="7.85546875" style="9" customWidth="1"/>
-    <col min="2827" max="3073" width="9.140625" style="9"/>
-    <col min="3074" max="3074" width="20.140625" style="9" customWidth="1"/>
-    <col min="3075" max="3075" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3076" max="3076" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3077" max="3077" width="8.7109375" style="9" customWidth="1"/>
-    <col min="3078" max="3078" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2824" max="2824" width="7.44140625" style="9" customWidth="1"/>
+    <col min="2825" max="2825" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2826" max="2826" width="7.88671875" style="9" customWidth="1"/>
+    <col min="2827" max="3073" width="9.109375" style="9"/>
+    <col min="3074" max="3074" width="20.109375" style="9" customWidth="1"/>
+    <col min="3075" max="3075" width="9.33203125" style="9" customWidth="1"/>
+    <col min="3076" max="3076" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3077" max="3077" width="8.6640625" style="9" customWidth="1"/>
+    <col min="3078" max="3078" width="7.88671875" style="9" customWidth="1"/>
     <col min="3079" max="3079" width="8" style="9" customWidth="1"/>
-    <col min="3080" max="3080" width="7.42578125" style="9" customWidth="1"/>
-    <col min="3081" max="3081" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3082" max="3082" width="7.85546875" style="9" customWidth="1"/>
-    <col min="3083" max="3329" width="9.140625" style="9"/>
-    <col min="3330" max="3330" width="20.140625" style="9" customWidth="1"/>
-    <col min="3331" max="3331" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3332" max="3332" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3333" max="3333" width="8.7109375" style="9" customWidth="1"/>
-    <col min="3334" max="3334" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3080" max="3080" width="7.44140625" style="9" customWidth="1"/>
+    <col min="3081" max="3081" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3082" max="3082" width="7.88671875" style="9" customWidth="1"/>
+    <col min="3083" max="3329" width="9.109375" style="9"/>
+    <col min="3330" max="3330" width="20.109375" style="9" customWidth="1"/>
+    <col min="3331" max="3331" width="9.33203125" style="9" customWidth="1"/>
+    <col min="3332" max="3332" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3333" max="3333" width="8.6640625" style="9" customWidth="1"/>
+    <col min="3334" max="3334" width="7.88671875" style="9" customWidth="1"/>
     <col min="3335" max="3335" width="8" style="9" customWidth="1"/>
-    <col min="3336" max="3336" width="7.42578125" style="9" customWidth="1"/>
-    <col min="3337" max="3337" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3338" max="3338" width="7.85546875" style="9" customWidth="1"/>
-    <col min="3339" max="3585" width="9.140625" style="9"/>
-    <col min="3586" max="3586" width="20.140625" style="9" customWidth="1"/>
-    <col min="3587" max="3587" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3588" max="3588" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3589" max="3589" width="8.7109375" style="9" customWidth="1"/>
-    <col min="3590" max="3590" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3336" max="3336" width="7.44140625" style="9" customWidth="1"/>
+    <col min="3337" max="3337" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3338" max="3338" width="7.88671875" style="9" customWidth="1"/>
+    <col min="3339" max="3585" width="9.109375" style="9"/>
+    <col min="3586" max="3586" width="20.109375" style="9" customWidth="1"/>
+    <col min="3587" max="3587" width="9.33203125" style="9" customWidth="1"/>
+    <col min="3588" max="3588" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3589" max="3589" width="8.6640625" style="9" customWidth="1"/>
+    <col min="3590" max="3590" width="7.88671875" style="9" customWidth="1"/>
     <col min="3591" max="3591" width="8" style="9" customWidth="1"/>
-    <col min="3592" max="3592" width="7.42578125" style="9" customWidth="1"/>
-    <col min="3593" max="3593" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3594" max="3594" width="7.85546875" style="9" customWidth="1"/>
-    <col min="3595" max="3841" width="9.140625" style="9"/>
-    <col min="3842" max="3842" width="20.140625" style="9" customWidth="1"/>
-    <col min="3843" max="3843" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3844" max="3844" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3845" max="3845" width="8.7109375" style="9" customWidth="1"/>
-    <col min="3846" max="3846" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3592" max="3592" width="7.44140625" style="9" customWidth="1"/>
+    <col min="3593" max="3593" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3594" max="3594" width="7.88671875" style="9" customWidth="1"/>
+    <col min="3595" max="3841" width="9.109375" style="9"/>
+    <col min="3842" max="3842" width="20.109375" style="9" customWidth="1"/>
+    <col min="3843" max="3843" width="9.33203125" style="9" customWidth="1"/>
+    <col min="3844" max="3844" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3845" max="3845" width="8.6640625" style="9" customWidth="1"/>
+    <col min="3846" max="3846" width="7.88671875" style="9" customWidth="1"/>
     <col min="3847" max="3847" width="8" style="9" customWidth="1"/>
-    <col min="3848" max="3848" width="7.42578125" style="9" customWidth="1"/>
-    <col min="3849" max="3849" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3850" max="3850" width="7.85546875" style="9" customWidth="1"/>
-    <col min="3851" max="4097" width="9.140625" style="9"/>
-    <col min="4098" max="4098" width="20.140625" style="9" customWidth="1"/>
-    <col min="4099" max="4099" width="9.28515625" style="9" customWidth="1"/>
-    <col min="4100" max="4100" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4101" max="4101" width="8.7109375" style="9" customWidth="1"/>
-    <col min="4102" max="4102" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3848" max="3848" width="7.44140625" style="9" customWidth="1"/>
+    <col min="3849" max="3849" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3850" max="3850" width="7.88671875" style="9" customWidth="1"/>
+    <col min="3851" max="4097" width="9.109375" style="9"/>
+    <col min="4098" max="4098" width="20.109375" style="9" customWidth="1"/>
+    <col min="4099" max="4099" width="9.33203125" style="9" customWidth="1"/>
+    <col min="4100" max="4100" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4101" max="4101" width="8.6640625" style="9" customWidth="1"/>
+    <col min="4102" max="4102" width="7.88671875" style="9" customWidth="1"/>
     <col min="4103" max="4103" width="8" style="9" customWidth="1"/>
-    <col min="4104" max="4104" width="7.42578125" style="9" customWidth="1"/>
-    <col min="4105" max="4105" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4106" max="4106" width="7.85546875" style="9" customWidth="1"/>
-    <col min="4107" max="4353" width="9.140625" style="9"/>
-    <col min="4354" max="4354" width="20.140625" style="9" customWidth="1"/>
-    <col min="4355" max="4355" width="9.28515625" style="9" customWidth="1"/>
-    <col min="4356" max="4356" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4357" max="4357" width="8.7109375" style="9" customWidth="1"/>
-    <col min="4358" max="4358" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4104" max="4104" width="7.44140625" style="9" customWidth="1"/>
+    <col min="4105" max="4105" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4106" max="4106" width="7.88671875" style="9" customWidth="1"/>
+    <col min="4107" max="4353" width="9.109375" style="9"/>
+    <col min="4354" max="4354" width="20.109375" style="9" customWidth="1"/>
+    <col min="4355" max="4355" width="9.33203125" style="9" customWidth="1"/>
+    <col min="4356" max="4356" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4357" max="4357" width="8.6640625" style="9" customWidth="1"/>
+    <col min="4358" max="4358" width="7.88671875" style="9" customWidth="1"/>
     <col min="4359" max="4359" width="8" style="9" customWidth="1"/>
-    <col min="4360" max="4360" width="7.42578125" style="9" customWidth="1"/>
-    <col min="4361" max="4361" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4362" max="4362" width="7.85546875" style="9" customWidth="1"/>
-    <col min="4363" max="4609" width="9.140625" style="9"/>
-    <col min="4610" max="4610" width="20.140625" style="9" customWidth="1"/>
-    <col min="4611" max="4611" width="9.28515625" style="9" customWidth="1"/>
-    <col min="4612" max="4612" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4613" max="4613" width="8.7109375" style="9" customWidth="1"/>
-    <col min="4614" max="4614" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4360" max="4360" width="7.44140625" style="9" customWidth="1"/>
+    <col min="4361" max="4361" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4362" max="4362" width="7.88671875" style="9" customWidth="1"/>
+    <col min="4363" max="4609" width="9.109375" style="9"/>
+    <col min="4610" max="4610" width="20.109375" style="9" customWidth="1"/>
+    <col min="4611" max="4611" width="9.33203125" style="9" customWidth="1"/>
+    <col min="4612" max="4612" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4613" max="4613" width="8.6640625" style="9" customWidth="1"/>
+    <col min="4614" max="4614" width="7.88671875" style="9" customWidth="1"/>
     <col min="4615" max="4615" width="8" style="9" customWidth="1"/>
-    <col min="4616" max="4616" width="7.42578125" style="9" customWidth="1"/>
-    <col min="4617" max="4617" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4618" max="4618" width="7.85546875" style="9" customWidth="1"/>
-    <col min="4619" max="4865" width="9.140625" style="9"/>
-    <col min="4866" max="4866" width="20.140625" style="9" customWidth="1"/>
-    <col min="4867" max="4867" width="9.28515625" style="9" customWidth="1"/>
-    <col min="4868" max="4868" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4869" max="4869" width="8.7109375" style="9" customWidth="1"/>
-    <col min="4870" max="4870" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4616" max="4616" width="7.44140625" style="9" customWidth="1"/>
+    <col min="4617" max="4617" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4618" max="4618" width="7.88671875" style="9" customWidth="1"/>
+    <col min="4619" max="4865" width="9.109375" style="9"/>
+    <col min="4866" max="4866" width="20.109375" style="9" customWidth="1"/>
+    <col min="4867" max="4867" width="9.33203125" style="9" customWidth="1"/>
+    <col min="4868" max="4868" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4869" max="4869" width="8.6640625" style="9" customWidth="1"/>
+    <col min="4870" max="4870" width="7.88671875" style="9" customWidth="1"/>
     <col min="4871" max="4871" width="8" style="9" customWidth="1"/>
-    <col min="4872" max="4872" width="7.42578125" style="9" customWidth="1"/>
-    <col min="4873" max="4873" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4874" max="4874" width="7.85546875" style="9" customWidth="1"/>
-    <col min="4875" max="5121" width="9.140625" style="9"/>
-    <col min="5122" max="5122" width="20.140625" style="9" customWidth="1"/>
-    <col min="5123" max="5123" width="9.28515625" style="9" customWidth="1"/>
-    <col min="5124" max="5124" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5125" max="5125" width="8.7109375" style="9" customWidth="1"/>
-    <col min="5126" max="5126" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4872" max="4872" width="7.44140625" style="9" customWidth="1"/>
+    <col min="4873" max="4873" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4874" max="4874" width="7.88671875" style="9" customWidth="1"/>
+    <col min="4875" max="5121" width="9.109375" style="9"/>
+    <col min="5122" max="5122" width="20.109375" style="9" customWidth="1"/>
+    <col min="5123" max="5123" width="9.33203125" style="9" customWidth="1"/>
+    <col min="5124" max="5124" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5125" max="5125" width="8.6640625" style="9" customWidth="1"/>
+    <col min="5126" max="5126" width="7.88671875" style="9" customWidth="1"/>
     <col min="5127" max="5127" width="8" style="9" customWidth="1"/>
-    <col min="5128" max="5128" width="7.42578125" style="9" customWidth="1"/>
-    <col min="5129" max="5129" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5130" max="5130" width="7.85546875" style="9" customWidth="1"/>
-    <col min="5131" max="5377" width="9.140625" style="9"/>
-    <col min="5378" max="5378" width="20.140625" style="9" customWidth="1"/>
-    <col min="5379" max="5379" width="9.28515625" style="9" customWidth="1"/>
-    <col min="5380" max="5380" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5381" max="5381" width="8.7109375" style="9" customWidth="1"/>
-    <col min="5382" max="5382" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5128" max="5128" width="7.44140625" style="9" customWidth="1"/>
+    <col min="5129" max="5129" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5130" max="5130" width="7.88671875" style="9" customWidth="1"/>
+    <col min="5131" max="5377" width="9.109375" style="9"/>
+    <col min="5378" max="5378" width="20.109375" style="9" customWidth="1"/>
+    <col min="5379" max="5379" width="9.33203125" style="9" customWidth="1"/>
+    <col min="5380" max="5380" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5381" max="5381" width="8.6640625" style="9" customWidth="1"/>
+    <col min="5382" max="5382" width="7.88671875" style="9" customWidth="1"/>
     <col min="5383" max="5383" width="8" style="9" customWidth="1"/>
-    <col min="5384" max="5384" width="7.42578125" style="9" customWidth="1"/>
-    <col min="5385" max="5385" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5386" max="5386" width="7.85546875" style="9" customWidth="1"/>
-    <col min="5387" max="5633" width="9.140625" style="9"/>
-    <col min="5634" max="5634" width="20.140625" style="9" customWidth="1"/>
-    <col min="5635" max="5635" width="9.28515625" style="9" customWidth="1"/>
-    <col min="5636" max="5636" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5637" max="5637" width="8.7109375" style="9" customWidth="1"/>
-    <col min="5638" max="5638" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5384" max="5384" width="7.44140625" style="9" customWidth="1"/>
+    <col min="5385" max="5385" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5386" max="5386" width="7.88671875" style="9" customWidth="1"/>
+    <col min="5387" max="5633" width="9.109375" style="9"/>
+    <col min="5634" max="5634" width="20.109375" style="9" customWidth="1"/>
+    <col min="5635" max="5635" width="9.33203125" style="9" customWidth="1"/>
+    <col min="5636" max="5636" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5637" max="5637" width="8.6640625" style="9" customWidth="1"/>
+    <col min="5638" max="5638" width="7.88671875" style="9" customWidth="1"/>
     <col min="5639" max="5639" width="8" style="9" customWidth="1"/>
-    <col min="5640" max="5640" width="7.42578125" style="9" customWidth="1"/>
-    <col min="5641" max="5641" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5642" max="5642" width="7.85546875" style="9" customWidth="1"/>
-    <col min="5643" max="5889" width="9.140625" style="9"/>
-    <col min="5890" max="5890" width="20.140625" style="9" customWidth="1"/>
-    <col min="5891" max="5891" width="9.28515625" style="9" customWidth="1"/>
-    <col min="5892" max="5892" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5893" max="5893" width="8.7109375" style="9" customWidth="1"/>
-    <col min="5894" max="5894" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5640" max="5640" width="7.44140625" style="9" customWidth="1"/>
+    <col min="5641" max="5641" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5642" max="5642" width="7.88671875" style="9" customWidth="1"/>
+    <col min="5643" max="5889" width="9.109375" style="9"/>
+    <col min="5890" max="5890" width="20.109375" style="9" customWidth="1"/>
+    <col min="5891" max="5891" width="9.33203125" style="9" customWidth="1"/>
+    <col min="5892" max="5892" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5893" max="5893" width="8.6640625" style="9" customWidth="1"/>
+    <col min="5894" max="5894" width="7.88671875" style="9" customWidth="1"/>
     <col min="5895" max="5895" width="8" style="9" customWidth="1"/>
-    <col min="5896" max="5896" width="7.42578125" style="9" customWidth="1"/>
-    <col min="5897" max="5897" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5898" max="5898" width="7.85546875" style="9" customWidth="1"/>
-    <col min="5899" max="6145" width="9.140625" style="9"/>
-    <col min="6146" max="6146" width="20.140625" style="9" customWidth="1"/>
-    <col min="6147" max="6147" width="9.28515625" style="9" customWidth="1"/>
-    <col min="6148" max="6148" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6149" max="6149" width="8.7109375" style="9" customWidth="1"/>
-    <col min="6150" max="6150" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5896" max="5896" width="7.44140625" style="9" customWidth="1"/>
+    <col min="5897" max="5897" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5898" max="5898" width="7.88671875" style="9" customWidth="1"/>
+    <col min="5899" max="6145" width="9.109375" style="9"/>
+    <col min="6146" max="6146" width="20.109375" style="9" customWidth="1"/>
+    <col min="6147" max="6147" width="9.33203125" style="9" customWidth="1"/>
+    <col min="6148" max="6148" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6149" max="6149" width="8.6640625" style="9" customWidth="1"/>
+    <col min="6150" max="6150" width="7.88671875" style="9" customWidth="1"/>
     <col min="6151" max="6151" width="8" style="9" customWidth="1"/>
-    <col min="6152" max="6152" width="7.42578125" style="9" customWidth="1"/>
-    <col min="6153" max="6153" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6154" max="6154" width="7.85546875" style="9" customWidth="1"/>
-    <col min="6155" max="6401" width="9.140625" style="9"/>
-    <col min="6402" max="6402" width="20.140625" style="9" customWidth="1"/>
-    <col min="6403" max="6403" width="9.28515625" style="9" customWidth="1"/>
-    <col min="6404" max="6404" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6405" max="6405" width="8.7109375" style="9" customWidth="1"/>
-    <col min="6406" max="6406" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6152" max="6152" width="7.44140625" style="9" customWidth="1"/>
+    <col min="6153" max="6153" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6154" max="6154" width="7.88671875" style="9" customWidth="1"/>
+    <col min="6155" max="6401" width="9.109375" style="9"/>
+    <col min="6402" max="6402" width="20.109375" style="9" customWidth="1"/>
+    <col min="6403" max="6403" width="9.33203125" style="9" customWidth="1"/>
+    <col min="6404" max="6404" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6405" max="6405" width="8.6640625" style="9" customWidth="1"/>
+    <col min="6406" max="6406" width="7.88671875" style="9" customWidth="1"/>
     <col min="6407" max="6407" width="8" style="9" customWidth="1"/>
-    <col min="6408" max="6408" width="7.42578125" style="9" customWidth="1"/>
-    <col min="6409" max="6409" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6410" max="6410" width="7.85546875" style="9" customWidth="1"/>
-    <col min="6411" max="6657" width="9.140625" style="9"/>
-    <col min="6658" max="6658" width="20.140625" style="9" customWidth="1"/>
-    <col min="6659" max="6659" width="9.28515625" style="9" customWidth="1"/>
-    <col min="6660" max="6660" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6661" max="6661" width="8.7109375" style="9" customWidth="1"/>
-    <col min="6662" max="6662" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6408" max="6408" width="7.44140625" style="9" customWidth="1"/>
+    <col min="6409" max="6409" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6410" max="6410" width="7.88671875" style="9" customWidth="1"/>
+    <col min="6411" max="6657" width="9.109375" style="9"/>
+    <col min="6658" max="6658" width="20.109375" style="9" customWidth="1"/>
+    <col min="6659" max="6659" width="9.33203125" style="9" customWidth="1"/>
+    <col min="6660" max="6660" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6661" max="6661" width="8.6640625" style="9" customWidth="1"/>
+    <col min="6662" max="6662" width="7.88671875" style="9" customWidth="1"/>
     <col min="6663" max="6663" width="8" style="9" customWidth="1"/>
-    <col min="6664" max="6664" width="7.42578125" style="9" customWidth="1"/>
-    <col min="6665" max="6665" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6666" max="6666" width="7.85546875" style="9" customWidth="1"/>
-    <col min="6667" max="6913" width="9.140625" style="9"/>
-    <col min="6914" max="6914" width="20.140625" style="9" customWidth="1"/>
-    <col min="6915" max="6915" width="9.28515625" style="9" customWidth="1"/>
-    <col min="6916" max="6916" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6917" max="6917" width="8.7109375" style="9" customWidth="1"/>
-    <col min="6918" max="6918" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6664" max="6664" width="7.44140625" style="9" customWidth="1"/>
+    <col min="6665" max="6665" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6666" max="6666" width="7.88671875" style="9" customWidth="1"/>
+    <col min="6667" max="6913" width="9.109375" style="9"/>
+    <col min="6914" max="6914" width="20.109375" style="9" customWidth="1"/>
+    <col min="6915" max="6915" width="9.33203125" style="9" customWidth="1"/>
+    <col min="6916" max="6916" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6917" max="6917" width="8.6640625" style="9" customWidth="1"/>
+    <col min="6918" max="6918" width="7.88671875" style="9" customWidth="1"/>
     <col min="6919" max="6919" width="8" style="9" customWidth="1"/>
-    <col min="6920" max="6920" width="7.42578125" style="9" customWidth="1"/>
-    <col min="6921" max="6921" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6922" max="6922" width="7.85546875" style="9" customWidth="1"/>
-    <col min="6923" max="7169" width="9.140625" style="9"/>
-    <col min="7170" max="7170" width="20.140625" style="9" customWidth="1"/>
-    <col min="7171" max="7171" width="9.28515625" style="9" customWidth="1"/>
-    <col min="7172" max="7172" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7173" max="7173" width="8.7109375" style="9" customWidth="1"/>
-    <col min="7174" max="7174" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6920" max="6920" width="7.44140625" style="9" customWidth="1"/>
+    <col min="6921" max="6921" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6922" max="6922" width="7.88671875" style="9" customWidth="1"/>
+    <col min="6923" max="7169" width="9.109375" style="9"/>
+    <col min="7170" max="7170" width="20.109375" style="9" customWidth="1"/>
+    <col min="7171" max="7171" width="9.33203125" style="9" customWidth="1"/>
+    <col min="7172" max="7172" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7173" max="7173" width="8.6640625" style="9" customWidth="1"/>
+    <col min="7174" max="7174" width="7.88671875" style="9" customWidth="1"/>
     <col min="7175" max="7175" width="8" style="9" customWidth="1"/>
-    <col min="7176" max="7176" width="7.42578125" style="9" customWidth="1"/>
-    <col min="7177" max="7177" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7178" max="7178" width="7.85546875" style="9" customWidth="1"/>
-    <col min="7179" max="7425" width="9.140625" style="9"/>
-    <col min="7426" max="7426" width="20.140625" style="9" customWidth="1"/>
-    <col min="7427" max="7427" width="9.28515625" style="9" customWidth="1"/>
-    <col min="7428" max="7428" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7429" max="7429" width="8.7109375" style="9" customWidth="1"/>
-    <col min="7430" max="7430" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7176" max="7176" width="7.44140625" style="9" customWidth="1"/>
+    <col min="7177" max="7177" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7178" max="7178" width="7.88671875" style="9" customWidth="1"/>
+    <col min="7179" max="7425" width="9.109375" style="9"/>
+    <col min="7426" max="7426" width="20.109375" style="9" customWidth="1"/>
+    <col min="7427" max="7427" width="9.33203125" style="9" customWidth="1"/>
+    <col min="7428" max="7428" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7429" max="7429" width="8.6640625" style="9" customWidth="1"/>
+    <col min="7430" max="7430" width="7.88671875" style="9" customWidth="1"/>
     <col min="7431" max="7431" width="8" style="9" customWidth="1"/>
-    <col min="7432" max="7432" width="7.42578125" style="9" customWidth="1"/>
-    <col min="7433" max="7433" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7434" max="7434" width="7.85546875" style="9" customWidth="1"/>
-    <col min="7435" max="7681" width="9.140625" style="9"/>
-    <col min="7682" max="7682" width="20.140625" style="9" customWidth="1"/>
-    <col min="7683" max="7683" width="9.28515625" style="9" customWidth="1"/>
-    <col min="7684" max="7684" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7685" max="7685" width="8.7109375" style="9" customWidth="1"/>
-    <col min="7686" max="7686" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7432" max="7432" width="7.44140625" style="9" customWidth="1"/>
+    <col min="7433" max="7433" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7434" max="7434" width="7.88671875" style="9" customWidth="1"/>
+    <col min="7435" max="7681" width="9.109375" style="9"/>
+    <col min="7682" max="7682" width="20.109375" style="9" customWidth="1"/>
+    <col min="7683" max="7683" width="9.33203125" style="9" customWidth="1"/>
+    <col min="7684" max="7684" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7685" max="7685" width="8.6640625" style="9" customWidth="1"/>
+    <col min="7686" max="7686" width="7.88671875" style="9" customWidth="1"/>
     <col min="7687" max="7687" width="8" style="9" customWidth="1"/>
-    <col min="7688" max="7688" width="7.42578125" style="9" customWidth="1"/>
-    <col min="7689" max="7689" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7690" max="7690" width="7.85546875" style="9" customWidth="1"/>
-    <col min="7691" max="7937" width="9.140625" style="9"/>
-    <col min="7938" max="7938" width="20.140625" style="9" customWidth="1"/>
-    <col min="7939" max="7939" width="9.28515625" style="9" customWidth="1"/>
-    <col min="7940" max="7940" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7941" max="7941" width="8.7109375" style="9" customWidth="1"/>
-    <col min="7942" max="7942" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7688" max="7688" width="7.44140625" style="9" customWidth="1"/>
+    <col min="7689" max="7689" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7690" max="7690" width="7.88671875" style="9" customWidth="1"/>
+    <col min="7691" max="7937" width="9.109375" style="9"/>
+    <col min="7938" max="7938" width="20.109375" style="9" customWidth="1"/>
+    <col min="7939" max="7939" width="9.33203125" style="9" customWidth="1"/>
+    <col min="7940" max="7940" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7941" max="7941" width="8.6640625" style="9" customWidth="1"/>
+    <col min="7942" max="7942" width="7.88671875" style="9" customWidth="1"/>
     <col min="7943" max="7943" width="8" style="9" customWidth="1"/>
-    <col min="7944" max="7944" width="7.42578125" style="9" customWidth="1"/>
-    <col min="7945" max="7945" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7946" max="7946" width="7.85546875" style="9" customWidth="1"/>
-    <col min="7947" max="8193" width="9.140625" style="9"/>
-    <col min="8194" max="8194" width="20.140625" style="9" customWidth="1"/>
-    <col min="8195" max="8195" width="9.28515625" style="9" customWidth="1"/>
-    <col min="8196" max="8196" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8197" max="8197" width="8.7109375" style="9" customWidth="1"/>
-    <col min="8198" max="8198" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7944" max="7944" width="7.44140625" style="9" customWidth="1"/>
+    <col min="7945" max="7945" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7946" max="7946" width="7.88671875" style="9" customWidth="1"/>
+    <col min="7947" max="8193" width="9.109375" style="9"/>
+    <col min="8194" max="8194" width="20.109375" style="9" customWidth="1"/>
+    <col min="8195" max="8195" width="9.33203125" style="9" customWidth="1"/>
+    <col min="8196" max="8196" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8197" max="8197" width="8.6640625" style="9" customWidth="1"/>
+    <col min="8198" max="8198" width="7.88671875" style="9" customWidth="1"/>
     <col min="8199" max="8199" width="8" style="9" customWidth="1"/>
-    <col min="8200" max="8200" width="7.42578125" style="9" customWidth="1"/>
-    <col min="8201" max="8201" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8202" max="8202" width="7.85546875" style="9" customWidth="1"/>
-    <col min="8203" max="8449" width="9.140625" style="9"/>
-    <col min="8450" max="8450" width="20.140625" style="9" customWidth="1"/>
-    <col min="8451" max="8451" width="9.28515625" style="9" customWidth="1"/>
-    <col min="8452" max="8452" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8453" max="8453" width="8.7109375" style="9" customWidth="1"/>
-    <col min="8454" max="8454" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8200" max="8200" width="7.44140625" style="9" customWidth="1"/>
+    <col min="8201" max="8201" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8202" max="8202" width="7.88671875" style="9" customWidth="1"/>
+    <col min="8203" max="8449" width="9.109375" style="9"/>
+    <col min="8450" max="8450" width="20.109375" style="9" customWidth="1"/>
+    <col min="8451" max="8451" width="9.33203125" style="9" customWidth="1"/>
+    <col min="8452" max="8452" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8453" max="8453" width="8.6640625" style="9" customWidth="1"/>
+    <col min="8454" max="8454" width="7.88671875" style="9" customWidth="1"/>
     <col min="8455" max="8455" width="8" style="9" customWidth="1"/>
-    <col min="8456" max="8456" width="7.42578125" style="9" customWidth="1"/>
-    <col min="8457" max="8457" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8458" max="8458" width="7.85546875" style="9" customWidth="1"/>
-    <col min="8459" max="8705" width="9.140625" style="9"/>
-    <col min="8706" max="8706" width="20.140625" style="9" customWidth="1"/>
-    <col min="8707" max="8707" width="9.28515625" style="9" customWidth="1"/>
-    <col min="8708" max="8708" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8709" max="8709" width="8.7109375" style="9" customWidth="1"/>
-    <col min="8710" max="8710" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8456" max="8456" width="7.44140625" style="9" customWidth="1"/>
+    <col min="8457" max="8457" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8458" max="8458" width="7.88671875" style="9" customWidth="1"/>
+    <col min="8459" max="8705" width="9.109375" style="9"/>
+    <col min="8706" max="8706" width="20.109375" style="9" customWidth="1"/>
+    <col min="8707" max="8707" width="9.33203125" style="9" customWidth="1"/>
+    <col min="8708" max="8708" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8709" max="8709" width="8.6640625" style="9" customWidth="1"/>
+    <col min="8710" max="8710" width="7.88671875" style="9" customWidth="1"/>
     <col min="8711" max="8711" width="8" style="9" customWidth="1"/>
-    <col min="8712" max="8712" width="7.42578125" style="9" customWidth="1"/>
-    <col min="8713" max="8713" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8714" max="8714" width="7.85546875" style="9" customWidth="1"/>
-    <col min="8715" max="8961" width="9.140625" style="9"/>
-    <col min="8962" max="8962" width="20.140625" style="9" customWidth="1"/>
-    <col min="8963" max="8963" width="9.28515625" style="9" customWidth="1"/>
-    <col min="8964" max="8964" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8965" max="8965" width="8.7109375" style="9" customWidth="1"/>
-    <col min="8966" max="8966" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8712" max="8712" width="7.44140625" style="9" customWidth="1"/>
+    <col min="8713" max="8713" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8714" max="8714" width="7.88671875" style="9" customWidth="1"/>
+    <col min="8715" max="8961" width="9.109375" style="9"/>
+    <col min="8962" max="8962" width="20.109375" style="9" customWidth="1"/>
+    <col min="8963" max="8963" width="9.33203125" style="9" customWidth="1"/>
+    <col min="8964" max="8964" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8965" max="8965" width="8.6640625" style="9" customWidth="1"/>
+    <col min="8966" max="8966" width="7.88671875" style="9" customWidth="1"/>
     <col min="8967" max="8967" width="8" style="9" customWidth="1"/>
-    <col min="8968" max="8968" width="7.42578125" style="9" customWidth="1"/>
-    <col min="8969" max="8969" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8970" max="8970" width="7.85546875" style="9" customWidth="1"/>
-    <col min="8971" max="9217" width="9.140625" style="9"/>
-    <col min="9218" max="9218" width="20.140625" style="9" customWidth="1"/>
-    <col min="9219" max="9219" width="9.28515625" style="9" customWidth="1"/>
-    <col min="9220" max="9220" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9221" max="9221" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9222" max="9222" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8968" max="8968" width="7.44140625" style="9" customWidth="1"/>
+    <col min="8969" max="8969" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8970" max="8970" width="7.88671875" style="9" customWidth="1"/>
+    <col min="8971" max="9217" width="9.109375" style="9"/>
+    <col min="9218" max="9218" width="20.109375" style="9" customWidth="1"/>
+    <col min="9219" max="9219" width="9.33203125" style="9" customWidth="1"/>
+    <col min="9220" max="9220" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9221" max="9221" width="8.6640625" style="9" customWidth="1"/>
+    <col min="9222" max="9222" width="7.88671875" style="9" customWidth="1"/>
     <col min="9223" max="9223" width="8" style="9" customWidth="1"/>
-    <col min="9224" max="9224" width="7.42578125" style="9" customWidth="1"/>
-    <col min="9225" max="9225" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9226" max="9226" width="7.85546875" style="9" customWidth="1"/>
-    <col min="9227" max="9473" width="9.140625" style="9"/>
-    <col min="9474" max="9474" width="20.140625" style="9" customWidth="1"/>
-    <col min="9475" max="9475" width="9.28515625" style="9" customWidth="1"/>
-    <col min="9476" max="9476" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9477" max="9477" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9478" max="9478" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9224" max="9224" width="7.44140625" style="9" customWidth="1"/>
+    <col min="9225" max="9225" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9226" max="9226" width="7.88671875" style="9" customWidth="1"/>
+    <col min="9227" max="9473" width="9.109375" style="9"/>
+    <col min="9474" max="9474" width="20.109375" style="9" customWidth="1"/>
+    <col min="9475" max="9475" width="9.33203125" style="9" customWidth="1"/>
+    <col min="9476" max="9476" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9477" max="9477" width="8.6640625" style="9" customWidth="1"/>
+    <col min="9478" max="9478" width="7.88671875" style="9" customWidth="1"/>
     <col min="9479" max="9479" width="8" style="9" customWidth="1"/>
-    <col min="9480" max="9480" width="7.42578125" style="9" customWidth="1"/>
-    <col min="9481" max="9481" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9482" max="9482" width="7.85546875" style="9" customWidth="1"/>
-    <col min="9483" max="9729" width="9.140625" style="9"/>
-    <col min="9730" max="9730" width="20.140625" style="9" customWidth="1"/>
-    <col min="9731" max="9731" width="9.28515625" style="9" customWidth="1"/>
-    <col min="9732" max="9732" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9733" max="9733" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9734" max="9734" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9480" max="9480" width="7.44140625" style="9" customWidth="1"/>
+    <col min="9481" max="9481" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9482" max="9482" width="7.88671875" style="9" customWidth="1"/>
+    <col min="9483" max="9729" width="9.109375" style="9"/>
+    <col min="9730" max="9730" width="20.109375" style="9" customWidth="1"/>
+    <col min="9731" max="9731" width="9.33203125" style="9" customWidth="1"/>
+    <col min="9732" max="9732" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9733" max="9733" width="8.6640625" style="9" customWidth="1"/>
+    <col min="9734" max="9734" width="7.88671875" style="9" customWidth="1"/>
     <col min="9735" max="9735" width="8" style="9" customWidth="1"/>
-    <col min="9736" max="9736" width="7.42578125" style="9" customWidth="1"/>
-    <col min="9737" max="9737" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9738" max="9738" width="7.85546875" style="9" customWidth="1"/>
-    <col min="9739" max="9985" width="9.140625" style="9"/>
-    <col min="9986" max="9986" width="20.140625" style="9" customWidth="1"/>
-    <col min="9987" max="9987" width="9.28515625" style="9" customWidth="1"/>
-    <col min="9988" max="9988" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9989" max="9989" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9990" max="9990" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9736" max="9736" width="7.44140625" style="9" customWidth="1"/>
+    <col min="9737" max="9737" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9738" max="9738" width="7.88671875" style="9" customWidth="1"/>
+    <col min="9739" max="9985" width="9.109375" style="9"/>
+    <col min="9986" max="9986" width="20.109375" style="9" customWidth="1"/>
+    <col min="9987" max="9987" width="9.33203125" style="9" customWidth="1"/>
+    <col min="9988" max="9988" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9989" max="9989" width="8.6640625" style="9" customWidth="1"/>
+    <col min="9990" max="9990" width="7.88671875" style="9" customWidth="1"/>
     <col min="9991" max="9991" width="8" style="9" customWidth="1"/>
-    <col min="9992" max="9992" width="7.42578125" style="9" customWidth="1"/>
-    <col min="9993" max="9993" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9994" max="9994" width="7.85546875" style="9" customWidth="1"/>
-    <col min="9995" max="10241" width="9.140625" style="9"/>
-    <col min="10242" max="10242" width="20.140625" style="9" customWidth="1"/>
-    <col min="10243" max="10243" width="9.28515625" style="9" customWidth="1"/>
-    <col min="10244" max="10244" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10245" max="10245" width="8.7109375" style="9" customWidth="1"/>
-    <col min="10246" max="10246" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9992" max="9992" width="7.44140625" style="9" customWidth="1"/>
+    <col min="9993" max="9993" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9994" max="9994" width="7.88671875" style="9" customWidth="1"/>
+    <col min="9995" max="10241" width="9.109375" style="9"/>
+    <col min="10242" max="10242" width="20.109375" style="9" customWidth="1"/>
+    <col min="10243" max="10243" width="9.33203125" style="9" customWidth="1"/>
+    <col min="10244" max="10244" width="7.6640625" style="9" customWidth="1"/>
+    <col min="10245" max="10245" width="8.6640625" style="9" customWidth="1"/>
+    <col min="10246" max="10246" width="7.88671875" style="9" customWidth="1"/>
     <col min="10247" max="10247" width="8" style="9" customWidth="1"/>
-    <col min="10248" max="10248" width="7.42578125" style="9" customWidth="1"/>
-    <col min="10249" max="10249" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10250" max="10250" width="7.85546875" style="9" customWidth="1"/>
-    <col min="10251" max="10497" width="9.140625" style="9"/>
-    <col min="10498" max="10498" width="20.140625" style="9" customWidth="1"/>
-    <col min="10499" max="10499" width="9.28515625" style="9" customWidth="1"/>
-    <col min="10500" max="10500" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10501" max="10501" width="8.7109375" style="9" customWidth="1"/>
-    <col min="10502" max="10502" width="7.85546875" style="9" customWidth="1"/>
+    <col min="10248" max="10248" width="7.44140625" style="9" customWidth="1"/>
+    <col min="10249" max="10249" width="7.6640625" style="9" customWidth="1"/>
+    <col min="10250" max="10250" width="7.88671875" style="9" customWidth="1"/>
+    <col min="10251" max="10497" width="9.109375" style="9"/>
+    <col min="10498" max="10498" width="20.109375" style="9" customWidth="1"/>
+    <col min="10499" max="10499" width="9.33203125" style="9" customWidth="1"/>
+    <col min="10500" max="10500" width="7.6640625" style="9" customWidth="1"/>
+    <col min="10501" max="10501" width="8.6640625" style="9" customWidth="1"/>
+    <col min="10502" max="10502" width="7.88671875" style="9" customWidth="1"/>
     <col min="10503" max="10503" width="8" style="9" customWidth="1"/>
-    <col min="10504" max="10504" width="7.42578125" style="9" customWidth="1"/>
-    <col min="10505" max="10505" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10506" max="10506" width="7.85546875" style="9" customWidth="1"/>
-    <col min="10507" max="10753" width="9.140625" style="9"/>
-    <col min="10754" max="10754" width="20.140625" style="9" customWidth="1"/>
-    <col min="10755" max="10755" width="9.28515625" style="9" customWidth="1"/>
-    <col min="10756" max="10756" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10757" max="10757" width="8.7109375" style="9" customWidth="1"/>
-    <col min="10758" max="10758" width="7.85546875" style="9" customWidth="1"/>
+    <col min="10504" max="10504" width="7.44140625" style="9" customWidth="1"/>
+    <col min="10505" max="10505" width="7.6640625" style="9" customWidth="1"/>
+    <col min="10506" max="10506" width="7.88671875" style="9" customWidth="1"/>
+    <col min="10507" max="10753" width="9.109375" style="9"/>
+    <col min="10754" max="10754" width="20.109375" style="9" customWidth="1"/>
+    <col min="10755" max="10755" width="9.33203125" style="9" customWidth="1"/>
+    <col min="10756" max="10756" width="7.6640625" style="9" customWidth="1"/>
+    <col min="10757" max="10757" width="8.6640625" style="9" customWidth="1"/>
+    <col min="10758" max="10758" width="7.88671875" style="9" customWidth="1"/>
     <col min="10759" max="10759" width="8" style="9" customWidth="1"/>
-    <col min="10760" max="10760" width="7.42578125" style="9" customWidth="1"/>
-    <col min="10761" max="10761" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10762" max="10762" width="7.85546875" style="9" customWidth="1"/>
-    <col min="10763" max="11009" width="9.140625" style="9"/>
-    <col min="11010" max="11010" width="20.140625" style="9" customWidth="1"/>
-    <col min="11011" max="11011" width="9.28515625" style="9" customWidth="1"/>
-    <col min="11012" max="11012" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11013" max="11013" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11014" max="11014" width="7.85546875" style="9" customWidth="1"/>
+    <col min="10760" max="10760" width="7.44140625" style="9" customWidth="1"/>
+    <col min="10761" max="10761" width="7.6640625" style="9" customWidth="1"/>
+    <col min="10762" max="10762" width="7.88671875" style="9" customWidth="1"/>
+    <col min="10763" max="11009" width="9.109375" style="9"/>
+    <col min="11010" max="11010" width="20.109375" style="9" customWidth="1"/>
+    <col min="11011" max="11011" width="9.33203125" style="9" customWidth="1"/>
+    <col min="11012" max="11012" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11013" max="11013" width="8.6640625" style="9" customWidth="1"/>
+    <col min="11014" max="11014" width="7.88671875" style="9" customWidth="1"/>
     <col min="11015" max="11015" width="8" style="9" customWidth="1"/>
-    <col min="11016" max="11016" width="7.42578125" style="9" customWidth="1"/>
-    <col min="11017" max="11017" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11018" max="11018" width="7.85546875" style="9" customWidth="1"/>
-    <col min="11019" max="11265" width="9.140625" style="9"/>
-    <col min="11266" max="11266" width="20.140625" style="9" customWidth="1"/>
-    <col min="11267" max="11267" width="9.28515625" style="9" customWidth="1"/>
-    <col min="11268" max="11268" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11269" max="11269" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11270" max="11270" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11016" max="11016" width="7.44140625" style="9" customWidth="1"/>
+    <col min="11017" max="11017" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11018" max="11018" width="7.88671875" style="9" customWidth="1"/>
+    <col min="11019" max="11265" width="9.109375" style="9"/>
+    <col min="11266" max="11266" width="20.109375" style="9" customWidth="1"/>
+    <col min="11267" max="11267" width="9.33203125" style="9" customWidth="1"/>
+    <col min="11268" max="11268" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11269" max="11269" width="8.6640625" style="9" customWidth="1"/>
+    <col min="11270" max="11270" width="7.88671875" style="9" customWidth="1"/>
     <col min="11271" max="11271" width="8" style="9" customWidth="1"/>
-    <col min="11272" max="11272" width="7.42578125" style="9" customWidth="1"/>
-    <col min="11273" max="11273" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11274" max="11274" width="7.85546875" style="9" customWidth="1"/>
-    <col min="11275" max="11521" width="9.140625" style="9"/>
-    <col min="11522" max="11522" width="20.140625" style="9" customWidth="1"/>
-    <col min="11523" max="11523" width="9.28515625" style="9" customWidth="1"/>
-    <col min="11524" max="11524" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11525" max="11525" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11526" max="11526" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11272" max="11272" width="7.44140625" style="9" customWidth="1"/>
+    <col min="11273" max="11273" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11274" max="11274" width="7.88671875" style="9" customWidth="1"/>
+    <col min="11275" max="11521" width="9.109375" style="9"/>
+    <col min="11522" max="11522" width="20.109375" style="9" customWidth="1"/>
+    <col min="11523" max="11523" width="9.33203125" style="9" customWidth="1"/>
+    <col min="11524" max="11524" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11525" max="11525" width="8.6640625" style="9" customWidth="1"/>
+    <col min="11526" max="11526" width="7.88671875" style="9" customWidth="1"/>
     <col min="11527" max="11527" width="8" style="9" customWidth="1"/>
-    <col min="11528" max="11528" width="7.42578125" style="9" customWidth="1"/>
-    <col min="11529" max="11529" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11530" max="11530" width="7.85546875" style="9" customWidth="1"/>
-    <col min="11531" max="11777" width="9.140625" style="9"/>
-    <col min="11778" max="11778" width="20.140625" style="9" customWidth="1"/>
-    <col min="11779" max="11779" width="9.28515625" style="9" customWidth="1"/>
-    <col min="11780" max="11780" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11781" max="11781" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11782" max="11782" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11528" max="11528" width="7.44140625" style="9" customWidth="1"/>
+    <col min="11529" max="11529" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11530" max="11530" width="7.88671875" style="9" customWidth="1"/>
+    <col min="11531" max="11777" width="9.109375" style="9"/>
+    <col min="11778" max="11778" width="20.109375" style="9" customWidth="1"/>
+    <col min="11779" max="11779" width="9.33203125" style="9" customWidth="1"/>
+    <col min="11780" max="11780" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11781" max="11781" width="8.6640625" style="9" customWidth="1"/>
+    <col min="11782" max="11782" width="7.88671875" style="9" customWidth="1"/>
     <col min="11783" max="11783" width="8" style="9" customWidth="1"/>
-    <col min="11784" max="11784" width="7.42578125" style="9" customWidth="1"/>
-    <col min="11785" max="11785" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11786" max="11786" width="7.85546875" style="9" customWidth="1"/>
-    <col min="11787" max="12033" width="9.140625" style="9"/>
-    <col min="12034" max="12034" width="20.140625" style="9" customWidth="1"/>
-    <col min="12035" max="12035" width="9.28515625" style="9" customWidth="1"/>
-    <col min="12036" max="12036" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12037" max="12037" width="8.7109375" style="9" customWidth="1"/>
-    <col min="12038" max="12038" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11784" max="11784" width="7.44140625" style="9" customWidth="1"/>
+    <col min="11785" max="11785" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11786" max="11786" width="7.88671875" style="9" customWidth="1"/>
+    <col min="11787" max="12033" width="9.109375" style="9"/>
+    <col min="12034" max="12034" width="20.109375" style="9" customWidth="1"/>
+    <col min="12035" max="12035" width="9.33203125" style="9" customWidth="1"/>
+    <col min="12036" max="12036" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12037" max="12037" width="8.6640625" style="9" customWidth="1"/>
+    <col min="12038" max="12038" width="7.88671875" style="9" customWidth="1"/>
     <col min="12039" max="12039" width="8" style="9" customWidth="1"/>
-    <col min="12040" max="12040" width="7.42578125" style="9" customWidth="1"/>
-    <col min="12041" max="12041" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12042" max="12042" width="7.85546875" style="9" customWidth="1"/>
-    <col min="12043" max="12289" width="9.140625" style="9"/>
-    <col min="12290" max="12290" width="20.140625" style="9" customWidth="1"/>
-    <col min="12291" max="12291" width="9.28515625" style="9" customWidth="1"/>
-    <col min="12292" max="12292" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12293" max="12293" width="8.7109375" style="9" customWidth="1"/>
-    <col min="12294" max="12294" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12040" max="12040" width="7.44140625" style="9" customWidth="1"/>
+    <col min="12041" max="12041" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12042" max="12042" width="7.88671875" style="9" customWidth="1"/>
+    <col min="12043" max="12289" width="9.109375" style="9"/>
+    <col min="12290" max="12290" width="20.109375" style="9" customWidth="1"/>
+    <col min="12291" max="12291" width="9.33203125" style="9" customWidth="1"/>
+    <col min="12292" max="12292" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12293" max="12293" width="8.6640625" style="9" customWidth="1"/>
+    <col min="12294" max="12294" width="7.88671875" style="9" customWidth="1"/>
     <col min="12295" max="12295" width="8" style="9" customWidth="1"/>
-    <col min="12296" max="12296" width="7.42578125" style="9" customWidth="1"/>
-    <col min="12297" max="12297" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12298" max="12298" width="7.85546875" style="9" customWidth="1"/>
-    <col min="12299" max="12545" width="9.140625" style="9"/>
-    <col min="12546" max="12546" width="20.140625" style="9" customWidth="1"/>
-    <col min="12547" max="12547" width="9.28515625" style="9" customWidth="1"/>
-    <col min="12548" max="12548" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12549" max="12549" width="8.7109375" style="9" customWidth="1"/>
-    <col min="12550" max="12550" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12296" max="12296" width="7.44140625" style="9" customWidth="1"/>
+    <col min="12297" max="12297" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12298" max="12298" width="7.88671875" style="9" customWidth="1"/>
+    <col min="12299" max="12545" width="9.109375" style="9"/>
+    <col min="12546" max="12546" width="20.109375" style="9" customWidth="1"/>
+    <col min="12547" max="12547" width="9.33203125" style="9" customWidth="1"/>
+    <col min="12548" max="12548" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12549" max="12549" width="8.6640625" style="9" customWidth="1"/>
+    <col min="12550" max="12550" width="7.88671875" style="9" customWidth="1"/>
     <col min="12551" max="12551" width="8" style="9" customWidth="1"/>
-    <col min="12552" max="12552" width="7.42578125" style="9" customWidth="1"/>
-    <col min="12553" max="12553" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12554" max="12554" width="7.85546875" style="9" customWidth="1"/>
-    <col min="12555" max="12801" width="9.140625" style="9"/>
-    <col min="12802" max="12802" width="20.140625" style="9" customWidth="1"/>
-    <col min="12803" max="12803" width="9.28515625" style="9" customWidth="1"/>
-    <col min="12804" max="12804" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12805" max="12805" width="8.7109375" style="9" customWidth="1"/>
-    <col min="12806" max="12806" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12552" max="12552" width="7.44140625" style="9" customWidth="1"/>
+    <col min="12553" max="12553" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12554" max="12554" width="7.88671875" style="9" customWidth="1"/>
+    <col min="12555" max="12801" width="9.109375" style="9"/>
+    <col min="12802" max="12802" width="20.109375" style="9" customWidth="1"/>
+    <col min="12803" max="12803" width="9.33203125" style="9" customWidth="1"/>
+    <col min="12804" max="12804" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12805" max="12805" width="8.6640625" style="9" customWidth="1"/>
+    <col min="12806" max="12806" width="7.88671875" style="9" customWidth="1"/>
     <col min="12807" max="12807" width="8" style="9" customWidth="1"/>
-    <col min="12808" max="12808" width="7.42578125" style="9" customWidth="1"/>
-    <col min="12809" max="12809" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12810" max="12810" width="7.85546875" style="9" customWidth="1"/>
-    <col min="12811" max="13057" width="9.140625" style="9"/>
-    <col min="13058" max="13058" width="20.140625" style="9" customWidth="1"/>
-    <col min="13059" max="13059" width="9.28515625" style="9" customWidth="1"/>
-    <col min="13060" max="13060" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13061" max="13061" width="8.7109375" style="9" customWidth="1"/>
-    <col min="13062" max="13062" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12808" max="12808" width="7.44140625" style="9" customWidth="1"/>
+    <col min="12809" max="12809" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12810" max="12810" width="7.88671875" style="9" customWidth="1"/>
+    <col min="12811" max="13057" width="9.109375" style="9"/>
+    <col min="13058" max="13058" width="20.109375" style="9" customWidth="1"/>
+    <col min="13059" max="13059" width="9.33203125" style="9" customWidth="1"/>
+    <col min="13060" max="13060" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13061" max="13061" width="8.6640625" style="9" customWidth="1"/>
+    <col min="13062" max="13062" width="7.88671875" style="9" customWidth="1"/>
     <col min="13063" max="13063" width="8" style="9" customWidth="1"/>
-    <col min="13064" max="13064" width="7.42578125" style="9" customWidth="1"/>
-    <col min="13065" max="13065" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13066" max="13066" width="7.85546875" style="9" customWidth="1"/>
-    <col min="13067" max="13313" width="9.140625" style="9"/>
-    <col min="13314" max="13314" width="20.140625" style="9" customWidth="1"/>
-    <col min="13315" max="13315" width="9.28515625" style="9" customWidth="1"/>
-    <col min="13316" max="13316" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13317" max="13317" width="8.7109375" style="9" customWidth="1"/>
-    <col min="13318" max="13318" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13064" max="13064" width="7.44140625" style="9" customWidth="1"/>
+    <col min="13065" max="13065" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13066" max="13066" width="7.88671875" style="9" customWidth="1"/>
+    <col min="13067" max="13313" width="9.109375" style="9"/>
+    <col min="13314" max="13314" width="20.109375" style="9" customWidth="1"/>
+    <col min="13315" max="13315" width="9.33203125" style="9" customWidth="1"/>
+    <col min="13316" max="13316" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13317" max="13317" width="8.6640625" style="9" customWidth="1"/>
+    <col min="13318" max="13318" width="7.88671875" style="9" customWidth="1"/>
     <col min="13319" max="13319" width="8" style="9" customWidth="1"/>
-    <col min="13320" max="13320" width="7.42578125" style="9" customWidth="1"/>
-    <col min="13321" max="13321" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13322" max="13322" width="7.85546875" style="9" customWidth="1"/>
-    <col min="13323" max="13569" width="9.140625" style="9"/>
-    <col min="13570" max="13570" width="20.140625" style="9" customWidth="1"/>
-    <col min="13571" max="13571" width="9.28515625" style="9" customWidth="1"/>
-    <col min="13572" max="13572" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13573" max="13573" width="8.7109375" style="9" customWidth="1"/>
-    <col min="13574" max="13574" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13320" max="13320" width="7.44140625" style="9" customWidth="1"/>
+    <col min="13321" max="13321" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13322" max="13322" width="7.88671875" style="9" customWidth="1"/>
+    <col min="13323" max="13569" width="9.109375" style="9"/>
+    <col min="13570" max="13570" width="20.109375" style="9" customWidth="1"/>
+    <col min="13571" max="13571" width="9.33203125" style="9" customWidth="1"/>
+    <col min="13572" max="13572" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13573" max="13573" width="8.6640625" style="9" customWidth="1"/>
+    <col min="13574" max="13574" width="7.88671875" style="9" customWidth="1"/>
     <col min="13575" max="13575" width="8" style="9" customWidth="1"/>
-    <col min="13576" max="13576" width="7.42578125" style="9" customWidth="1"/>
-    <col min="13577" max="13577" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13578" max="13578" width="7.85546875" style="9" customWidth="1"/>
-    <col min="13579" max="13825" width="9.140625" style="9"/>
-    <col min="13826" max="13826" width="20.140625" style="9" customWidth="1"/>
-    <col min="13827" max="13827" width="9.28515625" style="9" customWidth="1"/>
-    <col min="13828" max="13828" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13829" max="13829" width="8.7109375" style="9" customWidth="1"/>
-    <col min="13830" max="13830" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13576" max="13576" width="7.44140625" style="9" customWidth="1"/>
+    <col min="13577" max="13577" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13578" max="13578" width="7.88671875" style="9" customWidth="1"/>
+    <col min="13579" max="13825" width="9.109375" style="9"/>
+    <col min="13826" max="13826" width="20.109375" style="9" customWidth="1"/>
+    <col min="13827" max="13827" width="9.33203125" style="9" customWidth="1"/>
+    <col min="13828" max="13828" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13829" max="13829" width="8.6640625" style="9" customWidth="1"/>
+    <col min="13830" max="13830" width="7.88671875" style="9" customWidth="1"/>
     <col min="13831" max="13831" width="8" style="9" customWidth="1"/>
-    <col min="13832" max="13832" width="7.42578125" style="9" customWidth="1"/>
-    <col min="13833" max="13833" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13834" max="13834" width="7.85546875" style="9" customWidth="1"/>
-    <col min="13835" max="14081" width="9.140625" style="9"/>
-    <col min="14082" max="14082" width="20.140625" style="9" customWidth="1"/>
-    <col min="14083" max="14083" width="9.28515625" style="9" customWidth="1"/>
-    <col min="14084" max="14084" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14085" max="14085" width="8.7109375" style="9" customWidth="1"/>
-    <col min="14086" max="14086" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13832" max="13832" width="7.44140625" style="9" customWidth="1"/>
+    <col min="13833" max="13833" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13834" max="13834" width="7.88671875" style="9" customWidth="1"/>
+    <col min="13835" max="14081" width="9.109375" style="9"/>
+    <col min="14082" max="14082" width="20.109375" style="9" customWidth="1"/>
+    <col min="14083" max="14083" width="9.33203125" style="9" customWidth="1"/>
+    <col min="14084" max="14084" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14085" max="14085" width="8.6640625" style="9" customWidth="1"/>
+    <col min="14086" max="14086" width="7.88671875" style="9" customWidth="1"/>
     <col min="14087" max="14087" width="8" style="9" customWidth="1"/>
-    <col min="14088" max="14088" width="7.42578125" style="9" customWidth="1"/>
-    <col min="14089" max="14089" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14090" max="14090" width="7.85546875" style="9" customWidth="1"/>
-    <col min="14091" max="14337" width="9.140625" style="9"/>
-    <col min="14338" max="14338" width="20.140625" style="9" customWidth="1"/>
-    <col min="14339" max="14339" width="9.28515625" style="9" customWidth="1"/>
-    <col min="14340" max="14340" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14341" max="14341" width="8.7109375" style="9" customWidth="1"/>
-    <col min="14342" max="14342" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14088" max="14088" width="7.44140625" style="9" customWidth="1"/>
+    <col min="14089" max="14089" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14090" max="14090" width="7.88671875" style="9" customWidth="1"/>
+    <col min="14091" max="14337" width="9.109375" style="9"/>
+    <col min="14338" max="14338" width="20.109375" style="9" customWidth="1"/>
+    <col min="14339" max="14339" width="9.33203125" style="9" customWidth="1"/>
+    <col min="14340" max="14340" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14341" max="14341" width="8.6640625" style="9" customWidth="1"/>
+    <col min="14342" max="14342" width="7.88671875" style="9" customWidth="1"/>
     <col min="14343" max="14343" width="8" style="9" customWidth="1"/>
-    <col min="14344" max="14344" width="7.42578125" style="9" customWidth="1"/>
-    <col min="14345" max="14345" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14346" max="14346" width="7.85546875" style="9" customWidth="1"/>
-    <col min="14347" max="14593" width="9.140625" style="9"/>
-    <col min="14594" max="14594" width="20.140625" style="9" customWidth="1"/>
-    <col min="14595" max="14595" width="9.28515625" style="9" customWidth="1"/>
-    <col min="14596" max="14596" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14597" max="14597" width="8.7109375" style="9" customWidth="1"/>
-    <col min="14598" max="14598" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14344" max="14344" width="7.44140625" style="9" customWidth="1"/>
+    <col min="14345" max="14345" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14346" max="14346" width="7.88671875" style="9" customWidth="1"/>
+    <col min="14347" max="14593" width="9.109375" style="9"/>
+    <col min="14594" max="14594" width="20.109375" style="9" customWidth="1"/>
+    <col min="14595" max="14595" width="9.33203125" style="9" customWidth="1"/>
+    <col min="14596" max="14596" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14597" max="14597" width="8.6640625" style="9" customWidth="1"/>
+    <col min="14598" max="14598" width="7.88671875" style="9" customWidth="1"/>
     <col min="14599" max="14599" width="8" style="9" customWidth="1"/>
-    <col min="14600" max="14600" width="7.42578125" style="9" customWidth="1"/>
-    <col min="14601" max="14601" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14602" max="14602" width="7.85546875" style="9" customWidth="1"/>
-    <col min="14603" max="14849" width="9.140625" style="9"/>
-    <col min="14850" max="14850" width="20.140625" style="9" customWidth="1"/>
-    <col min="14851" max="14851" width="9.28515625" style="9" customWidth="1"/>
-    <col min="14852" max="14852" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14853" max="14853" width="8.7109375" style="9" customWidth="1"/>
-    <col min="14854" max="14854" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14600" max="14600" width="7.44140625" style="9" customWidth="1"/>
+    <col min="14601" max="14601" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14602" max="14602" width="7.88671875" style="9" customWidth="1"/>
+    <col min="14603" max="14849" width="9.109375" style="9"/>
+    <col min="14850" max="14850" width="20.109375" style="9" customWidth="1"/>
+    <col min="14851" max="14851" width="9.33203125" style="9" customWidth="1"/>
+    <col min="14852" max="14852" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14853" max="14853" width="8.6640625" style="9" customWidth="1"/>
+    <col min="14854" max="14854" width="7.88671875" style="9" customWidth="1"/>
     <col min="14855" max="14855" width="8" style="9" customWidth="1"/>
-    <col min="14856" max="14856" width="7.42578125" style="9" customWidth="1"/>
-    <col min="14857" max="14857" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14858" max="14858" width="7.85546875" style="9" customWidth="1"/>
-    <col min="14859" max="15105" width="9.140625" style="9"/>
-    <col min="15106" max="15106" width="20.140625" style="9" customWidth="1"/>
-    <col min="15107" max="15107" width="9.28515625" style="9" customWidth="1"/>
-    <col min="15108" max="15108" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15109" max="15109" width="8.7109375" style="9" customWidth="1"/>
-    <col min="15110" max="15110" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14856" max="14856" width="7.44140625" style="9" customWidth="1"/>
+    <col min="14857" max="14857" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14858" max="14858" width="7.88671875" style="9" customWidth="1"/>
+    <col min="14859" max="15105" width="9.109375" style="9"/>
+    <col min="15106" max="15106" width="20.109375" style="9" customWidth="1"/>
+    <col min="15107" max="15107" width="9.33203125" style="9" customWidth="1"/>
+    <col min="15108" max="15108" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15109" max="15109" width="8.6640625" style="9" customWidth="1"/>
+    <col min="15110" max="15110" width="7.88671875" style="9" customWidth="1"/>
     <col min="15111" max="15111" width="8" style="9" customWidth="1"/>
-    <col min="15112" max="15112" width="7.42578125" style="9" customWidth="1"/>
-    <col min="15113" max="15113" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15114" max="15114" width="7.85546875" style="9" customWidth="1"/>
-    <col min="15115" max="15361" width="9.140625" style="9"/>
-    <col min="15362" max="15362" width="20.140625" style="9" customWidth="1"/>
-    <col min="15363" max="15363" width="9.28515625" style="9" customWidth="1"/>
-    <col min="15364" max="15364" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15365" max="15365" width="8.7109375" style="9" customWidth="1"/>
-    <col min="15366" max="15366" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15112" max="15112" width="7.44140625" style="9" customWidth="1"/>
+    <col min="15113" max="15113" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15114" max="15114" width="7.88671875" style="9" customWidth="1"/>
+    <col min="15115" max="15361" width="9.109375" style="9"/>
+    <col min="15362" max="15362" width="20.109375" style="9" customWidth="1"/>
+    <col min="15363" max="15363" width="9.33203125" style="9" customWidth="1"/>
+    <col min="15364" max="15364" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15365" max="15365" width="8.6640625" style="9" customWidth="1"/>
+    <col min="15366" max="15366" width="7.88671875" style="9" customWidth="1"/>
     <col min="15367" max="15367" width="8" style="9" customWidth="1"/>
-    <col min="15368" max="15368" width="7.42578125" style="9" customWidth="1"/>
-    <col min="15369" max="15369" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15370" max="15370" width="7.85546875" style="9" customWidth="1"/>
-    <col min="15371" max="15617" width="9.140625" style="9"/>
-    <col min="15618" max="15618" width="20.140625" style="9" customWidth="1"/>
-    <col min="15619" max="15619" width="9.28515625" style="9" customWidth="1"/>
-    <col min="15620" max="15620" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15621" max="15621" width="8.7109375" style="9" customWidth="1"/>
-    <col min="15622" max="15622" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15368" max="15368" width="7.44140625" style="9" customWidth="1"/>
+    <col min="15369" max="15369" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15370" max="15370" width="7.88671875" style="9" customWidth="1"/>
+    <col min="15371" max="15617" width="9.109375" style="9"/>
+    <col min="15618" max="15618" width="20.109375" style="9" customWidth="1"/>
+    <col min="15619" max="15619" width="9.33203125" style="9" customWidth="1"/>
+    <col min="15620" max="15620" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15621" max="15621" width="8.6640625" style="9" customWidth="1"/>
+    <col min="15622" max="15622" width="7.88671875" style="9" customWidth="1"/>
     <col min="15623" max="15623" width="8" style="9" customWidth="1"/>
-    <col min="15624" max="15624" width="7.42578125" style="9" customWidth="1"/>
-    <col min="15625" max="15625" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15626" max="15626" width="7.85546875" style="9" customWidth="1"/>
-    <col min="15627" max="15873" width="9.140625" style="9"/>
-    <col min="15874" max="15874" width="20.140625" style="9" customWidth="1"/>
-    <col min="15875" max="15875" width="9.28515625" style="9" customWidth="1"/>
-    <col min="15876" max="15876" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15877" max="15877" width="8.7109375" style="9" customWidth="1"/>
-    <col min="15878" max="15878" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15624" max="15624" width="7.44140625" style="9" customWidth="1"/>
+    <col min="15625" max="15625" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15626" max="15626" width="7.88671875" style="9" customWidth="1"/>
+    <col min="15627" max="15873" width="9.109375" style="9"/>
+    <col min="15874" max="15874" width="20.109375" style="9" customWidth="1"/>
+    <col min="15875" max="15875" width="9.33203125" style="9" customWidth="1"/>
+    <col min="15876" max="15876" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15877" max="15877" width="8.6640625" style="9" customWidth="1"/>
+    <col min="15878" max="15878" width="7.88671875" style="9" customWidth="1"/>
     <col min="15879" max="15879" width="8" style="9" customWidth="1"/>
-    <col min="15880" max="15880" width="7.42578125" style="9" customWidth="1"/>
-    <col min="15881" max="15881" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15882" max="15882" width="7.85546875" style="9" customWidth="1"/>
-    <col min="15883" max="16129" width="9.140625" style="9"/>
-    <col min="16130" max="16130" width="20.140625" style="9" customWidth="1"/>
-    <col min="16131" max="16131" width="9.28515625" style="9" customWidth="1"/>
-    <col min="16132" max="16132" width="7.7109375" style="9" customWidth="1"/>
-    <col min="16133" max="16133" width="8.7109375" style="9" customWidth="1"/>
-    <col min="16134" max="16134" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15880" max="15880" width="7.44140625" style="9" customWidth="1"/>
+    <col min="15881" max="15881" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15882" max="15882" width="7.88671875" style="9" customWidth="1"/>
+    <col min="15883" max="16129" width="9.109375" style="9"/>
+    <col min="16130" max="16130" width="20.109375" style="9" customWidth="1"/>
+    <col min="16131" max="16131" width="9.33203125" style="9" customWidth="1"/>
+    <col min="16132" max="16132" width="7.6640625" style="9" customWidth="1"/>
+    <col min="16133" max="16133" width="8.6640625" style="9" customWidth="1"/>
+    <col min="16134" max="16134" width="7.88671875" style="9" customWidth="1"/>
     <col min="16135" max="16135" width="8" style="9" customWidth="1"/>
-    <col min="16136" max="16136" width="7.42578125" style="9" customWidth="1"/>
-    <col min="16137" max="16137" width="7.7109375" style="9" customWidth="1"/>
-    <col min="16138" max="16138" width="7.85546875" style="9" customWidth="1"/>
-    <col min="16139" max="16384" width="9.140625" style="9"/>
+    <col min="16136" max="16136" width="7.44140625" style="9" customWidth="1"/>
+    <col min="16137" max="16137" width="7.6640625" style="9" customWidth="1"/>
+    <col min="16138" max="16138" width="7.88671875" style="9" customWidth="1"/>
+    <col min="16139" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
         <v>3</v>
@@ -20737,7 +20745,7 @@
       <c r="K3" s="13"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
@@ -20773,7 +20781,7 @@
       </c>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -20791,7 +20799,7 @@
       <c r="K5" s="19"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
@@ -20827,7 +20835,7 @@
       </c>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>3</v>
       </c>
@@ -20863,7 +20871,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>2.5</v>
       </c>
@@ -20899,7 +20907,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>2.2000000000000002</v>
       </c>
@@ -20935,7 +20943,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>2</v>
       </c>
@@ -20971,7 +20979,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>1.8</v>
       </c>
@@ -21007,7 +21015,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>1.6</v>
       </c>
@@ -21051,7 +21059,7 @@
         <v>-1.1317800255965929</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>1.4</v>
       </c>
@@ -21087,7 +21095,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>1.2</v>
       </c>
@@ -21123,7 +21131,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>1</v>
       </c>
@@ -21166,7 +21174,7 @@
         <v>3.842262510916828E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>0.9</v>
       </c>
@@ -21202,7 +21210,7 @@
         <v>4.3949999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>0.8</v>
       </c>
@@ -21268,7 +21276,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>0.7</v>
       </c>
@@ -21340,7 +21348,7 @@
         <v>3.1901481036079531</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>0.6</v>
       </c>
@@ -21376,7 +21384,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>0.5</v>
       </c>
@@ -21412,7 +21420,7 @@
         <v>3.8149999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>0.4</v>
       </c>
@@ -21448,7 +21456,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>0.3</v>
       </c>
@@ -21484,7 +21492,7 @@
         <v>3.5249999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>0.2</v>
       </c>
@@ -21520,7 +21528,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>0.1</v>
       </c>
@@ -21556,7 +21564,7 @@
         <v>3.2349999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>0</v>
       </c>
@@ -21592,7 +21600,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>-0.1</v>
       </c>
@@ -21628,7 +21636,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>-0.2</v>
       </c>
@@ -21664,7 +21672,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>-0.3</v>
       </c>
@@ -21700,7 +21708,7 @@
         <v>2.6749999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>-0.4</v>
       </c>
@@ -21736,7 +21744,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>-0.5</v>
       </c>
@@ -21772,7 +21780,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>-0.6</v>
       </c>
@@ -21808,7 +21816,7 @@
         <v>2.2749999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>-0.7</v>
       </c>
@@ -21844,7 +21852,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>-0.8</v>
       </c>
@@ -21880,7 +21888,7 @@
         <v>2.0350000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>-0.9</v>
       </c>
@@ -21916,7 +21924,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>-1</v>
       </c>
@@ -21952,7 +21960,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>-1.2</v>
       </c>
@@ -21988,7 +21996,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>-1.4</v>
       </c>
@@ -22024,7 +22032,7 @@
         <v>1.4650000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>-1.6</v>
       </c>
@@ -22060,7 +22068,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>-1.8</v>
       </c>
@@ -22096,7 +22104,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>-2</v>
       </c>
@@ -22132,7 +22140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>-2.2000000000000002</v>
       </c>
@@ -22168,7 +22176,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>-2.5</v>
       </c>
@@ -22204,7 +22212,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
         <v>-3</v>
       </c>
@@ -22240,7 +22248,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>10</v>
       </c>
@@ -22257,661 +22265,662 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E24856-46E9-4A0B-A4EA-A049AFEA0388}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="9" customWidth="1"/>
     <col min="7" max="7" width="8" style="9" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="9" customWidth="1"/>
-    <col min="11" max="257" width="9.140625" style="9"/>
-    <col min="258" max="258" width="20.140625" style="9" customWidth="1"/>
-    <col min="259" max="259" width="9.28515625" style="9" customWidth="1"/>
-    <col min="260" max="260" width="7.7109375" style="9" customWidth="1"/>
-    <col min="261" max="261" width="8.7109375" style="9" customWidth="1"/>
-    <col min="262" max="262" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="9" customWidth="1"/>
+    <col min="11" max="257" width="9.109375" style="9"/>
+    <col min="258" max="258" width="20.109375" style="9" customWidth="1"/>
+    <col min="259" max="259" width="9.33203125" style="9" customWidth="1"/>
+    <col min="260" max="260" width="7.6640625" style="9" customWidth="1"/>
+    <col min="261" max="261" width="8.6640625" style="9" customWidth="1"/>
+    <col min="262" max="262" width="7.88671875" style="9" customWidth="1"/>
     <col min="263" max="263" width="8" style="9" customWidth="1"/>
-    <col min="264" max="264" width="7.42578125" style="9" customWidth="1"/>
-    <col min="265" max="265" width="7.7109375" style="9" customWidth="1"/>
-    <col min="266" max="266" width="7.85546875" style="9" customWidth="1"/>
-    <col min="267" max="513" width="9.140625" style="9"/>
-    <col min="514" max="514" width="20.140625" style="9" customWidth="1"/>
-    <col min="515" max="515" width="9.28515625" style="9" customWidth="1"/>
-    <col min="516" max="516" width="7.7109375" style="9" customWidth="1"/>
-    <col min="517" max="517" width="8.7109375" style="9" customWidth="1"/>
-    <col min="518" max="518" width="7.85546875" style="9" customWidth="1"/>
+    <col min="264" max="264" width="7.44140625" style="9" customWidth="1"/>
+    <col min="265" max="265" width="7.6640625" style="9" customWidth="1"/>
+    <col min="266" max="266" width="7.88671875" style="9" customWidth="1"/>
+    <col min="267" max="513" width="9.109375" style="9"/>
+    <col min="514" max="514" width="20.109375" style="9" customWidth="1"/>
+    <col min="515" max="515" width="9.33203125" style="9" customWidth="1"/>
+    <col min="516" max="516" width="7.6640625" style="9" customWidth="1"/>
+    <col min="517" max="517" width="8.6640625" style="9" customWidth="1"/>
+    <col min="518" max="518" width="7.88671875" style="9" customWidth="1"/>
     <col min="519" max="519" width="8" style="9" customWidth="1"/>
-    <col min="520" max="520" width="7.42578125" style="9" customWidth="1"/>
-    <col min="521" max="521" width="7.7109375" style="9" customWidth="1"/>
-    <col min="522" max="522" width="7.85546875" style="9" customWidth="1"/>
-    <col min="523" max="769" width="9.140625" style="9"/>
-    <col min="770" max="770" width="20.140625" style="9" customWidth="1"/>
-    <col min="771" max="771" width="9.28515625" style="9" customWidth="1"/>
-    <col min="772" max="772" width="7.7109375" style="9" customWidth="1"/>
-    <col min="773" max="773" width="8.7109375" style="9" customWidth="1"/>
-    <col min="774" max="774" width="7.85546875" style="9" customWidth="1"/>
+    <col min="520" max="520" width="7.44140625" style="9" customWidth="1"/>
+    <col min="521" max="521" width="7.6640625" style="9" customWidth="1"/>
+    <col min="522" max="522" width="7.88671875" style="9" customWidth="1"/>
+    <col min="523" max="769" width="9.109375" style="9"/>
+    <col min="770" max="770" width="20.109375" style="9" customWidth="1"/>
+    <col min="771" max="771" width="9.33203125" style="9" customWidth="1"/>
+    <col min="772" max="772" width="7.6640625" style="9" customWidth="1"/>
+    <col min="773" max="773" width="8.6640625" style="9" customWidth="1"/>
+    <col min="774" max="774" width="7.88671875" style="9" customWidth="1"/>
     <col min="775" max="775" width="8" style="9" customWidth="1"/>
-    <col min="776" max="776" width="7.42578125" style="9" customWidth="1"/>
-    <col min="777" max="777" width="7.7109375" style="9" customWidth="1"/>
-    <col min="778" max="778" width="7.85546875" style="9" customWidth="1"/>
-    <col min="779" max="1025" width="9.140625" style="9"/>
-    <col min="1026" max="1026" width="20.140625" style="9" customWidth="1"/>
-    <col min="1027" max="1027" width="9.28515625" style="9" customWidth="1"/>
-    <col min="1028" max="1028" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1029" max="1029" width="8.7109375" style="9" customWidth="1"/>
-    <col min="1030" max="1030" width="7.85546875" style="9" customWidth="1"/>
+    <col min="776" max="776" width="7.44140625" style="9" customWidth="1"/>
+    <col min="777" max="777" width="7.6640625" style="9" customWidth="1"/>
+    <col min="778" max="778" width="7.88671875" style="9" customWidth="1"/>
+    <col min="779" max="1025" width="9.109375" style="9"/>
+    <col min="1026" max="1026" width="20.109375" style="9" customWidth="1"/>
+    <col min="1027" max="1027" width="9.33203125" style="9" customWidth="1"/>
+    <col min="1028" max="1028" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1029" max="1029" width="8.6640625" style="9" customWidth="1"/>
+    <col min="1030" max="1030" width="7.88671875" style="9" customWidth="1"/>
     <col min="1031" max="1031" width="8" style="9" customWidth="1"/>
-    <col min="1032" max="1032" width="7.42578125" style="9" customWidth="1"/>
-    <col min="1033" max="1033" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1034" max="1034" width="7.85546875" style="9" customWidth="1"/>
-    <col min="1035" max="1281" width="9.140625" style="9"/>
-    <col min="1282" max="1282" width="20.140625" style="9" customWidth="1"/>
-    <col min="1283" max="1283" width="9.28515625" style="9" customWidth="1"/>
-    <col min="1284" max="1284" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1285" max="1285" width="8.7109375" style="9" customWidth="1"/>
-    <col min="1286" max="1286" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1032" max="1032" width="7.44140625" style="9" customWidth="1"/>
+    <col min="1033" max="1033" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1034" max="1034" width="7.88671875" style="9" customWidth="1"/>
+    <col min="1035" max="1281" width="9.109375" style="9"/>
+    <col min="1282" max="1282" width="20.109375" style="9" customWidth="1"/>
+    <col min="1283" max="1283" width="9.33203125" style="9" customWidth="1"/>
+    <col min="1284" max="1284" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1285" max="1285" width="8.6640625" style="9" customWidth="1"/>
+    <col min="1286" max="1286" width="7.88671875" style="9" customWidth="1"/>
     <col min="1287" max="1287" width="8" style="9" customWidth="1"/>
-    <col min="1288" max="1288" width="7.42578125" style="9" customWidth="1"/>
-    <col min="1289" max="1289" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1290" max="1290" width="7.85546875" style="9" customWidth="1"/>
-    <col min="1291" max="1537" width="9.140625" style="9"/>
-    <col min="1538" max="1538" width="20.140625" style="9" customWidth="1"/>
-    <col min="1539" max="1539" width="9.28515625" style="9" customWidth="1"/>
-    <col min="1540" max="1540" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1541" max="1541" width="8.7109375" style="9" customWidth="1"/>
-    <col min="1542" max="1542" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1288" max="1288" width="7.44140625" style="9" customWidth="1"/>
+    <col min="1289" max="1289" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1290" max="1290" width="7.88671875" style="9" customWidth="1"/>
+    <col min="1291" max="1537" width="9.109375" style="9"/>
+    <col min="1538" max="1538" width="20.109375" style="9" customWidth="1"/>
+    <col min="1539" max="1539" width="9.33203125" style="9" customWidth="1"/>
+    <col min="1540" max="1540" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1541" max="1541" width="8.6640625" style="9" customWidth="1"/>
+    <col min="1542" max="1542" width="7.88671875" style="9" customWidth="1"/>
     <col min="1543" max="1543" width="8" style="9" customWidth="1"/>
-    <col min="1544" max="1544" width="7.42578125" style="9" customWidth="1"/>
-    <col min="1545" max="1545" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1546" max="1546" width="7.85546875" style="9" customWidth="1"/>
-    <col min="1547" max="1793" width="9.140625" style="9"/>
-    <col min="1794" max="1794" width="20.140625" style="9" customWidth="1"/>
-    <col min="1795" max="1795" width="9.28515625" style="9" customWidth="1"/>
-    <col min="1796" max="1796" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1797" max="1797" width="8.7109375" style="9" customWidth="1"/>
-    <col min="1798" max="1798" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1544" max="1544" width="7.44140625" style="9" customWidth="1"/>
+    <col min="1545" max="1545" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1546" max="1546" width="7.88671875" style="9" customWidth="1"/>
+    <col min="1547" max="1793" width="9.109375" style="9"/>
+    <col min="1794" max="1794" width="20.109375" style="9" customWidth="1"/>
+    <col min="1795" max="1795" width="9.33203125" style="9" customWidth="1"/>
+    <col min="1796" max="1796" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1797" max="1797" width="8.6640625" style="9" customWidth="1"/>
+    <col min="1798" max="1798" width="7.88671875" style="9" customWidth="1"/>
     <col min="1799" max="1799" width="8" style="9" customWidth="1"/>
-    <col min="1800" max="1800" width="7.42578125" style="9" customWidth="1"/>
-    <col min="1801" max="1801" width="7.7109375" style="9" customWidth="1"/>
-    <col min="1802" max="1802" width="7.85546875" style="9" customWidth="1"/>
-    <col min="1803" max="2049" width="9.140625" style="9"/>
-    <col min="2050" max="2050" width="20.140625" style="9" customWidth="1"/>
-    <col min="2051" max="2051" width="9.28515625" style="9" customWidth="1"/>
-    <col min="2052" max="2052" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2053" max="2053" width="8.7109375" style="9" customWidth="1"/>
-    <col min="2054" max="2054" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1800" max="1800" width="7.44140625" style="9" customWidth="1"/>
+    <col min="1801" max="1801" width="7.6640625" style="9" customWidth="1"/>
+    <col min="1802" max="1802" width="7.88671875" style="9" customWidth="1"/>
+    <col min="1803" max="2049" width="9.109375" style="9"/>
+    <col min="2050" max="2050" width="20.109375" style="9" customWidth="1"/>
+    <col min="2051" max="2051" width="9.33203125" style="9" customWidth="1"/>
+    <col min="2052" max="2052" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2053" max="2053" width="8.6640625" style="9" customWidth="1"/>
+    <col min="2054" max="2054" width="7.88671875" style="9" customWidth="1"/>
     <col min="2055" max="2055" width="8" style="9" customWidth="1"/>
-    <col min="2056" max="2056" width="7.42578125" style="9" customWidth="1"/>
-    <col min="2057" max="2057" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2058" max="2058" width="7.85546875" style="9" customWidth="1"/>
-    <col min="2059" max="2305" width="9.140625" style="9"/>
-    <col min="2306" max="2306" width="20.140625" style="9" customWidth="1"/>
-    <col min="2307" max="2307" width="9.28515625" style="9" customWidth="1"/>
-    <col min="2308" max="2308" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2309" max="2309" width="8.7109375" style="9" customWidth="1"/>
-    <col min="2310" max="2310" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2056" max="2056" width="7.44140625" style="9" customWidth="1"/>
+    <col min="2057" max="2057" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2058" max="2058" width="7.88671875" style="9" customWidth="1"/>
+    <col min="2059" max="2305" width="9.109375" style="9"/>
+    <col min="2306" max="2306" width="20.109375" style="9" customWidth="1"/>
+    <col min="2307" max="2307" width="9.33203125" style="9" customWidth="1"/>
+    <col min="2308" max="2308" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2309" max="2309" width="8.6640625" style="9" customWidth="1"/>
+    <col min="2310" max="2310" width="7.88671875" style="9" customWidth="1"/>
     <col min="2311" max="2311" width="8" style="9" customWidth="1"/>
-    <col min="2312" max="2312" width="7.42578125" style="9" customWidth="1"/>
-    <col min="2313" max="2313" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2314" max="2314" width="7.85546875" style="9" customWidth="1"/>
-    <col min="2315" max="2561" width="9.140625" style="9"/>
-    <col min="2562" max="2562" width="20.140625" style="9" customWidth="1"/>
-    <col min="2563" max="2563" width="9.28515625" style="9" customWidth="1"/>
-    <col min="2564" max="2564" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2565" max="2565" width="8.7109375" style="9" customWidth="1"/>
-    <col min="2566" max="2566" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2312" max="2312" width="7.44140625" style="9" customWidth="1"/>
+    <col min="2313" max="2313" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2314" max="2314" width="7.88671875" style="9" customWidth="1"/>
+    <col min="2315" max="2561" width="9.109375" style="9"/>
+    <col min="2562" max="2562" width="20.109375" style="9" customWidth="1"/>
+    <col min="2563" max="2563" width="9.33203125" style="9" customWidth="1"/>
+    <col min="2564" max="2564" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2565" max="2565" width="8.6640625" style="9" customWidth="1"/>
+    <col min="2566" max="2566" width="7.88671875" style="9" customWidth="1"/>
     <col min="2567" max="2567" width="8" style="9" customWidth="1"/>
-    <col min="2568" max="2568" width="7.42578125" style="9" customWidth="1"/>
-    <col min="2569" max="2569" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2570" max="2570" width="7.85546875" style="9" customWidth="1"/>
-    <col min="2571" max="2817" width="9.140625" style="9"/>
-    <col min="2818" max="2818" width="20.140625" style="9" customWidth="1"/>
-    <col min="2819" max="2819" width="9.28515625" style="9" customWidth="1"/>
-    <col min="2820" max="2820" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2821" max="2821" width="8.7109375" style="9" customWidth="1"/>
-    <col min="2822" max="2822" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2568" max="2568" width="7.44140625" style="9" customWidth="1"/>
+    <col min="2569" max="2569" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2570" max="2570" width="7.88671875" style="9" customWidth="1"/>
+    <col min="2571" max="2817" width="9.109375" style="9"/>
+    <col min="2818" max="2818" width="20.109375" style="9" customWidth="1"/>
+    <col min="2819" max="2819" width="9.33203125" style="9" customWidth="1"/>
+    <col min="2820" max="2820" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2821" max="2821" width="8.6640625" style="9" customWidth="1"/>
+    <col min="2822" max="2822" width="7.88671875" style="9" customWidth="1"/>
     <col min="2823" max="2823" width="8" style="9" customWidth="1"/>
-    <col min="2824" max="2824" width="7.42578125" style="9" customWidth="1"/>
-    <col min="2825" max="2825" width="7.7109375" style="9" customWidth="1"/>
-    <col min="2826" max="2826" width="7.85546875" style="9" customWidth="1"/>
-    <col min="2827" max="3073" width="9.140625" style="9"/>
-    <col min="3074" max="3074" width="20.140625" style="9" customWidth="1"/>
-    <col min="3075" max="3075" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3076" max="3076" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3077" max="3077" width="8.7109375" style="9" customWidth="1"/>
-    <col min="3078" max="3078" width="7.85546875" style="9" customWidth="1"/>
+    <col min="2824" max="2824" width="7.44140625" style="9" customWidth="1"/>
+    <col min="2825" max="2825" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2826" max="2826" width="7.88671875" style="9" customWidth="1"/>
+    <col min="2827" max="3073" width="9.109375" style="9"/>
+    <col min="3074" max="3074" width="20.109375" style="9" customWidth="1"/>
+    <col min="3075" max="3075" width="9.33203125" style="9" customWidth="1"/>
+    <col min="3076" max="3076" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3077" max="3077" width="8.6640625" style="9" customWidth="1"/>
+    <col min="3078" max="3078" width="7.88671875" style="9" customWidth="1"/>
     <col min="3079" max="3079" width="8" style="9" customWidth="1"/>
-    <col min="3080" max="3080" width="7.42578125" style="9" customWidth="1"/>
-    <col min="3081" max="3081" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3082" max="3082" width="7.85546875" style="9" customWidth="1"/>
-    <col min="3083" max="3329" width="9.140625" style="9"/>
-    <col min="3330" max="3330" width="20.140625" style="9" customWidth="1"/>
-    <col min="3331" max="3331" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3332" max="3332" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3333" max="3333" width="8.7109375" style="9" customWidth="1"/>
-    <col min="3334" max="3334" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3080" max="3080" width="7.44140625" style="9" customWidth="1"/>
+    <col min="3081" max="3081" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3082" max="3082" width="7.88671875" style="9" customWidth="1"/>
+    <col min="3083" max="3329" width="9.109375" style="9"/>
+    <col min="3330" max="3330" width="20.109375" style="9" customWidth="1"/>
+    <col min="3331" max="3331" width="9.33203125" style="9" customWidth="1"/>
+    <col min="3332" max="3332" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3333" max="3333" width="8.6640625" style="9" customWidth="1"/>
+    <col min="3334" max="3334" width="7.88671875" style="9" customWidth="1"/>
     <col min="3335" max="3335" width="8" style="9" customWidth="1"/>
-    <col min="3336" max="3336" width="7.42578125" style="9" customWidth="1"/>
-    <col min="3337" max="3337" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3338" max="3338" width="7.85546875" style="9" customWidth="1"/>
-    <col min="3339" max="3585" width="9.140625" style="9"/>
-    <col min="3586" max="3586" width="20.140625" style="9" customWidth="1"/>
-    <col min="3587" max="3587" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3588" max="3588" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3589" max="3589" width="8.7109375" style="9" customWidth="1"/>
-    <col min="3590" max="3590" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3336" max="3336" width="7.44140625" style="9" customWidth="1"/>
+    <col min="3337" max="3337" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3338" max="3338" width="7.88671875" style="9" customWidth="1"/>
+    <col min="3339" max="3585" width="9.109375" style="9"/>
+    <col min="3586" max="3586" width="20.109375" style="9" customWidth="1"/>
+    <col min="3587" max="3587" width="9.33203125" style="9" customWidth="1"/>
+    <col min="3588" max="3588" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3589" max="3589" width="8.6640625" style="9" customWidth="1"/>
+    <col min="3590" max="3590" width="7.88671875" style="9" customWidth="1"/>
     <col min="3591" max="3591" width="8" style="9" customWidth="1"/>
-    <col min="3592" max="3592" width="7.42578125" style="9" customWidth="1"/>
-    <col min="3593" max="3593" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3594" max="3594" width="7.85546875" style="9" customWidth="1"/>
-    <col min="3595" max="3841" width="9.140625" style="9"/>
-    <col min="3842" max="3842" width="20.140625" style="9" customWidth="1"/>
-    <col min="3843" max="3843" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3844" max="3844" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3845" max="3845" width="8.7109375" style="9" customWidth="1"/>
-    <col min="3846" max="3846" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3592" max="3592" width="7.44140625" style="9" customWidth="1"/>
+    <col min="3593" max="3593" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3594" max="3594" width="7.88671875" style="9" customWidth="1"/>
+    <col min="3595" max="3841" width="9.109375" style="9"/>
+    <col min="3842" max="3842" width="20.109375" style="9" customWidth="1"/>
+    <col min="3843" max="3843" width="9.33203125" style="9" customWidth="1"/>
+    <col min="3844" max="3844" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3845" max="3845" width="8.6640625" style="9" customWidth="1"/>
+    <col min="3846" max="3846" width="7.88671875" style="9" customWidth="1"/>
     <col min="3847" max="3847" width="8" style="9" customWidth="1"/>
-    <col min="3848" max="3848" width="7.42578125" style="9" customWidth="1"/>
-    <col min="3849" max="3849" width="7.7109375" style="9" customWidth="1"/>
-    <col min="3850" max="3850" width="7.85546875" style="9" customWidth="1"/>
-    <col min="3851" max="4097" width="9.140625" style="9"/>
-    <col min="4098" max="4098" width="20.140625" style="9" customWidth="1"/>
-    <col min="4099" max="4099" width="9.28515625" style="9" customWidth="1"/>
-    <col min="4100" max="4100" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4101" max="4101" width="8.7109375" style="9" customWidth="1"/>
-    <col min="4102" max="4102" width="7.85546875" style="9" customWidth="1"/>
+    <col min="3848" max="3848" width="7.44140625" style="9" customWidth="1"/>
+    <col min="3849" max="3849" width="7.6640625" style="9" customWidth="1"/>
+    <col min="3850" max="3850" width="7.88671875" style="9" customWidth="1"/>
+    <col min="3851" max="4097" width="9.109375" style="9"/>
+    <col min="4098" max="4098" width="20.109375" style="9" customWidth="1"/>
+    <col min="4099" max="4099" width="9.33203125" style="9" customWidth="1"/>
+    <col min="4100" max="4100" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4101" max="4101" width="8.6640625" style="9" customWidth="1"/>
+    <col min="4102" max="4102" width="7.88671875" style="9" customWidth="1"/>
     <col min="4103" max="4103" width="8" style="9" customWidth="1"/>
-    <col min="4104" max="4104" width="7.42578125" style="9" customWidth="1"/>
-    <col min="4105" max="4105" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4106" max="4106" width="7.85546875" style="9" customWidth="1"/>
-    <col min="4107" max="4353" width="9.140625" style="9"/>
-    <col min="4354" max="4354" width="20.140625" style="9" customWidth="1"/>
-    <col min="4355" max="4355" width="9.28515625" style="9" customWidth="1"/>
-    <col min="4356" max="4356" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4357" max="4357" width="8.7109375" style="9" customWidth="1"/>
-    <col min="4358" max="4358" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4104" max="4104" width="7.44140625" style="9" customWidth="1"/>
+    <col min="4105" max="4105" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4106" max="4106" width="7.88671875" style="9" customWidth="1"/>
+    <col min="4107" max="4353" width="9.109375" style="9"/>
+    <col min="4354" max="4354" width="20.109375" style="9" customWidth="1"/>
+    <col min="4355" max="4355" width="9.33203125" style="9" customWidth="1"/>
+    <col min="4356" max="4356" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4357" max="4357" width="8.6640625" style="9" customWidth="1"/>
+    <col min="4358" max="4358" width="7.88671875" style="9" customWidth="1"/>
     <col min="4359" max="4359" width="8" style="9" customWidth="1"/>
-    <col min="4360" max="4360" width="7.42578125" style="9" customWidth="1"/>
-    <col min="4361" max="4361" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4362" max="4362" width="7.85546875" style="9" customWidth="1"/>
-    <col min="4363" max="4609" width="9.140625" style="9"/>
-    <col min="4610" max="4610" width="20.140625" style="9" customWidth="1"/>
-    <col min="4611" max="4611" width="9.28515625" style="9" customWidth="1"/>
-    <col min="4612" max="4612" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4613" max="4613" width="8.7109375" style="9" customWidth="1"/>
-    <col min="4614" max="4614" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4360" max="4360" width="7.44140625" style="9" customWidth="1"/>
+    <col min="4361" max="4361" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4362" max="4362" width="7.88671875" style="9" customWidth="1"/>
+    <col min="4363" max="4609" width="9.109375" style="9"/>
+    <col min="4610" max="4610" width="20.109375" style="9" customWidth="1"/>
+    <col min="4611" max="4611" width="9.33203125" style="9" customWidth="1"/>
+    <col min="4612" max="4612" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4613" max="4613" width="8.6640625" style="9" customWidth="1"/>
+    <col min="4614" max="4614" width="7.88671875" style="9" customWidth="1"/>
     <col min="4615" max="4615" width="8" style="9" customWidth="1"/>
-    <col min="4616" max="4616" width="7.42578125" style="9" customWidth="1"/>
-    <col min="4617" max="4617" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4618" max="4618" width="7.85546875" style="9" customWidth="1"/>
-    <col min="4619" max="4865" width="9.140625" style="9"/>
-    <col min="4866" max="4866" width="20.140625" style="9" customWidth="1"/>
-    <col min="4867" max="4867" width="9.28515625" style="9" customWidth="1"/>
-    <col min="4868" max="4868" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4869" max="4869" width="8.7109375" style="9" customWidth="1"/>
-    <col min="4870" max="4870" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4616" max="4616" width="7.44140625" style="9" customWidth="1"/>
+    <col min="4617" max="4617" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4618" max="4618" width="7.88671875" style="9" customWidth="1"/>
+    <col min="4619" max="4865" width="9.109375" style="9"/>
+    <col min="4866" max="4866" width="20.109375" style="9" customWidth="1"/>
+    <col min="4867" max="4867" width="9.33203125" style="9" customWidth="1"/>
+    <col min="4868" max="4868" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4869" max="4869" width="8.6640625" style="9" customWidth="1"/>
+    <col min="4870" max="4870" width="7.88671875" style="9" customWidth="1"/>
     <col min="4871" max="4871" width="8" style="9" customWidth="1"/>
-    <col min="4872" max="4872" width="7.42578125" style="9" customWidth="1"/>
-    <col min="4873" max="4873" width="7.7109375" style="9" customWidth="1"/>
-    <col min="4874" max="4874" width="7.85546875" style="9" customWidth="1"/>
-    <col min="4875" max="5121" width="9.140625" style="9"/>
-    <col min="5122" max="5122" width="20.140625" style="9" customWidth="1"/>
-    <col min="5123" max="5123" width="9.28515625" style="9" customWidth="1"/>
-    <col min="5124" max="5124" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5125" max="5125" width="8.7109375" style="9" customWidth="1"/>
-    <col min="5126" max="5126" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4872" max="4872" width="7.44140625" style="9" customWidth="1"/>
+    <col min="4873" max="4873" width="7.6640625" style="9" customWidth="1"/>
+    <col min="4874" max="4874" width="7.88671875" style="9" customWidth="1"/>
+    <col min="4875" max="5121" width="9.109375" style="9"/>
+    <col min="5122" max="5122" width="20.109375" style="9" customWidth="1"/>
+    <col min="5123" max="5123" width="9.33203125" style="9" customWidth="1"/>
+    <col min="5124" max="5124" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5125" max="5125" width="8.6640625" style="9" customWidth="1"/>
+    <col min="5126" max="5126" width="7.88671875" style="9" customWidth="1"/>
     <col min="5127" max="5127" width="8" style="9" customWidth="1"/>
-    <col min="5128" max="5128" width="7.42578125" style="9" customWidth="1"/>
-    <col min="5129" max="5129" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5130" max="5130" width="7.85546875" style="9" customWidth="1"/>
-    <col min="5131" max="5377" width="9.140625" style="9"/>
-    <col min="5378" max="5378" width="20.140625" style="9" customWidth="1"/>
-    <col min="5379" max="5379" width="9.28515625" style="9" customWidth="1"/>
-    <col min="5380" max="5380" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5381" max="5381" width="8.7109375" style="9" customWidth="1"/>
-    <col min="5382" max="5382" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5128" max="5128" width="7.44140625" style="9" customWidth="1"/>
+    <col min="5129" max="5129" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5130" max="5130" width="7.88671875" style="9" customWidth="1"/>
+    <col min="5131" max="5377" width="9.109375" style="9"/>
+    <col min="5378" max="5378" width="20.109375" style="9" customWidth="1"/>
+    <col min="5379" max="5379" width="9.33203125" style="9" customWidth="1"/>
+    <col min="5380" max="5380" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5381" max="5381" width="8.6640625" style="9" customWidth="1"/>
+    <col min="5382" max="5382" width="7.88671875" style="9" customWidth="1"/>
     <col min="5383" max="5383" width="8" style="9" customWidth="1"/>
-    <col min="5384" max="5384" width="7.42578125" style="9" customWidth="1"/>
-    <col min="5385" max="5385" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5386" max="5386" width="7.85546875" style="9" customWidth="1"/>
-    <col min="5387" max="5633" width="9.140625" style="9"/>
-    <col min="5634" max="5634" width="20.140625" style="9" customWidth="1"/>
-    <col min="5635" max="5635" width="9.28515625" style="9" customWidth="1"/>
-    <col min="5636" max="5636" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5637" max="5637" width="8.7109375" style="9" customWidth="1"/>
-    <col min="5638" max="5638" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5384" max="5384" width="7.44140625" style="9" customWidth="1"/>
+    <col min="5385" max="5385" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5386" max="5386" width="7.88671875" style="9" customWidth="1"/>
+    <col min="5387" max="5633" width="9.109375" style="9"/>
+    <col min="5634" max="5634" width="20.109375" style="9" customWidth="1"/>
+    <col min="5635" max="5635" width="9.33203125" style="9" customWidth="1"/>
+    <col min="5636" max="5636" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5637" max="5637" width="8.6640625" style="9" customWidth="1"/>
+    <col min="5638" max="5638" width="7.88671875" style="9" customWidth="1"/>
     <col min="5639" max="5639" width="8" style="9" customWidth="1"/>
-    <col min="5640" max="5640" width="7.42578125" style="9" customWidth="1"/>
-    <col min="5641" max="5641" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5642" max="5642" width="7.85546875" style="9" customWidth="1"/>
-    <col min="5643" max="5889" width="9.140625" style="9"/>
-    <col min="5890" max="5890" width="20.140625" style="9" customWidth="1"/>
-    <col min="5891" max="5891" width="9.28515625" style="9" customWidth="1"/>
-    <col min="5892" max="5892" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5893" max="5893" width="8.7109375" style="9" customWidth="1"/>
-    <col min="5894" max="5894" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5640" max="5640" width="7.44140625" style="9" customWidth="1"/>
+    <col min="5641" max="5641" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5642" max="5642" width="7.88671875" style="9" customWidth="1"/>
+    <col min="5643" max="5889" width="9.109375" style="9"/>
+    <col min="5890" max="5890" width="20.109375" style="9" customWidth="1"/>
+    <col min="5891" max="5891" width="9.33203125" style="9" customWidth="1"/>
+    <col min="5892" max="5892" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5893" max="5893" width="8.6640625" style="9" customWidth="1"/>
+    <col min="5894" max="5894" width="7.88671875" style="9" customWidth="1"/>
     <col min="5895" max="5895" width="8" style="9" customWidth="1"/>
-    <col min="5896" max="5896" width="7.42578125" style="9" customWidth="1"/>
-    <col min="5897" max="5897" width="7.7109375" style="9" customWidth="1"/>
-    <col min="5898" max="5898" width="7.85546875" style="9" customWidth="1"/>
-    <col min="5899" max="6145" width="9.140625" style="9"/>
-    <col min="6146" max="6146" width="20.140625" style="9" customWidth="1"/>
-    <col min="6147" max="6147" width="9.28515625" style="9" customWidth="1"/>
-    <col min="6148" max="6148" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6149" max="6149" width="8.7109375" style="9" customWidth="1"/>
-    <col min="6150" max="6150" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5896" max="5896" width="7.44140625" style="9" customWidth="1"/>
+    <col min="5897" max="5897" width="7.6640625" style="9" customWidth="1"/>
+    <col min="5898" max="5898" width="7.88671875" style="9" customWidth="1"/>
+    <col min="5899" max="6145" width="9.109375" style="9"/>
+    <col min="6146" max="6146" width="20.109375" style="9" customWidth="1"/>
+    <col min="6147" max="6147" width="9.33203125" style="9" customWidth="1"/>
+    <col min="6148" max="6148" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6149" max="6149" width="8.6640625" style="9" customWidth="1"/>
+    <col min="6150" max="6150" width="7.88671875" style="9" customWidth="1"/>
     <col min="6151" max="6151" width="8" style="9" customWidth="1"/>
-    <col min="6152" max="6152" width="7.42578125" style="9" customWidth="1"/>
-    <col min="6153" max="6153" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6154" max="6154" width="7.85546875" style="9" customWidth="1"/>
-    <col min="6155" max="6401" width="9.140625" style="9"/>
-    <col min="6402" max="6402" width="20.140625" style="9" customWidth="1"/>
-    <col min="6403" max="6403" width="9.28515625" style="9" customWidth="1"/>
-    <col min="6404" max="6404" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6405" max="6405" width="8.7109375" style="9" customWidth="1"/>
-    <col min="6406" max="6406" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6152" max="6152" width="7.44140625" style="9" customWidth="1"/>
+    <col min="6153" max="6153" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6154" max="6154" width="7.88671875" style="9" customWidth="1"/>
+    <col min="6155" max="6401" width="9.109375" style="9"/>
+    <col min="6402" max="6402" width="20.109375" style="9" customWidth="1"/>
+    <col min="6403" max="6403" width="9.33203125" style="9" customWidth="1"/>
+    <col min="6404" max="6404" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6405" max="6405" width="8.6640625" style="9" customWidth="1"/>
+    <col min="6406" max="6406" width="7.88671875" style="9" customWidth="1"/>
     <col min="6407" max="6407" width="8" style="9" customWidth="1"/>
-    <col min="6408" max="6408" width="7.42578125" style="9" customWidth="1"/>
-    <col min="6409" max="6409" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6410" max="6410" width="7.85546875" style="9" customWidth="1"/>
-    <col min="6411" max="6657" width="9.140625" style="9"/>
-    <col min="6658" max="6658" width="20.140625" style="9" customWidth="1"/>
-    <col min="6659" max="6659" width="9.28515625" style="9" customWidth="1"/>
-    <col min="6660" max="6660" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6661" max="6661" width="8.7109375" style="9" customWidth="1"/>
-    <col min="6662" max="6662" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6408" max="6408" width="7.44140625" style="9" customWidth="1"/>
+    <col min="6409" max="6409" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6410" max="6410" width="7.88671875" style="9" customWidth="1"/>
+    <col min="6411" max="6657" width="9.109375" style="9"/>
+    <col min="6658" max="6658" width="20.109375" style="9" customWidth="1"/>
+    <col min="6659" max="6659" width="9.33203125" style="9" customWidth="1"/>
+    <col min="6660" max="6660" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6661" max="6661" width="8.6640625" style="9" customWidth="1"/>
+    <col min="6662" max="6662" width="7.88671875" style="9" customWidth="1"/>
     <col min="6663" max="6663" width="8" style="9" customWidth="1"/>
-    <col min="6664" max="6664" width="7.42578125" style="9" customWidth="1"/>
-    <col min="6665" max="6665" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6666" max="6666" width="7.85546875" style="9" customWidth="1"/>
-    <col min="6667" max="6913" width="9.140625" style="9"/>
-    <col min="6914" max="6914" width="20.140625" style="9" customWidth="1"/>
-    <col min="6915" max="6915" width="9.28515625" style="9" customWidth="1"/>
-    <col min="6916" max="6916" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6917" max="6917" width="8.7109375" style="9" customWidth="1"/>
-    <col min="6918" max="6918" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6664" max="6664" width="7.44140625" style="9" customWidth="1"/>
+    <col min="6665" max="6665" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6666" max="6666" width="7.88671875" style="9" customWidth="1"/>
+    <col min="6667" max="6913" width="9.109375" style="9"/>
+    <col min="6914" max="6914" width="20.109375" style="9" customWidth="1"/>
+    <col min="6915" max="6915" width="9.33203125" style="9" customWidth="1"/>
+    <col min="6916" max="6916" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6917" max="6917" width="8.6640625" style="9" customWidth="1"/>
+    <col min="6918" max="6918" width="7.88671875" style="9" customWidth="1"/>
     <col min="6919" max="6919" width="8" style="9" customWidth="1"/>
-    <col min="6920" max="6920" width="7.42578125" style="9" customWidth="1"/>
-    <col min="6921" max="6921" width="7.7109375" style="9" customWidth="1"/>
-    <col min="6922" max="6922" width="7.85546875" style="9" customWidth="1"/>
-    <col min="6923" max="7169" width="9.140625" style="9"/>
-    <col min="7170" max="7170" width="20.140625" style="9" customWidth="1"/>
-    <col min="7171" max="7171" width="9.28515625" style="9" customWidth="1"/>
-    <col min="7172" max="7172" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7173" max="7173" width="8.7109375" style="9" customWidth="1"/>
-    <col min="7174" max="7174" width="7.85546875" style="9" customWidth="1"/>
+    <col min="6920" max="6920" width="7.44140625" style="9" customWidth="1"/>
+    <col min="6921" max="6921" width="7.6640625" style="9" customWidth="1"/>
+    <col min="6922" max="6922" width="7.88671875" style="9" customWidth="1"/>
+    <col min="6923" max="7169" width="9.109375" style="9"/>
+    <col min="7170" max="7170" width="20.109375" style="9" customWidth="1"/>
+    <col min="7171" max="7171" width="9.33203125" style="9" customWidth="1"/>
+    <col min="7172" max="7172" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7173" max="7173" width="8.6640625" style="9" customWidth="1"/>
+    <col min="7174" max="7174" width="7.88671875" style="9" customWidth="1"/>
     <col min="7175" max="7175" width="8" style="9" customWidth="1"/>
-    <col min="7176" max="7176" width="7.42578125" style="9" customWidth="1"/>
-    <col min="7177" max="7177" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7178" max="7178" width="7.85546875" style="9" customWidth="1"/>
-    <col min="7179" max="7425" width="9.140625" style="9"/>
-    <col min="7426" max="7426" width="20.140625" style="9" customWidth="1"/>
-    <col min="7427" max="7427" width="9.28515625" style="9" customWidth="1"/>
-    <col min="7428" max="7428" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7429" max="7429" width="8.7109375" style="9" customWidth="1"/>
-    <col min="7430" max="7430" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7176" max="7176" width="7.44140625" style="9" customWidth="1"/>
+    <col min="7177" max="7177" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7178" max="7178" width="7.88671875" style="9" customWidth="1"/>
+    <col min="7179" max="7425" width="9.109375" style="9"/>
+    <col min="7426" max="7426" width="20.109375" style="9" customWidth="1"/>
+    <col min="7427" max="7427" width="9.33203125" style="9" customWidth="1"/>
+    <col min="7428" max="7428" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7429" max="7429" width="8.6640625" style="9" customWidth="1"/>
+    <col min="7430" max="7430" width="7.88671875" style="9" customWidth="1"/>
     <col min="7431" max="7431" width="8" style="9" customWidth="1"/>
-    <col min="7432" max="7432" width="7.42578125" style="9" customWidth="1"/>
-    <col min="7433" max="7433" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7434" max="7434" width="7.85546875" style="9" customWidth="1"/>
-    <col min="7435" max="7681" width="9.140625" style="9"/>
-    <col min="7682" max="7682" width="20.140625" style="9" customWidth="1"/>
-    <col min="7683" max="7683" width="9.28515625" style="9" customWidth="1"/>
-    <col min="7684" max="7684" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7685" max="7685" width="8.7109375" style="9" customWidth="1"/>
-    <col min="7686" max="7686" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7432" max="7432" width="7.44140625" style="9" customWidth="1"/>
+    <col min="7433" max="7433" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7434" max="7434" width="7.88671875" style="9" customWidth="1"/>
+    <col min="7435" max="7681" width="9.109375" style="9"/>
+    <col min="7682" max="7682" width="20.109375" style="9" customWidth="1"/>
+    <col min="7683" max="7683" width="9.33203125" style="9" customWidth="1"/>
+    <col min="7684" max="7684" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7685" max="7685" width="8.6640625" style="9" customWidth="1"/>
+    <col min="7686" max="7686" width="7.88671875" style="9" customWidth="1"/>
     <col min="7687" max="7687" width="8" style="9" customWidth="1"/>
-    <col min="7688" max="7688" width="7.42578125" style="9" customWidth="1"/>
-    <col min="7689" max="7689" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7690" max="7690" width="7.85546875" style="9" customWidth="1"/>
-    <col min="7691" max="7937" width="9.140625" style="9"/>
-    <col min="7938" max="7938" width="20.140625" style="9" customWidth="1"/>
-    <col min="7939" max="7939" width="9.28515625" style="9" customWidth="1"/>
-    <col min="7940" max="7940" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7941" max="7941" width="8.7109375" style="9" customWidth="1"/>
-    <col min="7942" max="7942" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7688" max="7688" width="7.44140625" style="9" customWidth="1"/>
+    <col min="7689" max="7689" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7690" max="7690" width="7.88671875" style="9" customWidth="1"/>
+    <col min="7691" max="7937" width="9.109375" style="9"/>
+    <col min="7938" max="7938" width="20.109375" style="9" customWidth="1"/>
+    <col min="7939" max="7939" width="9.33203125" style="9" customWidth="1"/>
+    <col min="7940" max="7940" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7941" max="7941" width="8.6640625" style="9" customWidth="1"/>
+    <col min="7942" max="7942" width="7.88671875" style="9" customWidth="1"/>
     <col min="7943" max="7943" width="8" style="9" customWidth="1"/>
-    <col min="7944" max="7944" width="7.42578125" style="9" customWidth="1"/>
-    <col min="7945" max="7945" width="7.7109375" style="9" customWidth="1"/>
-    <col min="7946" max="7946" width="7.85546875" style="9" customWidth="1"/>
-    <col min="7947" max="8193" width="9.140625" style="9"/>
-    <col min="8194" max="8194" width="20.140625" style="9" customWidth="1"/>
-    <col min="8195" max="8195" width="9.28515625" style="9" customWidth="1"/>
-    <col min="8196" max="8196" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8197" max="8197" width="8.7109375" style="9" customWidth="1"/>
-    <col min="8198" max="8198" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7944" max="7944" width="7.44140625" style="9" customWidth="1"/>
+    <col min="7945" max="7945" width="7.6640625" style="9" customWidth="1"/>
+    <col min="7946" max="7946" width="7.88671875" style="9" customWidth="1"/>
+    <col min="7947" max="8193" width="9.109375" style="9"/>
+    <col min="8194" max="8194" width="20.109375" style="9" customWidth="1"/>
+    <col min="8195" max="8195" width="9.33203125" style="9" customWidth="1"/>
+    <col min="8196" max="8196" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8197" max="8197" width="8.6640625" style="9" customWidth="1"/>
+    <col min="8198" max="8198" width="7.88671875" style="9" customWidth="1"/>
     <col min="8199" max="8199" width="8" style="9" customWidth="1"/>
-    <col min="8200" max="8200" width="7.42578125" style="9" customWidth="1"/>
-    <col min="8201" max="8201" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8202" max="8202" width="7.85546875" style="9" customWidth="1"/>
-    <col min="8203" max="8449" width="9.140625" style="9"/>
-    <col min="8450" max="8450" width="20.140625" style="9" customWidth="1"/>
-    <col min="8451" max="8451" width="9.28515625" style="9" customWidth="1"/>
-    <col min="8452" max="8452" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8453" max="8453" width="8.7109375" style="9" customWidth="1"/>
-    <col min="8454" max="8454" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8200" max="8200" width="7.44140625" style="9" customWidth="1"/>
+    <col min="8201" max="8201" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8202" max="8202" width="7.88671875" style="9" customWidth="1"/>
+    <col min="8203" max="8449" width="9.109375" style="9"/>
+    <col min="8450" max="8450" width="20.109375" style="9" customWidth="1"/>
+    <col min="8451" max="8451" width="9.33203125" style="9" customWidth="1"/>
+    <col min="8452" max="8452" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8453" max="8453" width="8.6640625" style="9" customWidth="1"/>
+    <col min="8454" max="8454" width="7.88671875" style="9" customWidth="1"/>
     <col min="8455" max="8455" width="8" style="9" customWidth="1"/>
-    <col min="8456" max="8456" width="7.42578125" style="9" customWidth="1"/>
-    <col min="8457" max="8457" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8458" max="8458" width="7.85546875" style="9" customWidth="1"/>
-    <col min="8459" max="8705" width="9.140625" style="9"/>
-    <col min="8706" max="8706" width="20.140625" style="9" customWidth="1"/>
-    <col min="8707" max="8707" width="9.28515625" style="9" customWidth="1"/>
-    <col min="8708" max="8708" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8709" max="8709" width="8.7109375" style="9" customWidth="1"/>
-    <col min="8710" max="8710" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8456" max="8456" width="7.44140625" style="9" customWidth="1"/>
+    <col min="8457" max="8457" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8458" max="8458" width="7.88671875" style="9" customWidth="1"/>
+    <col min="8459" max="8705" width="9.109375" style="9"/>
+    <col min="8706" max="8706" width="20.109375" style="9" customWidth="1"/>
+    <col min="8707" max="8707" width="9.33203125" style="9" customWidth="1"/>
+    <col min="8708" max="8708" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8709" max="8709" width="8.6640625" style="9" customWidth="1"/>
+    <col min="8710" max="8710" width="7.88671875" style="9" customWidth="1"/>
     <col min="8711" max="8711" width="8" style="9" customWidth="1"/>
-    <col min="8712" max="8712" width="7.42578125" style="9" customWidth="1"/>
-    <col min="8713" max="8713" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8714" max="8714" width="7.85546875" style="9" customWidth="1"/>
-    <col min="8715" max="8961" width="9.140625" style="9"/>
-    <col min="8962" max="8962" width="20.140625" style="9" customWidth="1"/>
-    <col min="8963" max="8963" width="9.28515625" style="9" customWidth="1"/>
-    <col min="8964" max="8964" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8965" max="8965" width="8.7109375" style="9" customWidth="1"/>
-    <col min="8966" max="8966" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8712" max="8712" width="7.44140625" style="9" customWidth="1"/>
+    <col min="8713" max="8713" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8714" max="8714" width="7.88671875" style="9" customWidth="1"/>
+    <col min="8715" max="8961" width="9.109375" style="9"/>
+    <col min="8962" max="8962" width="20.109375" style="9" customWidth="1"/>
+    <col min="8963" max="8963" width="9.33203125" style="9" customWidth="1"/>
+    <col min="8964" max="8964" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8965" max="8965" width="8.6640625" style="9" customWidth="1"/>
+    <col min="8966" max="8966" width="7.88671875" style="9" customWidth="1"/>
     <col min="8967" max="8967" width="8" style="9" customWidth="1"/>
-    <col min="8968" max="8968" width="7.42578125" style="9" customWidth="1"/>
-    <col min="8969" max="8969" width="7.7109375" style="9" customWidth="1"/>
-    <col min="8970" max="8970" width="7.85546875" style="9" customWidth="1"/>
-    <col min="8971" max="9217" width="9.140625" style="9"/>
-    <col min="9218" max="9218" width="20.140625" style="9" customWidth="1"/>
-    <col min="9219" max="9219" width="9.28515625" style="9" customWidth="1"/>
-    <col min="9220" max="9220" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9221" max="9221" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9222" max="9222" width="7.85546875" style="9" customWidth="1"/>
+    <col min="8968" max="8968" width="7.44140625" style="9" customWidth="1"/>
+    <col min="8969" max="8969" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8970" max="8970" width="7.88671875" style="9" customWidth="1"/>
+    <col min="8971" max="9217" width="9.109375" style="9"/>
+    <col min="9218" max="9218" width="20.109375" style="9" customWidth="1"/>
+    <col min="9219" max="9219" width="9.33203125" style="9" customWidth="1"/>
+    <col min="9220" max="9220" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9221" max="9221" width="8.6640625" style="9" customWidth="1"/>
+    <col min="9222" max="9222" width="7.88671875" style="9" customWidth="1"/>
     <col min="9223" max="9223" width="8" style="9" customWidth="1"/>
-    <col min="9224" max="9224" width="7.42578125" style="9" customWidth="1"/>
-    <col min="9225" max="9225" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9226" max="9226" width="7.85546875" style="9" customWidth="1"/>
-    <col min="9227" max="9473" width="9.140625" style="9"/>
-    <col min="9474" max="9474" width="20.140625" style="9" customWidth="1"/>
-    <col min="9475" max="9475" width="9.28515625" style="9" customWidth="1"/>
-    <col min="9476" max="9476" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9477" max="9477" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9478" max="9478" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9224" max="9224" width="7.44140625" style="9" customWidth="1"/>
+    <col min="9225" max="9225" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9226" max="9226" width="7.88671875" style="9" customWidth="1"/>
+    <col min="9227" max="9473" width="9.109375" style="9"/>
+    <col min="9474" max="9474" width="20.109375" style="9" customWidth="1"/>
+    <col min="9475" max="9475" width="9.33203125" style="9" customWidth="1"/>
+    <col min="9476" max="9476" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9477" max="9477" width="8.6640625" style="9" customWidth="1"/>
+    <col min="9478" max="9478" width="7.88671875" style="9" customWidth="1"/>
     <col min="9479" max="9479" width="8" style="9" customWidth="1"/>
-    <col min="9480" max="9480" width="7.42578125" style="9" customWidth="1"/>
-    <col min="9481" max="9481" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9482" max="9482" width="7.85546875" style="9" customWidth="1"/>
-    <col min="9483" max="9729" width="9.140625" style="9"/>
-    <col min="9730" max="9730" width="20.140625" style="9" customWidth="1"/>
-    <col min="9731" max="9731" width="9.28515625" style="9" customWidth="1"/>
-    <col min="9732" max="9732" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9733" max="9733" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9734" max="9734" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9480" max="9480" width="7.44140625" style="9" customWidth="1"/>
+    <col min="9481" max="9481" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9482" max="9482" width="7.88671875" style="9" customWidth="1"/>
+    <col min="9483" max="9729" width="9.109375" style="9"/>
+    <col min="9730" max="9730" width="20.109375" style="9" customWidth="1"/>
+    <col min="9731" max="9731" width="9.33203125" style="9" customWidth="1"/>
+    <col min="9732" max="9732" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9733" max="9733" width="8.6640625" style="9" customWidth="1"/>
+    <col min="9734" max="9734" width="7.88671875" style="9" customWidth="1"/>
     <col min="9735" max="9735" width="8" style="9" customWidth="1"/>
-    <col min="9736" max="9736" width="7.42578125" style="9" customWidth="1"/>
-    <col min="9737" max="9737" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9738" max="9738" width="7.85546875" style="9" customWidth="1"/>
-    <col min="9739" max="9985" width="9.140625" style="9"/>
-    <col min="9986" max="9986" width="20.140625" style="9" customWidth="1"/>
-    <col min="9987" max="9987" width="9.28515625" style="9" customWidth="1"/>
-    <col min="9988" max="9988" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9989" max="9989" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9990" max="9990" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9736" max="9736" width="7.44140625" style="9" customWidth="1"/>
+    <col min="9737" max="9737" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9738" max="9738" width="7.88671875" style="9" customWidth="1"/>
+    <col min="9739" max="9985" width="9.109375" style="9"/>
+    <col min="9986" max="9986" width="20.109375" style="9" customWidth="1"/>
+    <col min="9987" max="9987" width="9.33203125" style="9" customWidth="1"/>
+    <col min="9988" max="9988" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9989" max="9989" width="8.6640625" style="9" customWidth="1"/>
+    <col min="9990" max="9990" width="7.88671875" style="9" customWidth="1"/>
     <col min="9991" max="9991" width="8" style="9" customWidth="1"/>
-    <col min="9992" max="9992" width="7.42578125" style="9" customWidth="1"/>
-    <col min="9993" max="9993" width="7.7109375" style="9" customWidth="1"/>
-    <col min="9994" max="9994" width="7.85546875" style="9" customWidth="1"/>
-    <col min="9995" max="10241" width="9.140625" style="9"/>
-    <col min="10242" max="10242" width="20.140625" style="9" customWidth="1"/>
-    <col min="10243" max="10243" width="9.28515625" style="9" customWidth="1"/>
-    <col min="10244" max="10244" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10245" max="10245" width="8.7109375" style="9" customWidth="1"/>
-    <col min="10246" max="10246" width="7.85546875" style="9" customWidth="1"/>
+    <col min="9992" max="9992" width="7.44140625" style="9" customWidth="1"/>
+    <col min="9993" max="9993" width="7.6640625" style="9" customWidth="1"/>
+    <col min="9994" max="9994" width="7.88671875" style="9" customWidth="1"/>
+    <col min="9995" max="10241" width="9.109375" style="9"/>
+    <col min="10242" max="10242" width="20.109375" style="9" customWidth="1"/>
+    <col min="10243" max="10243" width="9.33203125" style="9" customWidth="1"/>
+    <col min="10244" max="10244" width="7.6640625" style="9" customWidth="1"/>
+    <col min="10245" max="10245" width="8.6640625" style="9" customWidth="1"/>
+    <col min="10246" max="10246" width="7.88671875" style="9" customWidth="1"/>
     <col min="10247" max="10247" width="8" style="9" customWidth="1"/>
-    <col min="10248" max="10248" width="7.42578125" style="9" customWidth="1"/>
-    <col min="10249" max="10249" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10250" max="10250" width="7.85546875" style="9" customWidth="1"/>
-    <col min="10251" max="10497" width="9.140625" style="9"/>
-    <col min="10498" max="10498" width="20.140625" style="9" customWidth="1"/>
-    <col min="10499" max="10499" width="9.28515625" style="9" customWidth="1"/>
-    <col min="10500" max="10500" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10501" max="10501" width="8.7109375" style="9" customWidth="1"/>
-    <col min="10502" max="10502" width="7.85546875" style="9" customWidth="1"/>
+    <col min="10248" max="10248" width="7.44140625" style="9" customWidth="1"/>
+    <col min="10249" max="10249" width="7.6640625" style="9" customWidth="1"/>
+    <col min="10250" max="10250" width="7.88671875" style="9" customWidth="1"/>
+    <col min="10251" max="10497" width="9.109375" style="9"/>
+    <col min="10498" max="10498" width="20.109375" style="9" customWidth="1"/>
+    <col min="10499" max="10499" width="9.33203125" style="9" customWidth="1"/>
+    <col min="10500" max="10500" width="7.6640625" style="9" customWidth="1"/>
+    <col min="10501" max="10501" width="8.6640625" style="9" customWidth="1"/>
+    <col min="10502" max="10502" width="7.88671875" style="9" customWidth="1"/>
     <col min="10503" max="10503" width="8" style="9" customWidth="1"/>
-    <col min="10504" max="10504" width="7.42578125" style="9" customWidth="1"/>
-    <col min="10505" max="10505" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10506" max="10506" width="7.85546875" style="9" customWidth="1"/>
-    <col min="10507" max="10753" width="9.140625" style="9"/>
-    <col min="10754" max="10754" width="20.140625" style="9" customWidth="1"/>
-    <col min="10755" max="10755" width="9.28515625" style="9" customWidth="1"/>
-    <col min="10756" max="10756" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10757" max="10757" width="8.7109375" style="9" customWidth="1"/>
-    <col min="10758" max="10758" width="7.85546875" style="9" customWidth="1"/>
+    <col min="10504" max="10504" width="7.44140625" style="9" customWidth="1"/>
+    <col min="10505" max="10505" width="7.6640625" style="9" customWidth="1"/>
+    <col min="10506" max="10506" width="7.88671875" style="9" customWidth="1"/>
+    <col min="10507" max="10753" width="9.109375" style="9"/>
+    <col min="10754" max="10754" width="20.109375" style="9" customWidth="1"/>
+    <col min="10755" max="10755" width="9.33203125" style="9" customWidth="1"/>
+    <col min="10756" max="10756" width="7.6640625" style="9" customWidth="1"/>
+    <col min="10757" max="10757" width="8.6640625" style="9" customWidth="1"/>
+    <col min="10758" max="10758" width="7.88671875" style="9" customWidth="1"/>
     <col min="10759" max="10759" width="8" style="9" customWidth="1"/>
-    <col min="10760" max="10760" width="7.42578125" style="9" customWidth="1"/>
-    <col min="10761" max="10761" width="7.7109375" style="9" customWidth="1"/>
-    <col min="10762" max="10762" width="7.85546875" style="9" customWidth="1"/>
-    <col min="10763" max="11009" width="9.140625" style="9"/>
-    <col min="11010" max="11010" width="20.140625" style="9" customWidth="1"/>
-    <col min="11011" max="11011" width="9.28515625" style="9" customWidth="1"/>
-    <col min="11012" max="11012" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11013" max="11013" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11014" max="11014" width="7.85546875" style="9" customWidth="1"/>
+    <col min="10760" max="10760" width="7.44140625" style="9" customWidth="1"/>
+    <col min="10761" max="10761" width="7.6640625" style="9" customWidth="1"/>
+    <col min="10762" max="10762" width="7.88671875" style="9" customWidth="1"/>
+    <col min="10763" max="11009" width="9.109375" style="9"/>
+    <col min="11010" max="11010" width="20.109375" style="9" customWidth="1"/>
+    <col min="11011" max="11011" width="9.33203125" style="9" customWidth="1"/>
+    <col min="11012" max="11012" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11013" max="11013" width="8.6640625" style="9" customWidth="1"/>
+    <col min="11014" max="11014" width="7.88671875" style="9" customWidth="1"/>
     <col min="11015" max="11015" width="8" style="9" customWidth="1"/>
-    <col min="11016" max="11016" width="7.42578125" style="9" customWidth="1"/>
-    <col min="11017" max="11017" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11018" max="11018" width="7.85546875" style="9" customWidth="1"/>
-    <col min="11019" max="11265" width="9.140625" style="9"/>
-    <col min="11266" max="11266" width="20.140625" style="9" customWidth="1"/>
-    <col min="11267" max="11267" width="9.28515625" style="9" customWidth="1"/>
-    <col min="11268" max="11268" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11269" max="11269" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11270" max="11270" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11016" max="11016" width="7.44140625" style="9" customWidth="1"/>
+    <col min="11017" max="11017" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11018" max="11018" width="7.88671875" style="9" customWidth="1"/>
+    <col min="11019" max="11265" width="9.109375" style="9"/>
+    <col min="11266" max="11266" width="20.109375" style="9" customWidth="1"/>
+    <col min="11267" max="11267" width="9.33203125" style="9" customWidth="1"/>
+    <col min="11268" max="11268" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11269" max="11269" width="8.6640625" style="9" customWidth="1"/>
+    <col min="11270" max="11270" width="7.88671875" style="9" customWidth="1"/>
     <col min="11271" max="11271" width="8" style="9" customWidth="1"/>
-    <col min="11272" max="11272" width="7.42578125" style="9" customWidth="1"/>
-    <col min="11273" max="11273" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11274" max="11274" width="7.85546875" style="9" customWidth="1"/>
-    <col min="11275" max="11521" width="9.140625" style="9"/>
-    <col min="11522" max="11522" width="20.140625" style="9" customWidth="1"/>
-    <col min="11523" max="11523" width="9.28515625" style="9" customWidth="1"/>
-    <col min="11524" max="11524" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11525" max="11525" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11526" max="11526" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11272" max="11272" width="7.44140625" style="9" customWidth="1"/>
+    <col min="11273" max="11273" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11274" max="11274" width="7.88671875" style="9" customWidth="1"/>
+    <col min="11275" max="11521" width="9.109375" style="9"/>
+    <col min="11522" max="11522" width="20.109375" style="9" customWidth="1"/>
+    <col min="11523" max="11523" width="9.33203125" style="9" customWidth="1"/>
+    <col min="11524" max="11524" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11525" max="11525" width="8.6640625" style="9" customWidth="1"/>
+    <col min="11526" max="11526" width="7.88671875" style="9" customWidth="1"/>
     <col min="11527" max="11527" width="8" style="9" customWidth="1"/>
-    <col min="11528" max="11528" width="7.42578125" style="9" customWidth="1"/>
-    <col min="11529" max="11529" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11530" max="11530" width="7.85546875" style="9" customWidth="1"/>
-    <col min="11531" max="11777" width="9.140625" style="9"/>
-    <col min="11778" max="11778" width="20.140625" style="9" customWidth="1"/>
-    <col min="11779" max="11779" width="9.28515625" style="9" customWidth="1"/>
-    <col min="11780" max="11780" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11781" max="11781" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11782" max="11782" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11528" max="11528" width="7.44140625" style="9" customWidth="1"/>
+    <col min="11529" max="11529" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11530" max="11530" width="7.88671875" style="9" customWidth="1"/>
+    <col min="11531" max="11777" width="9.109375" style="9"/>
+    <col min="11778" max="11778" width="20.109375" style="9" customWidth="1"/>
+    <col min="11779" max="11779" width="9.33203125" style="9" customWidth="1"/>
+    <col min="11780" max="11780" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11781" max="11781" width="8.6640625" style="9" customWidth="1"/>
+    <col min="11782" max="11782" width="7.88671875" style="9" customWidth="1"/>
     <col min="11783" max="11783" width="8" style="9" customWidth="1"/>
-    <col min="11784" max="11784" width="7.42578125" style="9" customWidth="1"/>
-    <col min="11785" max="11785" width="7.7109375" style="9" customWidth="1"/>
-    <col min="11786" max="11786" width="7.85546875" style="9" customWidth="1"/>
-    <col min="11787" max="12033" width="9.140625" style="9"/>
-    <col min="12034" max="12034" width="20.140625" style="9" customWidth="1"/>
-    <col min="12035" max="12035" width="9.28515625" style="9" customWidth="1"/>
-    <col min="12036" max="12036" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12037" max="12037" width="8.7109375" style="9" customWidth="1"/>
-    <col min="12038" max="12038" width="7.85546875" style="9" customWidth="1"/>
+    <col min="11784" max="11784" width="7.44140625" style="9" customWidth="1"/>
+    <col min="11785" max="11785" width="7.6640625" style="9" customWidth="1"/>
+    <col min="11786" max="11786" width="7.88671875" style="9" customWidth="1"/>
+    <col min="11787" max="12033" width="9.109375" style="9"/>
+    <col min="12034" max="12034" width="20.109375" style="9" customWidth="1"/>
+    <col min="12035" max="12035" width="9.33203125" style="9" customWidth="1"/>
+    <col min="12036" max="12036" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12037" max="12037" width="8.6640625" style="9" customWidth="1"/>
+    <col min="12038" max="12038" width="7.88671875" style="9" customWidth="1"/>
     <col min="12039" max="12039" width="8" style="9" customWidth="1"/>
-    <col min="12040" max="12040" width="7.42578125" style="9" customWidth="1"/>
-    <col min="12041" max="12041" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12042" max="12042" width="7.85546875" style="9" customWidth="1"/>
-    <col min="12043" max="12289" width="9.140625" style="9"/>
-    <col min="12290" max="12290" width="20.140625" style="9" customWidth="1"/>
-    <col min="12291" max="12291" width="9.28515625" style="9" customWidth="1"/>
-    <col min="12292" max="12292" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12293" max="12293" width="8.7109375" style="9" customWidth="1"/>
-    <col min="12294" max="12294" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12040" max="12040" width="7.44140625" style="9" customWidth="1"/>
+    <col min="12041" max="12041" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12042" max="12042" width="7.88671875" style="9" customWidth="1"/>
+    <col min="12043" max="12289" width="9.109375" style="9"/>
+    <col min="12290" max="12290" width="20.109375" style="9" customWidth="1"/>
+    <col min="12291" max="12291" width="9.33203125" style="9" customWidth="1"/>
+    <col min="12292" max="12292" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12293" max="12293" width="8.6640625" style="9" customWidth="1"/>
+    <col min="12294" max="12294" width="7.88671875" style="9" customWidth="1"/>
     <col min="12295" max="12295" width="8" style="9" customWidth="1"/>
-    <col min="12296" max="12296" width="7.42578125" style="9" customWidth="1"/>
-    <col min="12297" max="12297" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12298" max="12298" width="7.85546875" style="9" customWidth="1"/>
-    <col min="12299" max="12545" width="9.140625" style="9"/>
-    <col min="12546" max="12546" width="20.140625" style="9" customWidth="1"/>
-    <col min="12547" max="12547" width="9.28515625" style="9" customWidth="1"/>
-    <col min="12548" max="12548" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12549" max="12549" width="8.7109375" style="9" customWidth="1"/>
-    <col min="12550" max="12550" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12296" max="12296" width="7.44140625" style="9" customWidth="1"/>
+    <col min="12297" max="12297" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12298" max="12298" width="7.88671875" style="9" customWidth="1"/>
+    <col min="12299" max="12545" width="9.109375" style="9"/>
+    <col min="12546" max="12546" width="20.109375" style="9" customWidth="1"/>
+    <col min="12547" max="12547" width="9.33203125" style="9" customWidth="1"/>
+    <col min="12548" max="12548" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12549" max="12549" width="8.6640625" style="9" customWidth="1"/>
+    <col min="12550" max="12550" width="7.88671875" style="9" customWidth="1"/>
     <col min="12551" max="12551" width="8" style="9" customWidth="1"/>
-    <col min="12552" max="12552" width="7.42578125" style="9" customWidth="1"/>
-    <col min="12553" max="12553" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12554" max="12554" width="7.85546875" style="9" customWidth="1"/>
-    <col min="12555" max="12801" width="9.140625" style="9"/>
-    <col min="12802" max="12802" width="20.140625" style="9" customWidth="1"/>
-    <col min="12803" max="12803" width="9.28515625" style="9" customWidth="1"/>
-    <col min="12804" max="12804" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12805" max="12805" width="8.7109375" style="9" customWidth="1"/>
-    <col min="12806" max="12806" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12552" max="12552" width="7.44140625" style="9" customWidth="1"/>
+    <col min="12553" max="12553" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12554" max="12554" width="7.88671875" style="9" customWidth="1"/>
+    <col min="12555" max="12801" width="9.109375" style="9"/>
+    <col min="12802" max="12802" width="20.109375" style="9" customWidth="1"/>
+    <col min="12803" max="12803" width="9.33203125" style="9" customWidth="1"/>
+    <col min="12804" max="12804" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12805" max="12805" width="8.6640625" style="9" customWidth="1"/>
+    <col min="12806" max="12806" width="7.88671875" style="9" customWidth="1"/>
     <col min="12807" max="12807" width="8" style="9" customWidth="1"/>
-    <col min="12808" max="12808" width="7.42578125" style="9" customWidth="1"/>
-    <col min="12809" max="12809" width="7.7109375" style="9" customWidth="1"/>
-    <col min="12810" max="12810" width="7.85546875" style="9" customWidth="1"/>
-    <col min="12811" max="13057" width="9.140625" style="9"/>
-    <col min="13058" max="13058" width="20.140625" style="9" customWidth="1"/>
-    <col min="13059" max="13059" width="9.28515625" style="9" customWidth="1"/>
-    <col min="13060" max="13060" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13061" max="13061" width="8.7109375" style="9" customWidth="1"/>
-    <col min="13062" max="13062" width="7.85546875" style="9" customWidth="1"/>
+    <col min="12808" max="12808" width="7.44140625" style="9" customWidth="1"/>
+    <col min="12809" max="12809" width="7.6640625" style="9" customWidth="1"/>
+    <col min="12810" max="12810" width="7.88671875" style="9" customWidth="1"/>
+    <col min="12811" max="13057" width="9.109375" style="9"/>
+    <col min="13058" max="13058" width="20.109375" style="9" customWidth="1"/>
+    <col min="13059" max="13059" width="9.33203125" style="9" customWidth="1"/>
+    <col min="13060" max="13060" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13061" max="13061" width="8.6640625" style="9" customWidth="1"/>
+    <col min="13062" max="13062" width="7.88671875" style="9" customWidth="1"/>
     <col min="13063" max="13063" width="8" style="9" customWidth="1"/>
-    <col min="13064" max="13064" width="7.42578125" style="9" customWidth="1"/>
-    <col min="13065" max="13065" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13066" max="13066" width="7.85546875" style="9" customWidth="1"/>
-    <col min="13067" max="13313" width="9.140625" style="9"/>
-    <col min="13314" max="13314" width="20.140625" style="9" customWidth="1"/>
-    <col min="13315" max="13315" width="9.28515625" style="9" customWidth="1"/>
-    <col min="13316" max="13316" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13317" max="13317" width="8.7109375" style="9" customWidth="1"/>
-    <col min="13318" max="13318" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13064" max="13064" width="7.44140625" style="9" customWidth="1"/>
+    <col min="13065" max="13065" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13066" max="13066" width="7.88671875" style="9" customWidth="1"/>
+    <col min="13067" max="13313" width="9.109375" style="9"/>
+    <col min="13314" max="13314" width="20.109375" style="9" customWidth="1"/>
+    <col min="13315" max="13315" width="9.33203125" style="9" customWidth="1"/>
+    <col min="13316" max="13316" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13317" max="13317" width="8.6640625" style="9" customWidth="1"/>
+    <col min="13318" max="13318" width="7.88671875" style="9" customWidth="1"/>
     <col min="13319" max="13319" width="8" style="9" customWidth="1"/>
-    <col min="13320" max="13320" width="7.42578125" style="9" customWidth="1"/>
-    <col min="13321" max="13321" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13322" max="13322" width="7.85546875" style="9" customWidth="1"/>
-    <col min="13323" max="13569" width="9.140625" style="9"/>
-    <col min="13570" max="13570" width="20.140625" style="9" customWidth="1"/>
-    <col min="13571" max="13571" width="9.28515625" style="9" customWidth="1"/>
-    <col min="13572" max="13572" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13573" max="13573" width="8.7109375" style="9" customWidth="1"/>
-    <col min="13574" max="13574" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13320" max="13320" width="7.44140625" style="9" customWidth="1"/>
+    <col min="13321" max="13321" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13322" max="13322" width="7.88671875" style="9" customWidth="1"/>
+    <col min="13323" max="13569" width="9.109375" style="9"/>
+    <col min="13570" max="13570" width="20.109375" style="9" customWidth="1"/>
+    <col min="13571" max="13571" width="9.33203125" style="9" customWidth="1"/>
+    <col min="13572" max="13572" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13573" max="13573" width="8.6640625" style="9" customWidth="1"/>
+    <col min="13574" max="13574" width="7.88671875" style="9" customWidth="1"/>
     <col min="13575" max="13575" width="8" style="9" customWidth="1"/>
-    <col min="13576" max="13576" width="7.42578125" style="9" customWidth="1"/>
-    <col min="13577" max="13577" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13578" max="13578" width="7.85546875" style="9" customWidth="1"/>
-    <col min="13579" max="13825" width="9.140625" style="9"/>
-    <col min="13826" max="13826" width="20.140625" style="9" customWidth="1"/>
-    <col min="13827" max="13827" width="9.28515625" style="9" customWidth="1"/>
-    <col min="13828" max="13828" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13829" max="13829" width="8.7109375" style="9" customWidth="1"/>
-    <col min="13830" max="13830" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13576" max="13576" width="7.44140625" style="9" customWidth="1"/>
+    <col min="13577" max="13577" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13578" max="13578" width="7.88671875" style="9" customWidth="1"/>
+    <col min="13579" max="13825" width="9.109375" style="9"/>
+    <col min="13826" max="13826" width="20.109375" style="9" customWidth="1"/>
+    <col min="13827" max="13827" width="9.33203125" style="9" customWidth="1"/>
+    <col min="13828" max="13828" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13829" max="13829" width="8.6640625" style="9" customWidth="1"/>
+    <col min="13830" max="13830" width="7.88671875" style="9" customWidth="1"/>
     <col min="13831" max="13831" width="8" style="9" customWidth="1"/>
-    <col min="13832" max="13832" width="7.42578125" style="9" customWidth="1"/>
-    <col min="13833" max="13833" width="7.7109375" style="9" customWidth="1"/>
-    <col min="13834" max="13834" width="7.85546875" style="9" customWidth="1"/>
-    <col min="13835" max="14081" width="9.140625" style="9"/>
-    <col min="14082" max="14082" width="20.140625" style="9" customWidth="1"/>
-    <col min="14083" max="14083" width="9.28515625" style="9" customWidth="1"/>
-    <col min="14084" max="14084" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14085" max="14085" width="8.7109375" style="9" customWidth="1"/>
-    <col min="14086" max="14086" width="7.85546875" style="9" customWidth="1"/>
+    <col min="13832" max="13832" width="7.44140625" style="9" customWidth="1"/>
+    <col min="13833" max="13833" width="7.6640625" style="9" customWidth="1"/>
+    <col min="13834" max="13834" width="7.88671875" style="9" customWidth="1"/>
+    <col min="13835" max="14081" width="9.109375" style="9"/>
+    <col min="14082" max="14082" width="20.109375" style="9" customWidth="1"/>
+    <col min="14083" max="14083" width="9.33203125" style="9" customWidth="1"/>
+    <col min="14084" max="14084" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14085" max="14085" width="8.6640625" style="9" customWidth="1"/>
+    <col min="14086" max="14086" width="7.88671875" style="9" customWidth="1"/>
     <col min="14087" max="14087" width="8" style="9" customWidth="1"/>
-    <col min="14088" max="14088" width="7.42578125" style="9" customWidth="1"/>
-    <col min="14089" max="14089" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14090" max="14090" width="7.85546875" style="9" customWidth="1"/>
-    <col min="14091" max="14337" width="9.140625" style="9"/>
-    <col min="14338" max="14338" width="20.140625" style="9" customWidth="1"/>
-    <col min="14339" max="14339" width="9.28515625" style="9" customWidth="1"/>
-    <col min="14340" max="14340" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14341" max="14341" width="8.7109375" style="9" customWidth="1"/>
-    <col min="14342" max="14342" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14088" max="14088" width="7.44140625" style="9" customWidth="1"/>
+    <col min="14089" max="14089" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14090" max="14090" width="7.88671875" style="9" customWidth="1"/>
+    <col min="14091" max="14337" width="9.109375" style="9"/>
+    <col min="14338" max="14338" width="20.109375" style="9" customWidth="1"/>
+    <col min="14339" max="14339" width="9.33203125" style="9" customWidth="1"/>
+    <col min="14340" max="14340" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14341" max="14341" width="8.6640625" style="9" customWidth="1"/>
+    <col min="14342" max="14342" width="7.88671875" style="9" customWidth="1"/>
     <col min="14343" max="14343" width="8" style="9" customWidth="1"/>
-    <col min="14344" max="14344" width="7.42578125" style="9" customWidth="1"/>
-    <col min="14345" max="14345" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14346" max="14346" width="7.85546875" style="9" customWidth="1"/>
-    <col min="14347" max="14593" width="9.140625" style="9"/>
-    <col min="14594" max="14594" width="20.140625" style="9" customWidth="1"/>
-    <col min="14595" max="14595" width="9.28515625" style="9" customWidth="1"/>
-    <col min="14596" max="14596" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14597" max="14597" width="8.7109375" style="9" customWidth="1"/>
-    <col min="14598" max="14598" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14344" max="14344" width="7.44140625" style="9" customWidth="1"/>
+    <col min="14345" max="14345" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14346" max="14346" width="7.88671875" style="9" customWidth="1"/>
+    <col min="14347" max="14593" width="9.109375" style="9"/>
+    <col min="14594" max="14594" width="20.109375" style="9" customWidth="1"/>
+    <col min="14595" max="14595" width="9.33203125" style="9" customWidth="1"/>
+    <col min="14596" max="14596" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14597" max="14597" width="8.6640625" style="9" customWidth="1"/>
+    <col min="14598" max="14598" width="7.88671875" style="9" customWidth="1"/>
     <col min="14599" max="14599" width="8" style="9" customWidth="1"/>
-    <col min="14600" max="14600" width="7.42578125" style="9" customWidth="1"/>
-    <col min="14601" max="14601" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14602" max="14602" width="7.85546875" style="9" customWidth="1"/>
-    <col min="14603" max="14849" width="9.140625" style="9"/>
-    <col min="14850" max="14850" width="20.140625" style="9" customWidth="1"/>
-    <col min="14851" max="14851" width="9.28515625" style="9" customWidth="1"/>
-    <col min="14852" max="14852" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14853" max="14853" width="8.7109375" style="9" customWidth="1"/>
-    <col min="14854" max="14854" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14600" max="14600" width="7.44140625" style="9" customWidth="1"/>
+    <col min="14601" max="14601" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14602" max="14602" width="7.88671875" style="9" customWidth="1"/>
+    <col min="14603" max="14849" width="9.109375" style="9"/>
+    <col min="14850" max="14850" width="20.109375" style="9" customWidth="1"/>
+    <col min="14851" max="14851" width="9.33203125" style="9" customWidth="1"/>
+    <col min="14852" max="14852" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14853" max="14853" width="8.6640625" style="9" customWidth="1"/>
+    <col min="14854" max="14854" width="7.88671875" style="9" customWidth="1"/>
     <col min="14855" max="14855" width="8" style="9" customWidth="1"/>
-    <col min="14856" max="14856" width="7.42578125" style="9" customWidth="1"/>
-    <col min="14857" max="14857" width="7.7109375" style="9" customWidth="1"/>
-    <col min="14858" max="14858" width="7.85546875" style="9" customWidth="1"/>
-    <col min="14859" max="15105" width="9.140625" style="9"/>
-    <col min="15106" max="15106" width="20.140625" style="9" customWidth="1"/>
-    <col min="15107" max="15107" width="9.28515625" style="9" customWidth="1"/>
-    <col min="15108" max="15108" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15109" max="15109" width="8.7109375" style="9" customWidth="1"/>
-    <col min="15110" max="15110" width="7.85546875" style="9" customWidth="1"/>
+    <col min="14856" max="14856" width="7.44140625" style="9" customWidth="1"/>
+    <col min="14857" max="14857" width="7.6640625" style="9" customWidth="1"/>
+    <col min="14858" max="14858" width="7.88671875" style="9" customWidth="1"/>
+    <col min="14859" max="15105" width="9.109375" style="9"/>
+    <col min="15106" max="15106" width="20.109375" style="9" customWidth="1"/>
+    <col min="15107" max="15107" width="9.33203125" style="9" customWidth="1"/>
+    <col min="15108" max="15108" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15109" max="15109" width="8.6640625" style="9" customWidth="1"/>
+    <col min="15110" max="15110" width="7.88671875" style="9" customWidth="1"/>
     <col min="15111" max="15111" width="8" style="9" customWidth="1"/>
-    <col min="15112" max="15112" width="7.42578125" style="9" customWidth="1"/>
-    <col min="15113" max="15113" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15114" max="15114" width="7.85546875" style="9" customWidth="1"/>
-    <col min="15115" max="15361" width="9.140625" style="9"/>
-    <col min="15362" max="15362" width="20.140625" style="9" customWidth="1"/>
-    <col min="15363" max="15363" width="9.28515625" style="9" customWidth="1"/>
-    <col min="15364" max="15364" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15365" max="15365" width="8.7109375" style="9" customWidth="1"/>
-    <col min="15366" max="15366" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15112" max="15112" width="7.44140625" style="9" customWidth="1"/>
+    <col min="15113" max="15113" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15114" max="15114" width="7.88671875" style="9" customWidth="1"/>
+    <col min="15115" max="15361" width="9.109375" style="9"/>
+    <col min="15362" max="15362" width="20.109375" style="9" customWidth="1"/>
+    <col min="15363" max="15363" width="9.33203125" style="9" customWidth="1"/>
+    <col min="15364" max="15364" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15365" max="15365" width="8.6640625" style="9" customWidth="1"/>
+    <col min="15366" max="15366" width="7.88671875" style="9" customWidth="1"/>
     <col min="15367" max="15367" width="8" style="9" customWidth="1"/>
-    <col min="15368" max="15368" width="7.42578125" style="9" customWidth="1"/>
-    <col min="15369" max="15369" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15370" max="15370" width="7.85546875" style="9" customWidth="1"/>
-    <col min="15371" max="15617" width="9.140625" style="9"/>
-    <col min="15618" max="15618" width="20.140625" style="9" customWidth="1"/>
-    <col min="15619" max="15619" width="9.28515625" style="9" customWidth="1"/>
-    <col min="15620" max="15620" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15621" max="15621" width="8.7109375" style="9" customWidth="1"/>
-    <col min="15622" max="15622" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15368" max="15368" width="7.44140625" style="9" customWidth="1"/>
+    <col min="15369" max="15369" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15370" max="15370" width="7.88671875" style="9" customWidth="1"/>
+    <col min="15371" max="15617" width="9.109375" style="9"/>
+    <col min="15618" max="15618" width="20.109375" style="9" customWidth="1"/>
+    <col min="15619" max="15619" width="9.33203125" style="9" customWidth="1"/>
+    <col min="15620" max="15620" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15621" max="15621" width="8.6640625" style="9" customWidth="1"/>
+    <col min="15622" max="15622" width="7.88671875" style="9" customWidth="1"/>
     <col min="15623" max="15623" width="8" style="9" customWidth="1"/>
-    <col min="15624" max="15624" width="7.42578125" style="9" customWidth="1"/>
-    <col min="15625" max="15625" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15626" max="15626" width="7.85546875" style="9" customWidth="1"/>
-    <col min="15627" max="15873" width="9.140625" style="9"/>
-    <col min="15874" max="15874" width="20.140625" style="9" customWidth="1"/>
-    <col min="15875" max="15875" width="9.28515625" style="9" customWidth="1"/>
-    <col min="15876" max="15876" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15877" max="15877" width="8.7109375" style="9" customWidth="1"/>
-    <col min="15878" max="15878" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15624" max="15624" width="7.44140625" style="9" customWidth="1"/>
+    <col min="15625" max="15625" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15626" max="15626" width="7.88671875" style="9" customWidth="1"/>
+    <col min="15627" max="15873" width="9.109375" style="9"/>
+    <col min="15874" max="15874" width="20.109375" style="9" customWidth="1"/>
+    <col min="15875" max="15875" width="9.33203125" style="9" customWidth="1"/>
+    <col min="15876" max="15876" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15877" max="15877" width="8.6640625" style="9" customWidth="1"/>
+    <col min="15878" max="15878" width="7.88671875" style="9" customWidth="1"/>
     <col min="15879" max="15879" width="8" style="9" customWidth="1"/>
-    <col min="15880" max="15880" width="7.42578125" style="9" customWidth="1"/>
-    <col min="15881" max="15881" width="7.7109375" style="9" customWidth="1"/>
-    <col min="15882" max="15882" width="7.85546875" style="9" customWidth="1"/>
-    <col min="15883" max="16129" width="9.140625" style="9"/>
-    <col min="16130" max="16130" width="20.140625" style="9" customWidth="1"/>
-    <col min="16131" max="16131" width="9.28515625" style="9" customWidth="1"/>
-    <col min="16132" max="16132" width="7.7109375" style="9" customWidth="1"/>
-    <col min="16133" max="16133" width="8.7109375" style="9" customWidth="1"/>
-    <col min="16134" max="16134" width="7.85546875" style="9" customWidth="1"/>
+    <col min="15880" max="15880" width="7.44140625" style="9" customWidth="1"/>
+    <col min="15881" max="15881" width="7.6640625" style="9" customWidth="1"/>
+    <col min="15882" max="15882" width="7.88671875" style="9" customWidth="1"/>
+    <col min="15883" max="16129" width="9.109375" style="9"/>
+    <col min="16130" max="16130" width="20.109375" style="9" customWidth="1"/>
+    <col min="16131" max="16131" width="9.33203125" style="9" customWidth="1"/>
+    <col min="16132" max="16132" width="7.6640625" style="9" customWidth="1"/>
+    <col min="16133" max="16133" width="8.6640625" style="9" customWidth="1"/>
+    <col min="16134" max="16134" width="7.88671875" style="9" customWidth="1"/>
     <col min="16135" max="16135" width="8" style="9" customWidth="1"/>
-    <col min="16136" max="16136" width="7.42578125" style="9" customWidth="1"/>
-    <col min="16137" max="16137" width="7.7109375" style="9" customWidth="1"/>
-    <col min="16138" max="16138" width="7.85546875" style="9" customWidth="1"/>
-    <col min="16139" max="16384" width="9.140625" style="9"/>
+    <col min="16136" max="16136" width="7.44140625" style="9" customWidth="1"/>
+    <col min="16137" max="16137" width="7.6640625" style="9" customWidth="1"/>
+    <col min="16138" max="16138" width="7.88671875" style="9" customWidth="1"/>
+    <col min="16139" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>44</v>
       </c>
@@ -22947,7 +22956,7 @@
       </c>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -22983,7 +22992,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>2.5</v>
       </c>
@@ -23019,7 +23028,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>2.2000000000000002</v>
       </c>
@@ -23055,7 +23064,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>2</v>
       </c>
@@ -23091,7 +23100,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>1.8</v>
       </c>
@@ -23127,7 +23136,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>1.6</v>
       </c>
@@ -23163,7 +23172,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>1.4</v>
       </c>
@@ -23199,7 +23208,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>1.2</v>
       </c>
@@ -23235,7 +23244,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>1</v>
       </c>
@@ -23271,7 +23280,7 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>0.9</v>
       </c>
@@ -23307,7 +23316,7 @@
         <v>4.3949999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>0.8</v>
       </c>
@@ -23343,7 +23352,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>0.7</v>
       </c>
@@ -23379,7 +23388,7 @@
         <v>4.1050000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>0.6</v>
       </c>
@@ -23415,7 +23424,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>0.5</v>
       </c>
@@ -23451,7 +23460,7 @@
         <v>3.8149999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>0.4</v>
       </c>
@@ -23487,7 +23496,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>0.3</v>
       </c>
@@ -23523,7 +23532,7 @@
         <v>3.5249999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>0.2</v>
       </c>
@@ -23559,7 +23568,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>0.1</v>
       </c>
@@ -23595,7 +23604,7 @@
         <v>3.2349999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>0</v>
       </c>
@@ -23631,7 +23640,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>-0.1</v>
       </c>
@@ -23667,7 +23676,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>-0.2</v>
       </c>
@@ -23703,7 +23712,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>-0.3</v>
       </c>
@@ -23739,7 +23748,7 @@
         <v>2.6749999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>-0.4</v>
       </c>
@@ -23775,7 +23784,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>-0.5</v>
       </c>
@@ -23811,7 +23820,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>-0.6</v>
       </c>
@@ -23847,7 +23856,7 @@
         <v>2.2749999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>-0.7</v>
       </c>
@@ -23883,7 +23892,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>-0.8</v>
       </c>
@@ -23919,7 +23928,7 @@
         <v>2.0350000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>-0.9</v>
       </c>
@@ -23955,7 +23964,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>-1</v>
       </c>
@@ -23991,7 +24000,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>-1.2</v>
       </c>
@@ -24027,7 +24036,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>-1.4</v>
       </c>
@@ -24063,7 +24072,7 @@
         <v>1.4650000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>-1.6</v>
       </c>
@@ -24099,7 +24108,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>-1.8</v>
       </c>
@@ -24135,7 +24144,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>-2</v>
       </c>
@@ -24171,7 +24180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>-2.2000000000000002</v>
       </c>
@@ -24207,7 +24216,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>-2.5</v>
       </c>
@@ -24243,7 +24252,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
         <v>-3</v>
       </c>
@@ -24279,7 +24288,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
     </row>
   </sheetData>
@@ -24294,975 +24303,978 @@
   <dimension ref="A1:AW72"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+      <selection activeCell="D3" sqref="D3:D4"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="77" workbookViewId="1">
+      <selection activeCell="X5" sqref="X5:X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="37"/>
-    <col min="3" max="3" width="14.42578125" style="37" customWidth="1"/>
-    <col min="4" max="26" width="9.140625" style="37"/>
-    <col min="27" max="29" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="34" max="41" width="9.140625" style="37"/>
-    <col min="42" max="42" width="8.28515625" style="37" customWidth="1"/>
-    <col min="43" max="43" width="2.7109375" style="37" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="37"/>
+    <col min="3" max="3" width="14.44140625" style="37" customWidth="1"/>
+    <col min="4" max="26" width="9.109375" style="37"/>
+    <col min="27" max="29" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="34" max="41" width="9.109375" style="37"/>
+    <col min="42" max="42" width="8.33203125" style="37" customWidth="1"/>
+    <col min="43" max="43" width="2.6640625" style="37" customWidth="1"/>
     <col min="44" max="44" width="9" style="37" customWidth="1"/>
-    <col min="45" max="45" width="14.140625" style="37" customWidth="1"/>
-    <col min="46" max="46" width="8.85546875" style="37" customWidth="1"/>
-    <col min="47" max="47" width="2.28515625" style="37" customWidth="1"/>
-    <col min="48" max="48" width="10.42578125" style="37" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="37" customWidth="1"/>
-    <col min="50" max="258" width="9.140625" style="37"/>
-    <col min="259" max="259" width="14.42578125" style="37" customWidth="1"/>
-    <col min="260" max="282" width="9.140625" style="37"/>
-    <col min="283" max="285" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="287" max="289" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="290" max="297" width="9.140625" style="37"/>
-    <col min="298" max="298" width="8.28515625" style="37" customWidth="1"/>
-    <col min="299" max="299" width="2.7109375" style="37" customWidth="1"/>
+    <col min="45" max="45" width="14.109375" style="37" customWidth="1"/>
+    <col min="46" max="46" width="8.88671875" style="37" customWidth="1"/>
+    <col min="47" max="47" width="2.33203125" style="37" customWidth="1"/>
+    <col min="48" max="48" width="10.44140625" style="37" customWidth="1"/>
+    <col min="49" max="49" width="14.109375" style="37" customWidth="1"/>
+    <col min="50" max="258" width="9.109375" style="37"/>
+    <col min="259" max="259" width="14.44140625" style="37" customWidth="1"/>
+    <col min="260" max="282" width="9.109375" style="37"/>
+    <col min="283" max="285" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="287" max="289" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="290" max="297" width="9.109375" style="37"/>
+    <col min="298" max="298" width="8.33203125" style="37" customWidth="1"/>
+    <col min="299" max="299" width="2.6640625" style="37" customWidth="1"/>
     <col min="300" max="300" width="9" style="37" customWidth="1"/>
-    <col min="301" max="301" width="14.140625" style="37" customWidth="1"/>
-    <col min="302" max="302" width="8.85546875" style="37" customWidth="1"/>
-    <col min="303" max="303" width="2.28515625" style="37" customWidth="1"/>
-    <col min="304" max="304" width="10.42578125" style="37" customWidth="1"/>
-    <col min="305" max="305" width="14.140625" style="37" customWidth="1"/>
-    <col min="306" max="514" width="9.140625" style="37"/>
-    <col min="515" max="515" width="14.42578125" style="37" customWidth="1"/>
-    <col min="516" max="538" width="9.140625" style="37"/>
-    <col min="539" max="541" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="542" max="542" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="543" max="545" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="546" max="553" width="9.140625" style="37"/>
-    <col min="554" max="554" width="8.28515625" style="37" customWidth="1"/>
-    <col min="555" max="555" width="2.7109375" style="37" customWidth="1"/>
+    <col min="301" max="301" width="14.109375" style="37" customWidth="1"/>
+    <col min="302" max="302" width="8.88671875" style="37" customWidth="1"/>
+    <col min="303" max="303" width="2.33203125" style="37" customWidth="1"/>
+    <col min="304" max="304" width="10.44140625" style="37" customWidth="1"/>
+    <col min="305" max="305" width="14.109375" style="37" customWidth="1"/>
+    <col min="306" max="514" width="9.109375" style="37"/>
+    <col min="515" max="515" width="14.44140625" style="37" customWidth="1"/>
+    <col min="516" max="538" width="9.109375" style="37"/>
+    <col min="539" max="541" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="542" max="542" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="543" max="545" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="546" max="553" width="9.109375" style="37"/>
+    <col min="554" max="554" width="8.33203125" style="37" customWidth="1"/>
+    <col min="555" max="555" width="2.6640625" style="37" customWidth="1"/>
     <col min="556" max="556" width="9" style="37" customWidth="1"/>
-    <col min="557" max="557" width="14.140625" style="37" customWidth="1"/>
-    <col min="558" max="558" width="8.85546875" style="37" customWidth="1"/>
-    <col min="559" max="559" width="2.28515625" style="37" customWidth="1"/>
-    <col min="560" max="560" width="10.42578125" style="37" customWidth="1"/>
-    <col min="561" max="561" width="14.140625" style="37" customWidth="1"/>
-    <col min="562" max="770" width="9.140625" style="37"/>
-    <col min="771" max="771" width="14.42578125" style="37" customWidth="1"/>
-    <col min="772" max="794" width="9.140625" style="37"/>
-    <col min="795" max="797" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="798" max="798" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="799" max="801" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="802" max="809" width="9.140625" style="37"/>
-    <col min="810" max="810" width="8.28515625" style="37" customWidth="1"/>
-    <col min="811" max="811" width="2.7109375" style="37" customWidth="1"/>
+    <col min="557" max="557" width="14.109375" style="37" customWidth="1"/>
+    <col min="558" max="558" width="8.88671875" style="37" customWidth="1"/>
+    <col min="559" max="559" width="2.33203125" style="37" customWidth="1"/>
+    <col min="560" max="560" width="10.44140625" style="37" customWidth="1"/>
+    <col min="561" max="561" width="14.109375" style="37" customWidth="1"/>
+    <col min="562" max="770" width="9.109375" style="37"/>
+    <col min="771" max="771" width="14.44140625" style="37" customWidth="1"/>
+    <col min="772" max="794" width="9.109375" style="37"/>
+    <col min="795" max="797" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="798" max="798" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="799" max="801" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="802" max="809" width="9.109375" style="37"/>
+    <col min="810" max="810" width="8.33203125" style="37" customWidth="1"/>
+    <col min="811" max="811" width="2.6640625" style="37" customWidth="1"/>
     <col min="812" max="812" width="9" style="37" customWidth="1"/>
-    <col min="813" max="813" width="14.140625" style="37" customWidth="1"/>
-    <col min="814" max="814" width="8.85546875" style="37" customWidth="1"/>
-    <col min="815" max="815" width="2.28515625" style="37" customWidth="1"/>
-    <col min="816" max="816" width="10.42578125" style="37" customWidth="1"/>
-    <col min="817" max="817" width="14.140625" style="37" customWidth="1"/>
-    <col min="818" max="1026" width="9.140625" style="37"/>
-    <col min="1027" max="1027" width="14.42578125" style="37" customWidth="1"/>
-    <col min="1028" max="1050" width="9.140625" style="37"/>
-    <col min="1051" max="1053" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="1054" max="1054" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="1055" max="1057" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="1058" max="1065" width="9.140625" style="37"/>
-    <col min="1066" max="1066" width="8.28515625" style="37" customWidth="1"/>
-    <col min="1067" max="1067" width="2.7109375" style="37" customWidth="1"/>
+    <col min="813" max="813" width="14.109375" style="37" customWidth="1"/>
+    <col min="814" max="814" width="8.88671875" style="37" customWidth="1"/>
+    <col min="815" max="815" width="2.33203125" style="37" customWidth="1"/>
+    <col min="816" max="816" width="10.44140625" style="37" customWidth="1"/>
+    <col min="817" max="817" width="14.109375" style="37" customWidth="1"/>
+    <col min="818" max="1026" width="9.109375" style="37"/>
+    <col min="1027" max="1027" width="14.44140625" style="37" customWidth="1"/>
+    <col min="1028" max="1050" width="9.109375" style="37"/>
+    <col min="1051" max="1053" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1054" max="1054" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1055" max="1057" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1058" max="1065" width="9.109375" style="37"/>
+    <col min="1066" max="1066" width="8.33203125" style="37" customWidth="1"/>
+    <col min="1067" max="1067" width="2.6640625" style="37" customWidth="1"/>
     <col min="1068" max="1068" width="9" style="37" customWidth="1"/>
-    <col min="1069" max="1069" width="14.140625" style="37" customWidth="1"/>
-    <col min="1070" max="1070" width="8.85546875" style="37" customWidth="1"/>
-    <col min="1071" max="1071" width="2.28515625" style="37" customWidth="1"/>
-    <col min="1072" max="1072" width="10.42578125" style="37" customWidth="1"/>
-    <col min="1073" max="1073" width="14.140625" style="37" customWidth="1"/>
-    <col min="1074" max="1282" width="9.140625" style="37"/>
-    <col min="1283" max="1283" width="14.42578125" style="37" customWidth="1"/>
-    <col min="1284" max="1306" width="9.140625" style="37"/>
-    <col min="1307" max="1309" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="1310" max="1310" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="1311" max="1313" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="1314" max="1321" width="9.140625" style="37"/>
-    <col min="1322" max="1322" width="8.28515625" style="37" customWidth="1"/>
-    <col min="1323" max="1323" width="2.7109375" style="37" customWidth="1"/>
+    <col min="1069" max="1069" width="14.109375" style="37" customWidth="1"/>
+    <col min="1070" max="1070" width="8.88671875" style="37" customWidth="1"/>
+    <col min="1071" max="1071" width="2.33203125" style="37" customWidth="1"/>
+    <col min="1072" max="1072" width="10.44140625" style="37" customWidth="1"/>
+    <col min="1073" max="1073" width="14.109375" style="37" customWidth="1"/>
+    <col min="1074" max="1282" width="9.109375" style="37"/>
+    <col min="1283" max="1283" width="14.44140625" style="37" customWidth="1"/>
+    <col min="1284" max="1306" width="9.109375" style="37"/>
+    <col min="1307" max="1309" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1310" max="1310" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1311" max="1313" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1314" max="1321" width="9.109375" style="37"/>
+    <col min="1322" max="1322" width="8.33203125" style="37" customWidth="1"/>
+    <col min="1323" max="1323" width="2.6640625" style="37" customWidth="1"/>
     <col min="1324" max="1324" width="9" style="37" customWidth="1"/>
-    <col min="1325" max="1325" width="14.140625" style="37" customWidth="1"/>
-    <col min="1326" max="1326" width="8.85546875" style="37" customWidth="1"/>
-    <col min="1327" max="1327" width="2.28515625" style="37" customWidth="1"/>
-    <col min="1328" max="1328" width="10.42578125" style="37" customWidth="1"/>
-    <col min="1329" max="1329" width="14.140625" style="37" customWidth="1"/>
-    <col min="1330" max="1538" width="9.140625" style="37"/>
-    <col min="1539" max="1539" width="14.42578125" style="37" customWidth="1"/>
-    <col min="1540" max="1562" width="9.140625" style="37"/>
-    <col min="1563" max="1565" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="1566" max="1566" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="1567" max="1569" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="1570" max="1577" width="9.140625" style="37"/>
-    <col min="1578" max="1578" width="8.28515625" style="37" customWidth="1"/>
-    <col min="1579" max="1579" width="2.7109375" style="37" customWidth="1"/>
+    <col min="1325" max="1325" width="14.109375" style="37" customWidth="1"/>
+    <col min="1326" max="1326" width="8.88671875" style="37" customWidth="1"/>
+    <col min="1327" max="1327" width="2.33203125" style="37" customWidth="1"/>
+    <col min="1328" max="1328" width="10.44140625" style="37" customWidth="1"/>
+    <col min="1329" max="1329" width="14.109375" style="37" customWidth="1"/>
+    <col min="1330" max="1538" width="9.109375" style="37"/>
+    <col min="1539" max="1539" width="14.44140625" style="37" customWidth="1"/>
+    <col min="1540" max="1562" width="9.109375" style="37"/>
+    <col min="1563" max="1565" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1566" max="1566" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1567" max="1569" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1570" max="1577" width="9.109375" style="37"/>
+    <col min="1578" max="1578" width="8.33203125" style="37" customWidth="1"/>
+    <col min="1579" max="1579" width="2.6640625" style="37" customWidth="1"/>
     <col min="1580" max="1580" width="9" style="37" customWidth="1"/>
-    <col min="1581" max="1581" width="14.140625" style="37" customWidth="1"/>
-    <col min="1582" max="1582" width="8.85546875" style="37" customWidth="1"/>
-    <col min="1583" max="1583" width="2.28515625" style="37" customWidth="1"/>
-    <col min="1584" max="1584" width="10.42578125" style="37" customWidth="1"/>
-    <col min="1585" max="1585" width="14.140625" style="37" customWidth="1"/>
-    <col min="1586" max="1794" width="9.140625" style="37"/>
-    <col min="1795" max="1795" width="14.42578125" style="37" customWidth="1"/>
-    <col min="1796" max="1818" width="9.140625" style="37"/>
-    <col min="1819" max="1821" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="1822" max="1822" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="1823" max="1825" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="1826" max="1833" width="9.140625" style="37"/>
-    <col min="1834" max="1834" width="8.28515625" style="37" customWidth="1"/>
-    <col min="1835" max="1835" width="2.7109375" style="37" customWidth="1"/>
+    <col min="1581" max="1581" width="14.109375" style="37" customWidth="1"/>
+    <col min="1582" max="1582" width="8.88671875" style="37" customWidth="1"/>
+    <col min="1583" max="1583" width="2.33203125" style="37" customWidth="1"/>
+    <col min="1584" max="1584" width="10.44140625" style="37" customWidth="1"/>
+    <col min="1585" max="1585" width="14.109375" style="37" customWidth="1"/>
+    <col min="1586" max="1794" width="9.109375" style="37"/>
+    <col min="1795" max="1795" width="14.44140625" style="37" customWidth="1"/>
+    <col min="1796" max="1818" width="9.109375" style="37"/>
+    <col min="1819" max="1821" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1822" max="1822" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1823" max="1825" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1826" max="1833" width="9.109375" style="37"/>
+    <col min="1834" max="1834" width="8.33203125" style="37" customWidth="1"/>
+    <col min="1835" max="1835" width="2.6640625" style="37" customWidth="1"/>
     <col min="1836" max="1836" width="9" style="37" customWidth="1"/>
-    <col min="1837" max="1837" width="14.140625" style="37" customWidth="1"/>
-    <col min="1838" max="1838" width="8.85546875" style="37" customWidth="1"/>
-    <col min="1839" max="1839" width="2.28515625" style="37" customWidth="1"/>
-    <col min="1840" max="1840" width="10.42578125" style="37" customWidth="1"/>
-    <col min="1841" max="1841" width="14.140625" style="37" customWidth="1"/>
-    <col min="1842" max="2050" width="9.140625" style="37"/>
-    <col min="2051" max="2051" width="14.42578125" style="37" customWidth="1"/>
-    <col min="2052" max="2074" width="9.140625" style="37"/>
-    <col min="2075" max="2077" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="2078" max="2078" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2079" max="2081" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="2082" max="2089" width="9.140625" style="37"/>
-    <col min="2090" max="2090" width="8.28515625" style="37" customWidth="1"/>
-    <col min="2091" max="2091" width="2.7109375" style="37" customWidth="1"/>
+    <col min="1837" max="1837" width="14.109375" style="37" customWidth="1"/>
+    <col min="1838" max="1838" width="8.88671875" style="37" customWidth="1"/>
+    <col min="1839" max="1839" width="2.33203125" style="37" customWidth="1"/>
+    <col min="1840" max="1840" width="10.44140625" style="37" customWidth="1"/>
+    <col min="1841" max="1841" width="14.109375" style="37" customWidth="1"/>
+    <col min="1842" max="2050" width="9.109375" style="37"/>
+    <col min="2051" max="2051" width="14.44140625" style="37" customWidth="1"/>
+    <col min="2052" max="2074" width="9.109375" style="37"/>
+    <col min="2075" max="2077" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2078" max="2078" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2079" max="2081" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2082" max="2089" width="9.109375" style="37"/>
+    <col min="2090" max="2090" width="8.33203125" style="37" customWidth="1"/>
+    <col min="2091" max="2091" width="2.6640625" style="37" customWidth="1"/>
     <col min="2092" max="2092" width="9" style="37" customWidth="1"/>
-    <col min="2093" max="2093" width="14.140625" style="37" customWidth="1"/>
-    <col min="2094" max="2094" width="8.85546875" style="37" customWidth="1"/>
-    <col min="2095" max="2095" width="2.28515625" style="37" customWidth="1"/>
-    <col min="2096" max="2096" width="10.42578125" style="37" customWidth="1"/>
-    <col min="2097" max="2097" width="14.140625" style="37" customWidth="1"/>
-    <col min="2098" max="2306" width="9.140625" style="37"/>
-    <col min="2307" max="2307" width="14.42578125" style="37" customWidth="1"/>
-    <col min="2308" max="2330" width="9.140625" style="37"/>
-    <col min="2331" max="2333" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="2334" max="2334" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2335" max="2337" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="2338" max="2345" width="9.140625" style="37"/>
-    <col min="2346" max="2346" width="8.28515625" style="37" customWidth="1"/>
-    <col min="2347" max="2347" width="2.7109375" style="37" customWidth="1"/>
+    <col min="2093" max="2093" width="14.109375" style="37" customWidth="1"/>
+    <col min="2094" max="2094" width="8.88671875" style="37" customWidth="1"/>
+    <col min="2095" max="2095" width="2.33203125" style="37" customWidth="1"/>
+    <col min="2096" max="2096" width="10.44140625" style="37" customWidth="1"/>
+    <col min="2097" max="2097" width="14.109375" style="37" customWidth="1"/>
+    <col min="2098" max="2306" width="9.109375" style="37"/>
+    <col min="2307" max="2307" width="14.44140625" style="37" customWidth="1"/>
+    <col min="2308" max="2330" width="9.109375" style="37"/>
+    <col min="2331" max="2333" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2334" max="2334" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2335" max="2337" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2338" max="2345" width="9.109375" style="37"/>
+    <col min="2346" max="2346" width="8.33203125" style="37" customWidth="1"/>
+    <col min="2347" max="2347" width="2.6640625" style="37" customWidth="1"/>
     <col min="2348" max="2348" width="9" style="37" customWidth="1"/>
-    <col min="2349" max="2349" width="14.140625" style="37" customWidth="1"/>
-    <col min="2350" max="2350" width="8.85546875" style="37" customWidth="1"/>
-    <col min="2351" max="2351" width="2.28515625" style="37" customWidth="1"/>
-    <col min="2352" max="2352" width="10.42578125" style="37" customWidth="1"/>
-    <col min="2353" max="2353" width="14.140625" style="37" customWidth="1"/>
-    <col min="2354" max="2562" width="9.140625" style="37"/>
-    <col min="2563" max="2563" width="14.42578125" style="37" customWidth="1"/>
-    <col min="2564" max="2586" width="9.140625" style="37"/>
-    <col min="2587" max="2589" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="2590" max="2590" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2591" max="2593" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="2594" max="2601" width="9.140625" style="37"/>
-    <col min="2602" max="2602" width="8.28515625" style="37" customWidth="1"/>
-    <col min="2603" max="2603" width="2.7109375" style="37" customWidth="1"/>
+    <col min="2349" max="2349" width="14.109375" style="37" customWidth="1"/>
+    <col min="2350" max="2350" width="8.88671875" style="37" customWidth="1"/>
+    <col min="2351" max="2351" width="2.33203125" style="37" customWidth="1"/>
+    <col min="2352" max="2352" width="10.44140625" style="37" customWidth="1"/>
+    <col min="2353" max="2353" width="14.109375" style="37" customWidth="1"/>
+    <col min="2354" max="2562" width="9.109375" style="37"/>
+    <col min="2563" max="2563" width="14.44140625" style="37" customWidth="1"/>
+    <col min="2564" max="2586" width="9.109375" style="37"/>
+    <col min="2587" max="2589" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2590" max="2590" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2591" max="2593" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2594" max="2601" width="9.109375" style="37"/>
+    <col min="2602" max="2602" width="8.33203125" style="37" customWidth="1"/>
+    <col min="2603" max="2603" width="2.6640625" style="37" customWidth="1"/>
     <col min="2604" max="2604" width="9" style="37" customWidth="1"/>
-    <col min="2605" max="2605" width="14.140625" style="37" customWidth="1"/>
-    <col min="2606" max="2606" width="8.85546875" style="37" customWidth="1"/>
-    <col min="2607" max="2607" width="2.28515625" style="37" customWidth="1"/>
-    <col min="2608" max="2608" width="10.42578125" style="37" customWidth="1"/>
-    <col min="2609" max="2609" width="14.140625" style="37" customWidth="1"/>
-    <col min="2610" max="2818" width="9.140625" style="37"/>
-    <col min="2819" max="2819" width="14.42578125" style="37" customWidth="1"/>
-    <col min="2820" max="2842" width="9.140625" style="37"/>
-    <col min="2843" max="2845" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="2846" max="2846" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2847" max="2849" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="2850" max="2857" width="9.140625" style="37"/>
-    <col min="2858" max="2858" width="8.28515625" style="37" customWidth="1"/>
-    <col min="2859" max="2859" width="2.7109375" style="37" customWidth="1"/>
+    <col min="2605" max="2605" width="14.109375" style="37" customWidth="1"/>
+    <col min="2606" max="2606" width="8.88671875" style="37" customWidth="1"/>
+    <col min="2607" max="2607" width="2.33203125" style="37" customWidth="1"/>
+    <col min="2608" max="2608" width="10.44140625" style="37" customWidth="1"/>
+    <col min="2609" max="2609" width="14.109375" style="37" customWidth="1"/>
+    <col min="2610" max="2818" width="9.109375" style="37"/>
+    <col min="2819" max="2819" width="14.44140625" style="37" customWidth="1"/>
+    <col min="2820" max="2842" width="9.109375" style="37"/>
+    <col min="2843" max="2845" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2846" max="2846" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2847" max="2849" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2850" max="2857" width="9.109375" style="37"/>
+    <col min="2858" max="2858" width="8.33203125" style="37" customWidth="1"/>
+    <col min="2859" max="2859" width="2.6640625" style="37" customWidth="1"/>
     <col min="2860" max="2860" width="9" style="37" customWidth="1"/>
-    <col min="2861" max="2861" width="14.140625" style="37" customWidth="1"/>
-    <col min="2862" max="2862" width="8.85546875" style="37" customWidth="1"/>
-    <col min="2863" max="2863" width="2.28515625" style="37" customWidth="1"/>
-    <col min="2864" max="2864" width="10.42578125" style="37" customWidth="1"/>
-    <col min="2865" max="2865" width="14.140625" style="37" customWidth="1"/>
-    <col min="2866" max="3074" width="9.140625" style="37"/>
-    <col min="3075" max="3075" width="14.42578125" style="37" customWidth="1"/>
-    <col min="3076" max="3098" width="9.140625" style="37"/>
-    <col min="3099" max="3101" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3102" max="3102" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="3103" max="3105" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3106" max="3113" width="9.140625" style="37"/>
-    <col min="3114" max="3114" width="8.28515625" style="37" customWidth="1"/>
-    <col min="3115" max="3115" width="2.7109375" style="37" customWidth="1"/>
+    <col min="2861" max="2861" width="14.109375" style="37" customWidth="1"/>
+    <col min="2862" max="2862" width="8.88671875" style="37" customWidth="1"/>
+    <col min="2863" max="2863" width="2.33203125" style="37" customWidth="1"/>
+    <col min="2864" max="2864" width="10.44140625" style="37" customWidth="1"/>
+    <col min="2865" max="2865" width="14.109375" style="37" customWidth="1"/>
+    <col min="2866" max="3074" width="9.109375" style="37"/>
+    <col min="3075" max="3075" width="14.44140625" style="37" customWidth="1"/>
+    <col min="3076" max="3098" width="9.109375" style="37"/>
+    <col min="3099" max="3101" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3102" max="3102" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3103" max="3105" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3106" max="3113" width="9.109375" style="37"/>
+    <col min="3114" max="3114" width="8.33203125" style="37" customWidth="1"/>
+    <col min="3115" max="3115" width="2.6640625" style="37" customWidth="1"/>
     <col min="3116" max="3116" width="9" style="37" customWidth="1"/>
-    <col min="3117" max="3117" width="14.140625" style="37" customWidth="1"/>
-    <col min="3118" max="3118" width="8.85546875" style="37" customWidth="1"/>
-    <col min="3119" max="3119" width="2.28515625" style="37" customWidth="1"/>
-    <col min="3120" max="3120" width="10.42578125" style="37" customWidth="1"/>
-    <col min="3121" max="3121" width="14.140625" style="37" customWidth="1"/>
-    <col min="3122" max="3330" width="9.140625" style="37"/>
-    <col min="3331" max="3331" width="14.42578125" style="37" customWidth="1"/>
-    <col min="3332" max="3354" width="9.140625" style="37"/>
-    <col min="3355" max="3357" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3358" max="3358" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="3359" max="3361" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3362" max="3369" width="9.140625" style="37"/>
-    <col min="3370" max="3370" width="8.28515625" style="37" customWidth="1"/>
-    <col min="3371" max="3371" width="2.7109375" style="37" customWidth="1"/>
+    <col min="3117" max="3117" width="14.109375" style="37" customWidth="1"/>
+    <col min="3118" max="3118" width="8.88671875" style="37" customWidth="1"/>
+    <col min="3119" max="3119" width="2.33203125" style="37" customWidth="1"/>
+    <col min="3120" max="3120" width="10.44140625" style="37" customWidth="1"/>
+    <col min="3121" max="3121" width="14.109375" style="37" customWidth="1"/>
+    <col min="3122" max="3330" width="9.109375" style="37"/>
+    <col min="3331" max="3331" width="14.44140625" style="37" customWidth="1"/>
+    <col min="3332" max="3354" width="9.109375" style="37"/>
+    <col min="3355" max="3357" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3358" max="3358" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3359" max="3361" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3362" max="3369" width="9.109375" style="37"/>
+    <col min="3370" max="3370" width="8.33203125" style="37" customWidth="1"/>
+    <col min="3371" max="3371" width="2.6640625" style="37" customWidth="1"/>
     <col min="3372" max="3372" width="9" style="37" customWidth="1"/>
-    <col min="3373" max="3373" width="14.140625" style="37" customWidth="1"/>
-    <col min="3374" max="3374" width="8.85546875" style="37" customWidth="1"/>
-    <col min="3375" max="3375" width="2.28515625" style="37" customWidth="1"/>
-    <col min="3376" max="3376" width="10.42578125" style="37" customWidth="1"/>
-    <col min="3377" max="3377" width="14.140625" style="37" customWidth="1"/>
-    <col min="3378" max="3586" width="9.140625" style="37"/>
-    <col min="3587" max="3587" width="14.42578125" style="37" customWidth="1"/>
-    <col min="3588" max="3610" width="9.140625" style="37"/>
-    <col min="3611" max="3613" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3614" max="3614" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="3615" max="3617" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3618" max="3625" width="9.140625" style="37"/>
-    <col min="3626" max="3626" width="8.28515625" style="37" customWidth="1"/>
-    <col min="3627" max="3627" width="2.7109375" style="37" customWidth="1"/>
+    <col min="3373" max="3373" width="14.109375" style="37" customWidth="1"/>
+    <col min="3374" max="3374" width="8.88671875" style="37" customWidth="1"/>
+    <col min="3375" max="3375" width="2.33203125" style="37" customWidth="1"/>
+    <col min="3376" max="3376" width="10.44140625" style="37" customWidth="1"/>
+    <col min="3377" max="3377" width="14.109375" style="37" customWidth="1"/>
+    <col min="3378" max="3586" width="9.109375" style="37"/>
+    <col min="3587" max="3587" width="14.44140625" style="37" customWidth="1"/>
+    <col min="3588" max="3610" width="9.109375" style="37"/>
+    <col min="3611" max="3613" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3614" max="3614" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3615" max="3617" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3618" max="3625" width="9.109375" style="37"/>
+    <col min="3626" max="3626" width="8.33203125" style="37" customWidth="1"/>
+    <col min="3627" max="3627" width="2.6640625" style="37" customWidth="1"/>
     <col min="3628" max="3628" width="9" style="37" customWidth="1"/>
-    <col min="3629" max="3629" width="14.140625" style="37" customWidth="1"/>
-    <col min="3630" max="3630" width="8.85546875" style="37" customWidth="1"/>
-    <col min="3631" max="3631" width="2.28515625" style="37" customWidth="1"/>
-    <col min="3632" max="3632" width="10.42578125" style="37" customWidth="1"/>
-    <col min="3633" max="3633" width="14.140625" style="37" customWidth="1"/>
-    <col min="3634" max="3842" width="9.140625" style="37"/>
-    <col min="3843" max="3843" width="14.42578125" style="37" customWidth="1"/>
-    <col min="3844" max="3866" width="9.140625" style="37"/>
-    <col min="3867" max="3869" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3870" max="3870" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="3871" max="3873" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3874" max="3881" width="9.140625" style="37"/>
-    <col min="3882" max="3882" width="8.28515625" style="37" customWidth="1"/>
-    <col min="3883" max="3883" width="2.7109375" style="37" customWidth="1"/>
+    <col min="3629" max="3629" width="14.109375" style="37" customWidth="1"/>
+    <col min="3630" max="3630" width="8.88671875" style="37" customWidth="1"/>
+    <col min="3631" max="3631" width="2.33203125" style="37" customWidth="1"/>
+    <col min="3632" max="3632" width="10.44140625" style="37" customWidth="1"/>
+    <col min="3633" max="3633" width="14.109375" style="37" customWidth="1"/>
+    <col min="3634" max="3842" width="9.109375" style="37"/>
+    <col min="3843" max="3843" width="14.44140625" style="37" customWidth="1"/>
+    <col min="3844" max="3866" width="9.109375" style="37"/>
+    <col min="3867" max="3869" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3870" max="3870" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3871" max="3873" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3874" max="3881" width="9.109375" style="37"/>
+    <col min="3882" max="3882" width="8.33203125" style="37" customWidth="1"/>
+    <col min="3883" max="3883" width="2.6640625" style="37" customWidth="1"/>
     <col min="3884" max="3884" width="9" style="37" customWidth="1"/>
-    <col min="3885" max="3885" width="14.140625" style="37" customWidth="1"/>
-    <col min="3886" max="3886" width="8.85546875" style="37" customWidth="1"/>
-    <col min="3887" max="3887" width="2.28515625" style="37" customWidth="1"/>
-    <col min="3888" max="3888" width="10.42578125" style="37" customWidth="1"/>
-    <col min="3889" max="3889" width="14.140625" style="37" customWidth="1"/>
-    <col min="3890" max="4098" width="9.140625" style="37"/>
-    <col min="4099" max="4099" width="14.42578125" style="37" customWidth="1"/>
-    <col min="4100" max="4122" width="9.140625" style="37"/>
-    <col min="4123" max="4125" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4126" max="4126" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="4127" max="4129" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4130" max="4137" width="9.140625" style="37"/>
-    <col min="4138" max="4138" width="8.28515625" style="37" customWidth="1"/>
-    <col min="4139" max="4139" width="2.7109375" style="37" customWidth="1"/>
+    <col min="3885" max="3885" width="14.109375" style="37" customWidth="1"/>
+    <col min="3886" max="3886" width="8.88671875" style="37" customWidth="1"/>
+    <col min="3887" max="3887" width="2.33203125" style="37" customWidth="1"/>
+    <col min="3888" max="3888" width="10.44140625" style="37" customWidth="1"/>
+    <col min="3889" max="3889" width="14.109375" style="37" customWidth="1"/>
+    <col min="3890" max="4098" width="9.109375" style="37"/>
+    <col min="4099" max="4099" width="14.44140625" style="37" customWidth="1"/>
+    <col min="4100" max="4122" width="9.109375" style="37"/>
+    <col min="4123" max="4125" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4126" max="4126" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4127" max="4129" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4130" max="4137" width="9.109375" style="37"/>
+    <col min="4138" max="4138" width="8.33203125" style="37" customWidth="1"/>
+    <col min="4139" max="4139" width="2.6640625" style="37" customWidth="1"/>
     <col min="4140" max="4140" width="9" style="37" customWidth="1"/>
-    <col min="4141" max="4141" width="14.140625" style="37" customWidth="1"/>
-    <col min="4142" max="4142" width="8.85546875" style="37" customWidth="1"/>
-    <col min="4143" max="4143" width="2.28515625" style="37" customWidth="1"/>
-    <col min="4144" max="4144" width="10.42578125" style="37" customWidth="1"/>
-    <col min="4145" max="4145" width="14.140625" style="37" customWidth="1"/>
-    <col min="4146" max="4354" width="9.140625" style="37"/>
-    <col min="4355" max="4355" width="14.42578125" style="37" customWidth="1"/>
-    <col min="4356" max="4378" width="9.140625" style="37"/>
-    <col min="4379" max="4381" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4382" max="4382" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="4383" max="4385" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4386" max="4393" width="9.140625" style="37"/>
-    <col min="4394" max="4394" width="8.28515625" style="37" customWidth="1"/>
-    <col min="4395" max="4395" width="2.7109375" style="37" customWidth="1"/>
+    <col min="4141" max="4141" width="14.109375" style="37" customWidth="1"/>
+    <col min="4142" max="4142" width="8.88671875" style="37" customWidth="1"/>
+    <col min="4143" max="4143" width="2.33203125" style="37" customWidth="1"/>
+    <col min="4144" max="4144" width="10.44140625" style="37" customWidth="1"/>
+    <col min="4145" max="4145" width="14.109375" style="37" customWidth="1"/>
+    <col min="4146" max="4354" width="9.109375" style="37"/>
+    <col min="4355" max="4355" width="14.44140625" style="37" customWidth="1"/>
+    <col min="4356" max="4378" width="9.109375" style="37"/>
+    <col min="4379" max="4381" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4382" max="4382" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4383" max="4385" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4386" max="4393" width="9.109375" style="37"/>
+    <col min="4394" max="4394" width="8.33203125" style="37" customWidth="1"/>
+    <col min="4395" max="4395" width="2.6640625" style="37" customWidth="1"/>
     <col min="4396" max="4396" width="9" style="37" customWidth="1"/>
-    <col min="4397" max="4397" width="14.140625" style="37" customWidth="1"/>
-    <col min="4398" max="4398" width="8.85546875" style="37" customWidth="1"/>
-    <col min="4399" max="4399" width="2.28515625" style="37" customWidth="1"/>
-    <col min="4400" max="4400" width="10.42578125" style="37" customWidth="1"/>
-    <col min="4401" max="4401" width="14.140625" style="37" customWidth="1"/>
-    <col min="4402" max="4610" width="9.140625" style="37"/>
-    <col min="4611" max="4611" width="14.42578125" style="37" customWidth="1"/>
-    <col min="4612" max="4634" width="9.140625" style="37"/>
-    <col min="4635" max="4637" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4638" max="4638" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="4639" max="4641" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4642" max="4649" width="9.140625" style="37"/>
-    <col min="4650" max="4650" width="8.28515625" style="37" customWidth="1"/>
-    <col min="4651" max="4651" width="2.7109375" style="37" customWidth="1"/>
+    <col min="4397" max="4397" width="14.109375" style="37" customWidth="1"/>
+    <col min="4398" max="4398" width="8.88671875" style="37" customWidth="1"/>
+    <col min="4399" max="4399" width="2.33203125" style="37" customWidth="1"/>
+    <col min="4400" max="4400" width="10.44140625" style="37" customWidth="1"/>
+    <col min="4401" max="4401" width="14.109375" style="37" customWidth="1"/>
+    <col min="4402" max="4610" width="9.109375" style="37"/>
+    <col min="4611" max="4611" width="14.44140625" style="37" customWidth="1"/>
+    <col min="4612" max="4634" width="9.109375" style="37"/>
+    <col min="4635" max="4637" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4638" max="4638" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4639" max="4641" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4642" max="4649" width="9.109375" style="37"/>
+    <col min="4650" max="4650" width="8.33203125" style="37" customWidth="1"/>
+    <col min="4651" max="4651" width="2.6640625" style="37" customWidth="1"/>
     <col min="4652" max="4652" width="9" style="37" customWidth="1"/>
-    <col min="4653" max="4653" width="14.140625" style="37" customWidth="1"/>
-    <col min="4654" max="4654" width="8.85546875" style="37" customWidth="1"/>
-    <col min="4655" max="4655" width="2.28515625" style="37" customWidth="1"/>
-    <col min="4656" max="4656" width="10.42578125" style="37" customWidth="1"/>
-    <col min="4657" max="4657" width="14.140625" style="37" customWidth="1"/>
-    <col min="4658" max="4866" width="9.140625" style="37"/>
-    <col min="4867" max="4867" width="14.42578125" style="37" customWidth="1"/>
-    <col min="4868" max="4890" width="9.140625" style="37"/>
-    <col min="4891" max="4893" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4894" max="4894" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="4895" max="4897" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4898" max="4905" width="9.140625" style="37"/>
-    <col min="4906" max="4906" width="8.28515625" style="37" customWidth="1"/>
-    <col min="4907" max="4907" width="2.7109375" style="37" customWidth="1"/>
+    <col min="4653" max="4653" width="14.109375" style="37" customWidth="1"/>
+    <col min="4654" max="4654" width="8.88671875" style="37" customWidth="1"/>
+    <col min="4655" max="4655" width="2.33203125" style="37" customWidth="1"/>
+    <col min="4656" max="4656" width="10.44140625" style="37" customWidth="1"/>
+    <col min="4657" max="4657" width="14.109375" style="37" customWidth="1"/>
+    <col min="4658" max="4866" width="9.109375" style="37"/>
+    <col min="4867" max="4867" width="14.44140625" style="37" customWidth="1"/>
+    <col min="4868" max="4890" width="9.109375" style="37"/>
+    <col min="4891" max="4893" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4894" max="4894" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4895" max="4897" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4898" max="4905" width="9.109375" style="37"/>
+    <col min="4906" max="4906" width="8.33203125" style="37" customWidth="1"/>
+    <col min="4907" max="4907" width="2.6640625" style="37" customWidth="1"/>
     <col min="4908" max="4908" width="9" style="37" customWidth="1"/>
-    <col min="4909" max="4909" width="14.140625" style="37" customWidth="1"/>
-    <col min="4910" max="4910" width="8.85546875" style="37" customWidth="1"/>
-    <col min="4911" max="4911" width="2.28515625" style="37" customWidth="1"/>
-    <col min="4912" max="4912" width="10.42578125" style="37" customWidth="1"/>
-    <col min="4913" max="4913" width="14.140625" style="37" customWidth="1"/>
-    <col min="4914" max="5122" width="9.140625" style="37"/>
-    <col min="5123" max="5123" width="14.42578125" style="37" customWidth="1"/>
-    <col min="5124" max="5146" width="9.140625" style="37"/>
-    <col min="5147" max="5149" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5150" max="5150" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="5151" max="5153" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5154" max="5161" width="9.140625" style="37"/>
-    <col min="5162" max="5162" width="8.28515625" style="37" customWidth="1"/>
-    <col min="5163" max="5163" width="2.7109375" style="37" customWidth="1"/>
+    <col min="4909" max="4909" width="14.109375" style="37" customWidth="1"/>
+    <col min="4910" max="4910" width="8.88671875" style="37" customWidth="1"/>
+    <col min="4911" max="4911" width="2.33203125" style="37" customWidth="1"/>
+    <col min="4912" max="4912" width="10.44140625" style="37" customWidth="1"/>
+    <col min="4913" max="4913" width="14.109375" style="37" customWidth="1"/>
+    <col min="4914" max="5122" width="9.109375" style="37"/>
+    <col min="5123" max="5123" width="14.44140625" style="37" customWidth="1"/>
+    <col min="5124" max="5146" width="9.109375" style="37"/>
+    <col min="5147" max="5149" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5150" max="5150" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5151" max="5153" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5154" max="5161" width="9.109375" style="37"/>
+    <col min="5162" max="5162" width="8.33203125" style="37" customWidth="1"/>
+    <col min="5163" max="5163" width="2.6640625" style="37" customWidth="1"/>
     <col min="5164" max="5164" width="9" style="37" customWidth="1"/>
-    <col min="5165" max="5165" width="14.140625" style="37" customWidth="1"/>
-    <col min="5166" max="5166" width="8.85546875" style="37" customWidth="1"/>
-    <col min="5167" max="5167" width="2.28515625" style="37" customWidth="1"/>
-    <col min="5168" max="5168" width="10.42578125" style="37" customWidth="1"/>
-    <col min="5169" max="5169" width="14.140625" style="37" customWidth="1"/>
-    <col min="5170" max="5378" width="9.140625" style="37"/>
-    <col min="5379" max="5379" width="14.42578125" style="37" customWidth="1"/>
-    <col min="5380" max="5402" width="9.140625" style="37"/>
-    <col min="5403" max="5405" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5406" max="5406" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="5407" max="5409" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5410" max="5417" width="9.140625" style="37"/>
-    <col min="5418" max="5418" width="8.28515625" style="37" customWidth="1"/>
-    <col min="5419" max="5419" width="2.7109375" style="37" customWidth="1"/>
+    <col min="5165" max="5165" width="14.109375" style="37" customWidth="1"/>
+    <col min="5166" max="5166" width="8.88671875" style="37" customWidth="1"/>
+    <col min="5167" max="5167" width="2.33203125" style="37" customWidth="1"/>
+    <col min="5168" max="5168" width="10.44140625" style="37" customWidth="1"/>
+    <col min="5169" max="5169" width="14.109375" style="37" customWidth="1"/>
+    <col min="5170" max="5378" width="9.109375" style="37"/>
+    <col min="5379" max="5379" width="14.44140625" style="37" customWidth="1"/>
+    <col min="5380" max="5402" width="9.109375" style="37"/>
+    <col min="5403" max="5405" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5406" max="5406" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5407" max="5409" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5410" max="5417" width="9.109375" style="37"/>
+    <col min="5418" max="5418" width="8.33203125" style="37" customWidth="1"/>
+    <col min="5419" max="5419" width="2.6640625" style="37" customWidth="1"/>
     <col min="5420" max="5420" width="9" style="37" customWidth="1"/>
-    <col min="5421" max="5421" width="14.140625" style="37" customWidth="1"/>
-    <col min="5422" max="5422" width="8.85546875" style="37" customWidth="1"/>
-    <col min="5423" max="5423" width="2.28515625" style="37" customWidth="1"/>
-    <col min="5424" max="5424" width="10.42578125" style="37" customWidth="1"/>
-    <col min="5425" max="5425" width="14.140625" style="37" customWidth="1"/>
-    <col min="5426" max="5634" width="9.140625" style="37"/>
-    <col min="5635" max="5635" width="14.42578125" style="37" customWidth="1"/>
-    <col min="5636" max="5658" width="9.140625" style="37"/>
-    <col min="5659" max="5661" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5662" max="5662" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="5663" max="5665" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5666" max="5673" width="9.140625" style="37"/>
-    <col min="5674" max="5674" width="8.28515625" style="37" customWidth="1"/>
-    <col min="5675" max="5675" width="2.7109375" style="37" customWidth="1"/>
+    <col min="5421" max="5421" width="14.109375" style="37" customWidth="1"/>
+    <col min="5422" max="5422" width="8.88671875" style="37" customWidth="1"/>
+    <col min="5423" max="5423" width="2.33203125" style="37" customWidth="1"/>
+    <col min="5424" max="5424" width="10.44140625" style="37" customWidth="1"/>
+    <col min="5425" max="5425" width="14.109375" style="37" customWidth="1"/>
+    <col min="5426" max="5634" width="9.109375" style="37"/>
+    <col min="5635" max="5635" width="14.44140625" style="37" customWidth="1"/>
+    <col min="5636" max="5658" width="9.109375" style="37"/>
+    <col min="5659" max="5661" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5662" max="5662" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5663" max="5665" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5666" max="5673" width="9.109375" style="37"/>
+    <col min="5674" max="5674" width="8.33203125" style="37" customWidth="1"/>
+    <col min="5675" max="5675" width="2.6640625" style="37" customWidth="1"/>
     <col min="5676" max="5676" width="9" style="37" customWidth="1"/>
-    <col min="5677" max="5677" width="14.140625" style="37" customWidth="1"/>
-    <col min="5678" max="5678" width="8.85546875" style="37" customWidth="1"/>
-    <col min="5679" max="5679" width="2.28515625" style="37" customWidth="1"/>
-    <col min="5680" max="5680" width="10.42578125" style="37" customWidth="1"/>
-    <col min="5681" max="5681" width="14.140625" style="37" customWidth="1"/>
-    <col min="5682" max="5890" width="9.140625" style="37"/>
-    <col min="5891" max="5891" width="14.42578125" style="37" customWidth="1"/>
-    <col min="5892" max="5914" width="9.140625" style="37"/>
-    <col min="5915" max="5917" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5918" max="5918" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="5919" max="5921" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5922" max="5929" width="9.140625" style="37"/>
-    <col min="5930" max="5930" width="8.28515625" style="37" customWidth="1"/>
-    <col min="5931" max="5931" width="2.7109375" style="37" customWidth="1"/>
+    <col min="5677" max="5677" width="14.109375" style="37" customWidth="1"/>
+    <col min="5678" max="5678" width="8.88671875" style="37" customWidth="1"/>
+    <col min="5679" max="5679" width="2.33203125" style="37" customWidth="1"/>
+    <col min="5680" max="5680" width="10.44140625" style="37" customWidth="1"/>
+    <col min="5681" max="5681" width="14.109375" style="37" customWidth="1"/>
+    <col min="5682" max="5890" width="9.109375" style="37"/>
+    <col min="5891" max="5891" width="14.44140625" style="37" customWidth="1"/>
+    <col min="5892" max="5914" width="9.109375" style="37"/>
+    <col min="5915" max="5917" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5918" max="5918" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5919" max="5921" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5922" max="5929" width="9.109375" style="37"/>
+    <col min="5930" max="5930" width="8.33203125" style="37" customWidth="1"/>
+    <col min="5931" max="5931" width="2.6640625" style="37" customWidth="1"/>
     <col min="5932" max="5932" width="9" style="37" customWidth="1"/>
-    <col min="5933" max="5933" width="14.140625" style="37" customWidth="1"/>
-    <col min="5934" max="5934" width="8.85546875" style="37" customWidth="1"/>
-    <col min="5935" max="5935" width="2.28515625" style="37" customWidth="1"/>
-    <col min="5936" max="5936" width="10.42578125" style="37" customWidth="1"/>
-    <col min="5937" max="5937" width="14.140625" style="37" customWidth="1"/>
-    <col min="5938" max="6146" width="9.140625" style="37"/>
-    <col min="6147" max="6147" width="14.42578125" style="37" customWidth="1"/>
-    <col min="6148" max="6170" width="9.140625" style="37"/>
-    <col min="6171" max="6173" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="6174" max="6174" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="6175" max="6177" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="6178" max="6185" width="9.140625" style="37"/>
-    <col min="6186" max="6186" width="8.28515625" style="37" customWidth="1"/>
-    <col min="6187" max="6187" width="2.7109375" style="37" customWidth="1"/>
+    <col min="5933" max="5933" width="14.109375" style="37" customWidth="1"/>
+    <col min="5934" max="5934" width="8.88671875" style="37" customWidth="1"/>
+    <col min="5935" max="5935" width="2.33203125" style="37" customWidth="1"/>
+    <col min="5936" max="5936" width="10.44140625" style="37" customWidth="1"/>
+    <col min="5937" max="5937" width="14.109375" style="37" customWidth="1"/>
+    <col min="5938" max="6146" width="9.109375" style="37"/>
+    <col min="6147" max="6147" width="14.44140625" style="37" customWidth="1"/>
+    <col min="6148" max="6170" width="9.109375" style="37"/>
+    <col min="6171" max="6173" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6174" max="6174" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6175" max="6177" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6178" max="6185" width="9.109375" style="37"/>
+    <col min="6186" max="6186" width="8.33203125" style="37" customWidth="1"/>
+    <col min="6187" max="6187" width="2.6640625" style="37" customWidth="1"/>
     <col min="6188" max="6188" width="9" style="37" customWidth="1"/>
-    <col min="6189" max="6189" width="14.140625" style="37" customWidth="1"/>
-    <col min="6190" max="6190" width="8.85546875" style="37" customWidth="1"/>
-    <col min="6191" max="6191" width="2.28515625" style="37" customWidth="1"/>
-    <col min="6192" max="6192" width="10.42578125" style="37" customWidth="1"/>
-    <col min="6193" max="6193" width="14.140625" style="37" customWidth="1"/>
-    <col min="6194" max="6402" width="9.140625" style="37"/>
-    <col min="6403" max="6403" width="14.42578125" style="37" customWidth="1"/>
-    <col min="6404" max="6426" width="9.140625" style="37"/>
-    <col min="6427" max="6429" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="6430" max="6430" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="6431" max="6433" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="6434" max="6441" width="9.140625" style="37"/>
-    <col min="6442" max="6442" width="8.28515625" style="37" customWidth="1"/>
-    <col min="6443" max="6443" width="2.7109375" style="37" customWidth="1"/>
+    <col min="6189" max="6189" width="14.109375" style="37" customWidth="1"/>
+    <col min="6190" max="6190" width="8.88671875" style="37" customWidth="1"/>
+    <col min="6191" max="6191" width="2.33203125" style="37" customWidth="1"/>
+    <col min="6192" max="6192" width="10.44140625" style="37" customWidth="1"/>
+    <col min="6193" max="6193" width="14.109375" style="37" customWidth="1"/>
+    <col min="6194" max="6402" width="9.109375" style="37"/>
+    <col min="6403" max="6403" width="14.44140625" style="37" customWidth="1"/>
+    <col min="6404" max="6426" width="9.109375" style="37"/>
+    <col min="6427" max="6429" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6430" max="6430" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6431" max="6433" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6434" max="6441" width="9.109375" style="37"/>
+    <col min="6442" max="6442" width="8.33203125" style="37" customWidth="1"/>
+    <col min="6443" max="6443" width="2.6640625" style="37" customWidth="1"/>
     <col min="6444" max="6444" width="9" style="37" customWidth="1"/>
-    <col min="6445" max="6445" width="14.140625" style="37" customWidth="1"/>
-    <col min="6446" max="6446" width="8.85546875" style="37" customWidth="1"/>
-    <col min="6447" max="6447" width="2.28515625" style="37" customWidth="1"/>
-    <col min="6448" max="6448" width="10.42578125" style="37" customWidth="1"/>
-    <col min="6449" max="6449" width="14.140625" style="37" customWidth="1"/>
-    <col min="6450" max="6658" width="9.140625" style="37"/>
-    <col min="6659" max="6659" width="14.42578125" style="37" customWidth="1"/>
-    <col min="6660" max="6682" width="9.140625" style="37"/>
-    <col min="6683" max="6685" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="6686" max="6686" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="6687" max="6689" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="6690" max="6697" width="9.140625" style="37"/>
-    <col min="6698" max="6698" width="8.28515625" style="37" customWidth="1"/>
-    <col min="6699" max="6699" width="2.7109375" style="37" customWidth="1"/>
+    <col min="6445" max="6445" width="14.109375" style="37" customWidth="1"/>
+    <col min="6446" max="6446" width="8.88671875" style="37" customWidth="1"/>
+    <col min="6447" max="6447" width="2.33203125" style="37" customWidth="1"/>
+    <col min="6448" max="6448" width="10.44140625" style="37" customWidth="1"/>
+    <col min="6449" max="6449" width="14.109375" style="37" customWidth="1"/>
+    <col min="6450" max="6658" width="9.109375" style="37"/>
+    <col min="6659" max="6659" width="14.44140625" style="37" customWidth="1"/>
+    <col min="6660" max="6682" width="9.109375" style="37"/>
+    <col min="6683" max="6685" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6686" max="6686" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6687" max="6689" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6690" max="6697" width="9.109375" style="37"/>
+    <col min="6698" max="6698" width="8.33203125" style="37" customWidth="1"/>
+    <col min="6699" max="6699" width="2.6640625" style="37" customWidth="1"/>
     <col min="6700" max="6700" width="9" style="37" customWidth="1"/>
-    <col min="6701" max="6701" width="14.140625" style="37" customWidth="1"/>
-    <col min="6702" max="6702" width="8.85546875" style="37" customWidth="1"/>
-    <col min="6703" max="6703" width="2.28515625" style="37" customWidth="1"/>
-    <col min="6704" max="6704" width="10.42578125" style="37" customWidth="1"/>
-    <col min="6705" max="6705" width="14.140625" style="37" customWidth="1"/>
-    <col min="6706" max="6914" width="9.140625" style="37"/>
-    <col min="6915" max="6915" width="14.42578125" style="37" customWidth="1"/>
-    <col min="6916" max="6938" width="9.140625" style="37"/>
-    <col min="6939" max="6941" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="6942" max="6942" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="6943" max="6945" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="6946" max="6953" width="9.140625" style="37"/>
-    <col min="6954" max="6954" width="8.28515625" style="37" customWidth="1"/>
-    <col min="6955" max="6955" width="2.7109375" style="37" customWidth="1"/>
+    <col min="6701" max="6701" width="14.109375" style="37" customWidth="1"/>
+    <col min="6702" max="6702" width="8.88671875" style="37" customWidth="1"/>
+    <col min="6703" max="6703" width="2.33203125" style="37" customWidth="1"/>
+    <col min="6704" max="6704" width="10.44140625" style="37" customWidth="1"/>
+    <col min="6705" max="6705" width="14.109375" style="37" customWidth="1"/>
+    <col min="6706" max="6914" width="9.109375" style="37"/>
+    <col min="6915" max="6915" width="14.44140625" style="37" customWidth="1"/>
+    <col min="6916" max="6938" width="9.109375" style="37"/>
+    <col min="6939" max="6941" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6942" max="6942" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6943" max="6945" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6946" max="6953" width="9.109375" style="37"/>
+    <col min="6954" max="6954" width="8.33203125" style="37" customWidth="1"/>
+    <col min="6955" max="6955" width="2.6640625" style="37" customWidth="1"/>
     <col min="6956" max="6956" width="9" style="37" customWidth="1"/>
-    <col min="6957" max="6957" width="14.140625" style="37" customWidth="1"/>
-    <col min="6958" max="6958" width="8.85546875" style="37" customWidth="1"/>
-    <col min="6959" max="6959" width="2.28515625" style="37" customWidth="1"/>
-    <col min="6960" max="6960" width="10.42578125" style="37" customWidth="1"/>
-    <col min="6961" max="6961" width="14.140625" style="37" customWidth="1"/>
-    <col min="6962" max="7170" width="9.140625" style="37"/>
-    <col min="7171" max="7171" width="14.42578125" style="37" customWidth="1"/>
-    <col min="7172" max="7194" width="9.140625" style="37"/>
-    <col min="7195" max="7197" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7198" max="7198" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="7199" max="7201" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7202" max="7209" width="9.140625" style="37"/>
-    <col min="7210" max="7210" width="8.28515625" style="37" customWidth="1"/>
-    <col min="7211" max="7211" width="2.7109375" style="37" customWidth="1"/>
+    <col min="6957" max="6957" width="14.109375" style="37" customWidth="1"/>
+    <col min="6958" max="6958" width="8.88671875" style="37" customWidth="1"/>
+    <col min="6959" max="6959" width="2.33203125" style="37" customWidth="1"/>
+    <col min="6960" max="6960" width="10.44140625" style="37" customWidth="1"/>
+    <col min="6961" max="6961" width="14.109375" style="37" customWidth="1"/>
+    <col min="6962" max="7170" width="9.109375" style="37"/>
+    <col min="7171" max="7171" width="14.44140625" style="37" customWidth="1"/>
+    <col min="7172" max="7194" width="9.109375" style="37"/>
+    <col min="7195" max="7197" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7198" max="7198" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7199" max="7201" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7202" max="7209" width="9.109375" style="37"/>
+    <col min="7210" max="7210" width="8.33203125" style="37" customWidth="1"/>
+    <col min="7211" max="7211" width="2.6640625" style="37" customWidth="1"/>
     <col min="7212" max="7212" width="9" style="37" customWidth="1"/>
-    <col min="7213" max="7213" width="14.140625" style="37" customWidth="1"/>
-    <col min="7214" max="7214" width="8.85546875" style="37" customWidth="1"/>
-    <col min="7215" max="7215" width="2.28515625" style="37" customWidth="1"/>
-    <col min="7216" max="7216" width="10.42578125" style="37" customWidth="1"/>
-    <col min="7217" max="7217" width="14.140625" style="37" customWidth="1"/>
-    <col min="7218" max="7426" width="9.140625" style="37"/>
-    <col min="7427" max="7427" width="14.42578125" style="37" customWidth="1"/>
-    <col min="7428" max="7450" width="9.140625" style="37"/>
-    <col min="7451" max="7453" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7454" max="7454" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="7455" max="7457" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7458" max="7465" width="9.140625" style="37"/>
-    <col min="7466" max="7466" width="8.28515625" style="37" customWidth="1"/>
-    <col min="7467" max="7467" width="2.7109375" style="37" customWidth="1"/>
+    <col min="7213" max="7213" width="14.109375" style="37" customWidth="1"/>
+    <col min="7214" max="7214" width="8.88671875" style="37" customWidth="1"/>
+    <col min="7215" max="7215" width="2.33203125" style="37" customWidth="1"/>
+    <col min="7216" max="7216" width="10.44140625" style="37" customWidth="1"/>
+    <col min="7217" max="7217" width="14.109375" style="37" customWidth="1"/>
+    <col min="7218" max="7426" width="9.109375" style="37"/>
+    <col min="7427" max="7427" width="14.44140625" style="37" customWidth="1"/>
+    <col min="7428" max="7450" width="9.109375" style="37"/>
+    <col min="7451" max="7453" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7454" max="7454" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7455" max="7457" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7458" max="7465" width="9.109375" style="37"/>
+    <col min="7466" max="7466" width="8.33203125" style="37" customWidth="1"/>
+    <col min="7467" max="7467" width="2.6640625" style="37" customWidth="1"/>
     <col min="7468" max="7468" width="9" style="37" customWidth="1"/>
-    <col min="7469" max="7469" width="14.140625" style="37" customWidth="1"/>
-    <col min="7470" max="7470" width="8.85546875" style="37" customWidth="1"/>
-    <col min="7471" max="7471" width="2.28515625" style="37" customWidth="1"/>
-    <col min="7472" max="7472" width="10.42578125" style="37" customWidth="1"/>
-    <col min="7473" max="7473" width="14.140625" style="37" customWidth="1"/>
-    <col min="7474" max="7682" width="9.140625" style="37"/>
-    <col min="7683" max="7683" width="14.42578125" style="37" customWidth="1"/>
-    <col min="7684" max="7706" width="9.140625" style="37"/>
-    <col min="7707" max="7709" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7710" max="7710" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="7711" max="7713" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7714" max="7721" width="9.140625" style="37"/>
-    <col min="7722" max="7722" width="8.28515625" style="37" customWidth="1"/>
-    <col min="7723" max="7723" width="2.7109375" style="37" customWidth="1"/>
+    <col min="7469" max="7469" width="14.109375" style="37" customWidth="1"/>
+    <col min="7470" max="7470" width="8.88671875" style="37" customWidth="1"/>
+    <col min="7471" max="7471" width="2.33203125" style="37" customWidth="1"/>
+    <col min="7472" max="7472" width="10.44140625" style="37" customWidth="1"/>
+    <col min="7473" max="7473" width="14.109375" style="37" customWidth="1"/>
+    <col min="7474" max="7682" width="9.109375" style="37"/>
+    <col min="7683" max="7683" width="14.44140625" style="37" customWidth="1"/>
+    <col min="7684" max="7706" width="9.109375" style="37"/>
+    <col min="7707" max="7709" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7710" max="7710" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7711" max="7713" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7714" max="7721" width="9.109375" style="37"/>
+    <col min="7722" max="7722" width="8.33203125" style="37" customWidth="1"/>
+    <col min="7723" max="7723" width="2.6640625" style="37" customWidth="1"/>
     <col min="7724" max="7724" width="9" style="37" customWidth="1"/>
-    <col min="7725" max="7725" width="14.140625" style="37" customWidth="1"/>
-    <col min="7726" max="7726" width="8.85546875" style="37" customWidth="1"/>
-    <col min="7727" max="7727" width="2.28515625" style="37" customWidth="1"/>
-    <col min="7728" max="7728" width="10.42578125" style="37" customWidth="1"/>
-    <col min="7729" max="7729" width="14.140625" style="37" customWidth="1"/>
-    <col min="7730" max="7938" width="9.140625" style="37"/>
-    <col min="7939" max="7939" width="14.42578125" style="37" customWidth="1"/>
-    <col min="7940" max="7962" width="9.140625" style="37"/>
-    <col min="7963" max="7965" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7966" max="7966" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="7967" max="7969" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7970" max="7977" width="9.140625" style="37"/>
-    <col min="7978" max="7978" width="8.28515625" style="37" customWidth="1"/>
-    <col min="7979" max="7979" width="2.7109375" style="37" customWidth="1"/>
+    <col min="7725" max="7725" width="14.109375" style="37" customWidth="1"/>
+    <col min="7726" max="7726" width="8.88671875" style="37" customWidth="1"/>
+    <col min="7727" max="7727" width="2.33203125" style="37" customWidth="1"/>
+    <col min="7728" max="7728" width="10.44140625" style="37" customWidth="1"/>
+    <col min="7729" max="7729" width="14.109375" style="37" customWidth="1"/>
+    <col min="7730" max="7938" width="9.109375" style="37"/>
+    <col min="7939" max="7939" width="14.44140625" style="37" customWidth="1"/>
+    <col min="7940" max="7962" width="9.109375" style="37"/>
+    <col min="7963" max="7965" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7966" max="7966" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7967" max="7969" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7970" max="7977" width="9.109375" style="37"/>
+    <col min="7978" max="7978" width="8.33203125" style="37" customWidth="1"/>
+    <col min="7979" max="7979" width="2.6640625" style="37" customWidth="1"/>
     <col min="7980" max="7980" width="9" style="37" customWidth="1"/>
-    <col min="7981" max="7981" width="14.140625" style="37" customWidth="1"/>
-    <col min="7982" max="7982" width="8.85546875" style="37" customWidth="1"/>
-    <col min="7983" max="7983" width="2.28515625" style="37" customWidth="1"/>
-    <col min="7984" max="7984" width="10.42578125" style="37" customWidth="1"/>
-    <col min="7985" max="7985" width="14.140625" style="37" customWidth="1"/>
-    <col min="7986" max="8194" width="9.140625" style="37"/>
-    <col min="8195" max="8195" width="14.42578125" style="37" customWidth="1"/>
-    <col min="8196" max="8218" width="9.140625" style="37"/>
-    <col min="8219" max="8221" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8222" max="8222" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="8223" max="8225" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8226" max="8233" width="9.140625" style="37"/>
-    <col min="8234" max="8234" width="8.28515625" style="37" customWidth="1"/>
-    <col min="8235" max="8235" width="2.7109375" style="37" customWidth="1"/>
+    <col min="7981" max="7981" width="14.109375" style="37" customWidth="1"/>
+    <col min="7982" max="7982" width="8.88671875" style="37" customWidth="1"/>
+    <col min="7983" max="7983" width="2.33203125" style="37" customWidth="1"/>
+    <col min="7984" max="7984" width="10.44140625" style="37" customWidth="1"/>
+    <col min="7985" max="7985" width="14.109375" style="37" customWidth="1"/>
+    <col min="7986" max="8194" width="9.109375" style="37"/>
+    <col min="8195" max="8195" width="14.44140625" style="37" customWidth="1"/>
+    <col min="8196" max="8218" width="9.109375" style="37"/>
+    <col min="8219" max="8221" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8222" max="8222" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8223" max="8225" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8226" max="8233" width="9.109375" style="37"/>
+    <col min="8234" max="8234" width="8.33203125" style="37" customWidth="1"/>
+    <col min="8235" max="8235" width="2.6640625" style="37" customWidth="1"/>
     <col min="8236" max="8236" width="9" style="37" customWidth="1"/>
-    <col min="8237" max="8237" width="14.140625" style="37" customWidth="1"/>
-    <col min="8238" max="8238" width="8.85546875" style="37" customWidth="1"/>
-    <col min="8239" max="8239" width="2.28515625" style="37" customWidth="1"/>
-    <col min="8240" max="8240" width="10.42578125" style="37" customWidth="1"/>
-    <col min="8241" max="8241" width="14.140625" style="37" customWidth="1"/>
-    <col min="8242" max="8450" width="9.140625" style="37"/>
-    <col min="8451" max="8451" width="14.42578125" style="37" customWidth="1"/>
-    <col min="8452" max="8474" width="9.140625" style="37"/>
-    <col min="8475" max="8477" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8478" max="8478" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="8479" max="8481" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8482" max="8489" width="9.140625" style="37"/>
-    <col min="8490" max="8490" width="8.28515625" style="37" customWidth="1"/>
-    <col min="8491" max="8491" width="2.7109375" style="37" customWidth="1"/>
+    <col min="8237" max="8237" width="14.109375" style="37" customWidth="1"/>
+    <col min="8238" max="8238" width="8.88671875" style="37" customWidth="1"/>
+    <col min="8239" max="8239" width="2.33203125" style="37" customWidth="1"/>
+    <col min="8240" max="8240" width="10.44140625" style="37" customWidth="1"/>
+    <col min="8241" max="8241" width="14.109375" style="37" customWidth="1"/>
+    <col min="8242" max="8450" width="9.109375" style="37"/>
+    <col min="8451" max="8451" width="14.44140625" style="37" customWidth="1"/>
+    <col min="8452" max="8474" width="9.109375" style="37"/>
+    <col min="8475" max="8477" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8478" max="8478" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8479" max="8481" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8482" max="8489" width="9.109375" style="37"/>
+    <col min="8490" max="8490" width="8.33203125" style="37" customWidth="1"/>
+    <col min="8491" max="8491" width="2.6640625" style="37" customWidth="1"/>
     <col min="8492" max="8492" width="9" style="37" customWidth="1"/>
-    <col min="8493" max="8493" width="14.140625" style="37" customWidth="1"/>
-    <col min="8494" max="8494" width="8.85546875" style="37" customWidth="1"/>
-    <col min="8495" max="8495" width="2.28515625" style="37" customWidth="1"/>
-    <col min="8496" max="8496" width="10.42578125" style="37" customWidth="1"/>
-    <col min="8497" max="8497" width="14.140625" style="37" customWidth="1"/>
-    <col min="8498" max="8706" width="9.140625" style="37"/>
-    <col min="8707" max="8707" width="14.42578125" style="37" customWidth="1"/>
-    <col min="8708" max="8730" width="9.140625" style="37"/>
-    <col min="8731" max="8733" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8734" max="8734" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="8735" max="8737" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8738" max="8745" width="9.140625" style="37"/>
-    <col min="8746" max="8746" width="8.28515625" style="37" customWidth="1"/>
-    <col min="8747" max="8747" width="2.7109375" style="37" customWidth="1"/>
+    <col min="8493" max="8493" width="14.109375" style="37" customWidth="1"/>
+    <col min="8494" max="8494" width="8.88671875" style="37" customWidth="1"/>
+    <col min="8495" max="8495" width="2.33203125" style="37" customWidth="1"/>
+    <col min="8496" max="8496" width="10.44140625" style="37" customWidth="1"/>
+    <col min="8497" max="8497" width="14.109375" style="37" customWidth="1"/>
+    <col min="8498" max="8706" width="9.109375" style="37"/>
+    <col min="8707" max="8707" width="14.44140625" style="37" customWidth="1"/>
+    <col min="8708" max="8730" width="9.109375" style="37"/>
+    <col min="8731" max="8733" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8734" max="8734" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8735" max="8737" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8738" max="8745" width="9.109375" style="37"/>
+    <col min="8746" max="8746" width="8.33203125" style="37" customWidth="1"/>
+    <col min="8747" max="8747" width="2.6640625" style="37" customWidth="1"/>
     <col min="8748" max="8748" width="9" style="37" customWidth="1"/>
-    <col min="8749" max="8749" width="14.140625" style="37" customWidth="1"/>
-    <col min="8750" max="8750" width="8.85546875" style="37" customWidth="1"/>
-    <col min="8751" max="8751" width="2.28515625" style="37" customWidth="1"/>
-    <col min="8752" max="8752" width="10.42578125" style="37" customWidth="1"/>
-    <col min="8753" max="8753" width="14.140625" style="37" customWidth="1"/>
-    <col min="8754" max="8962" width="9.140625" style="37"/>
-    <col min="8963" max="8963" width="14.42578125" style="37" customWidth="1"/>
-    <col min="8964" max="8986" width="9.140625" style="37"/>
-    <col min="8987" max="8989" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8990" max="8990" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="8991" max="8993" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8994" max="9001" width="9.140625" style="37"/>
-    <col min="9002" max="9002" width="8.28515625" style="37" customWidth="1"/>
-    <col min="9003" max="9003" width="2.7109375" style="37" customWidth="1"/>
+    <col min="8749" max="8749" width="14.109375" style="37" customWidth="1"/>
+    <col min="8750" max="8750" width="8.88671875" style="37" customWidth="1"/>
+    <col min="8751" max="8751" width="2.33203125" style="37" customWidth="1"/>
+    <col min="8752" max="8752" width="10.44140625" style="37" customWidth="1"/>
+    <col min="8753" max="8753" width="14.109375" style="37" customWidth="1"/>
+    <col min="8754" max="8962" width="9.109375" style="37"/>
+    <col min="8963" max="8963" width="14.44140625" style="37" customWidth="1"/>
+    <col min="8964" max="8986" width="9.109375" style="37"/>
+    <col min="8987" max="8989" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8990" max="8990" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8991" max="8993" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8994" max="9001" width="9.109375" style="37"/>
+    <col min="9002" max="9002" width="8.33203125" style="37" customWidth="1"/>
+    <col min="9003" max="9003" width="2.6640625" style="37" customWidth="1"/>
     <col min="9004" max="9004" width="9" style="37" customWidth="1"/>
-    <col min="9005" max="9005" width="14.140625" style="37" customWidth="1"/>
-    <col min="9006" max="9006" width="8.85546875" style="37" customWidth="1"/>
-    <col min="9007" max="9007" width="2.28515625" style="37" customWidth="1"/>
-    <col min="9008" max="9008" width="10.42578125" style="37" customWidth="1"/>
-    <col min="9009" max="9009" width="14.140625" style="37" customWidth="1"/>
-    <col min="9010" max="9218" width="9.140625" style="37"/>
-    <col min="9219" max="9219" width="14.42578125" style="37" customWidth="1"/>
-    <col min="9220" max="9242" width="9.140625" style="37"/>
-    <col min="9243" max="9245" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9246" max="9246" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="9247" max="9249" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9250" max="9257" width="9.140625" style="37"/>
-    <col min="9258" max="9258" width="8.28515625" style="37" customWidth="1"/>
-    <col min="9259" max="9259" width="2.7109375" style="37" customWidth="1"/>
+    <col min="9005" max="9005" width="14.109375" style="37" customWidth="1"/>
+    <col min="9006" max="9006" width="8.88671875" style="37" customWidth="1"/>
+    <col min="9007" max="9007" width="2.33203125" style="37" customWidth="1"/>
+    <col min="9008" max="9008" width="10.44140625" style="37" customWidth="1"/>
+    <col min="9009" max="9009" width="14.109375" style="37" customWidth="1"/>
+    <col min="9010" max="9218" width="9.109375" style="37"/>
+    <col min="9219" max="9219" width="14.44140625" style="37" customWidth="1"/>
+    <col min="9220" max="9242" width="9.109375" style="37"/>
+    <col min="9243" max="9245" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9246" max="9246" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9247" max="9249" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9250" max="9257" width="9.109375" style="37"/>
+    <col min="9258" max="9258" width="8.33203125" style="37" customWidth="1"/>
+    <col min="9259" max="9259" width="2.6640625" style="37" customWidth="1"/>
     <col min="9260" max="9260" width="9" style="37" customWidth="1"/>
-    <col min="9261" max="9261" width="14.140625" style="37" customWidth="1"/>
-    <col min="9262" max="9262" width="8.85546875" style="37" customWidth="1"/>
-    <col min="9263" max="9263" width="2.28515625" style="37" customWidth="1"/>
-    <col min="9264" max="9264" width="10.42578125" style="37" customWidth="1"/>
-    <col min="9265" max="9265" width="14.140625" style="37" customWidth="1"/>
-    <col min="9266" max="9474" width="9.140625" style="37"/>
-    <col min="9475" max="9475" width="14.42578125" style="37" customWidth="1"/>
-    <col min="9476" max="9498" width="9.140625" style="37"/>
-    <col min="9499" max="9501" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9502" max="9502" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="9503" max="9505" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9506" max="9513" width="9.140625" style="37"/>
-    <col min="9514" max="9514" width="8.28515625" style="37" customWidth="1"/>
-    <col min="9515" max="9515" width="2.7109375" style="37" customWidth="1"/>
+    <col min="9261" max="9261" width="14.109375" style="37" customWidth="1"/>
+    <col min="9262" max="9262" width="8.88671875" style="37" customWidth="1"/>
+    <col min="9263" max="9263" width="2.33203125" style="37" customWidth="1"/>
+    <col min="9264" max="9264" width="10.44140625" style="37" customWidth="1"/>
+    <col min="9265" max="9265" width="14.109375" style="37" customWidth="1"/>
+    <col min="9266" max="9474" width="9.109375" style="37"/>
+    <col min="9475" max="9475" width="14.44140625" style="37" customWidth="1"/>
+    <col min="9476" max="9498" width="9.109375" style="37"/>
+    <col min="9499" max="9501" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9502" max="9502" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9503" max="9505" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9506" max="9513" width="9.109375" style="37"/>
+    <col min="9514" max="9514" width="8.33203125" style="37" customWidth="1"/>
+    <col min="9515" max="9515" width="2.6640625" style="37" customWidth="1"/>
     <col min="9516" max="9516" width="9" style="37" customWidth="1"/>
-    <col min="9517" max="9517" width="14.140625" style="37" customWidth="1"/>
-    <col min="9518" max="9518" width="8.85546875" style="37" customWidth="1"/>
-    <col min="9519" max="9519" width="2.28515625" style="37" customWidth="1"/>
-    <col min="9520" max="9520" width="10.42578125" style="37" customWidth="1"/>
-    <col min="9521" max="9521" width="14.140625" style="37" customWidth="1"/>
-    <col min="9522" max="9730" width="9.140625" style="37"/>
-    <col min="9731" max="9731" width="14.42578125" style="37" customWidth="1"/>
-    <col min="9732" max="9754" width="9.140625" style="37"/>
-    <col min="9755" max="9757" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9758" max="9758" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="9759" max="9761" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9762" max="9769" width="9.140625" style="37"/>
-    <col min="9770" max="9770" width="8.28515625" style="37" customWidth="1"/>
-    <col min="9771" max="9771" width="2.7109375" style="37" customWidth="1"/>
+    <col min="9517" max="9517" width="14.109375" style="37" customWidth="1"/>
+    <col min="9518" max="9518" width="8.88671875" style="37" customWidth="1"/>
+    <col min="9519" max="9519" width="2.33203125" style="37" customWidth="1"/>
+    <col min="9520" max="9520" width="10.44140625" style="37" customWidth="1"/>
+    <col min="9521" max="9521" width="14.109375" style="37" customWidth="1"/>
+    <col min="9522" max="9730" width="9.109375" style="37"/>
+    <col min="9731" max="9731" width="14.44140625" style="37" customWidth="1"/>
+    <col min="9732" max="9754" width="9.109375" style="37"/>
+    <col min="9755" max="9757" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9758" max="9758" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9759" max="9761" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9762" max="9769" width="9.109375" style="37"/>
+    <col min="9770" max="9770" width="8.33203125" style="37" customWidth="1"/>
+    <col min="9771" max="9771" width="2.6640625" style="37" customWidth="1"/>
     <col min="9772" max="9772" width="9" style="37" customWidth="1"/>
-    <col min="9773" max="9773" width="14.140625" style="37" customWidth="1"/>
-    <col min="9774" max="9774" width="8.85546875" style="37" customWidth="1"/>
-    <col min="9775" max="9775" width="2.28515625" style="37" customWidth="1"/>
-    <col min="9776" max="9776" width="10.42578125" style="37" customWidth="1"/>
-    <col min="9777" max="9777" width="14.140625" style="37" customWidth="1"/>
-    <col min="9778" max="9986" width="9.140625" style="37"/>
-    <col min="9987" max="9987" width="14.42578125" style="37" customWidth="1"/>
-    <col min="9988" max="10010" width="9.140625" style="37"/>
-    <col min="10011" max="10013" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10014" max="10014" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="10015" max="10017" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10018" max="10025" width="9.140625" style="37"/>
-    <col min="10026" max="10026" width="8.28515625" style="37" customWidth="1"/>
-    <col min="10027" max="10027" width="2.7109375" style="37" customWidth="1"/>
+    <col min="9773" max="9773" width="14.109375" style="37" customWidth="1"/>
+    <col min="9774" max="9774" width="8.88671875" style="37" customWidth="1"/>
+    <col min="9775" max="9775" width="2.33203125" style="37" customWidth="1"/>
+    <col min="9776" max="9776" width="10.44140625" style="37" customWidth="1"/>
+    <col min="9777" max="9777" width="14.109375" style="37" customWidth="1"/>
+    <col min="9778" max="9986" width="9.109375" style="37"/>
+    <col min="9987" max="9987" width="14.44140625" style="37" customWidth="1"/>
+    <col min="9988" max="10010" width="9.109375" style="37"/>
+    <col min="10011" max="10013" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10014" max="10014" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10015" max="10017" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10018" max="10025" width="9.109375" style="37"/>
+    <col min="10026" max="10026" width="8.33203125" style="37" customWidth="1"/>
+    <col min="10027" max="10027" width="2.6640625" style="37" customWidth="1"/>
     <col min="10028" max="10028" width="9" style="37" customWidth="1"/>
-    <col min="10029" max="10029" width="14.140625" style="37" customWidth="1"/>
-    <col min="10030" max="10030" width="8.85546875" style="37" customWidth="1"/>
-    <col min="10031" max="10031" width="2.28515625" style="37" customWidth="1"/>
-    <col min="10032" max="10032" width="10.42578125" style="37" customWidth="1"/>
-    <col min="10033" max="10033" width="14.140625" style="37" customWidth="1"/>
-    <col min="10034" max="10242" width="9.140625" style="37"/>
-    <col min="10243" max="10243" width="14.42578125" style="37" customWidth="1"/>
-    <col min="10244" max="10266" width="9.140625" style="37"/>
-    <col min="10267" max="10269" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10270" max="10270" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="10271" max="10273" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10274" max="10281" width="9.140625" style="37"/>
-    <col min="10282" max="10282" width="8.28515625" style="37" customWidth="1"/>
-    <col min="10283" max="10283" width="2.7109375" style="37" customWidth="1"/>
+    <col min="10029" max="10029" width="14.109375" style="37" customWidth="1"/>
+    <col min="10030" max="10030" width="8.88671875" style="37" customWidth="1"/>
+    <col min="10031" max="10031" width="2.33203125" style="37" customWidth="1"/>
+    <col min="10032" max="10032" width="10.44140625" style="37" customWidth="1"/>
+    <col min="10033" max="10033" width="14.109375" style="37" customWidth="1"/>
+    <col min="10034" max="10242" width="9.109375" style="37"/>
+    <col min="10243" max="10243" width="14.44140625" style="37" customWidth="1"/>
+    <col min="10244" max="10266" width="9.109375" style="37"/>
+    <col min="10267" max="10269" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10270" max="10270" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10271" max="10273" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10274" max="10281" width="9.109375" style="37"/>
+    <col min="10282" max="10282" width="8.33203125" style="37" customWidth="1"/>
+    <col min="10283" max="10283" width="2.6640625" style="37" customWidth="1"/>
     <col min="10284" max="10284" width="9" style="37" customWidth="1"/>
-    <col min="10285" max="10285" width="14.140625" style="37" customWidth="1"/>
-    <col min="10286" max="10286" width="8.85546875" style="37" customWidth="1"/>
-    <col min="10287" max="10287" width="2.28515625" style="37" customWidth="1"/>
-    <col min="10288" max="10288" width="10.42578125" style="37" customWidth="1"/>
-    <col min="10289" max="10289" width="14.140625" style="37" customWidth="1"/>
-    <col min="10290" max="10498" width="9.140625" style="37"/>
-    <col min="10499" max="10499" width="14.42578125" style="37" customWidth="1"/>
-    <col min="10500" max="10522" width="9.140625" style="37"/>
-    <col min="10523" max="10525" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10526" max="10526" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="10527" max="10529" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10530" max="10537" width="9.140625" style="37"/>
-    <col min="10538" max="10538" width="8.28515625" style="37" customWidth="1"/>
-    <col min="10539" max="10539" width="2.7109375" style="37" customWidth="1"/>
+    <col min="10285" max="10285" width="14.109375" style="37" customWidth="1"/>
+    <col min="10286" max="10286" width="8.88671875" style="37" customWidth="1"/>
+    <col min="10287" max="10287" width="2.33203125" style="37" customWidth="1"/>
+    <col min="10288" max="10288" width="10.44140625" style="37" customWidth="1"/>
+    <col min="10289" max="10289" width="14.109375" style="37" customWidth="1"/>
+    <col min="10290" max="10498" width="9.109375" style="37"/>
+    <col min="10499" max="10499" width="14.44140625" style="37" customWidth="1"/>
+    <col min="10500" max="10522" width="9.109375" style="37"/>
+    <col min="10523" max="10525" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10526" max="10526" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10527" max="10529" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10530" max="10537" width="9.109375" style="37"/>
+    <col min="10538" max="10538" width="8.33203125" style="37" customWidth="1"/>
+    <col min="10539" max="10539" width="2.6640625" style="37" customWidth="1"/>
     <col min="10540" max="10540" width="9" style="37" customWidth="1"/>
-    <col min="10541" max="10541" width="14.140625" style="37" customWidth="1"/>
-    <col min="10542" max="10542" width="8.85546875" style="37" customWidth="1"/>
-    <col min="10543" max="10543" width="2.28515625" style="37" customWidth="1"/>
-    <col min="10544" max="10544" width="10.42578125" style="37" customWidth="1"/>
-    <col min="10545" max="10545" width="14.140625" style="37" customWidth="1"/>
-    <col min="10546" max="10754" width="9.140625" style="37"/>
-    <col min="10755" max="10755" width="14.42578125" style="37" customWidth="1"/>
-    <col min="10756" max="10778" width="9.140625" style="37"/>
-    <col min="10779" max="10781" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10782" max="10782" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="10783" max="10785" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10786" max="10793" width="9.140625" style="37"/>
-    <col min="10794" max="10794" width="8.28515625" style="37" customWidth="1"/>
-    <col min="10795" max="10795" width="2.7109375" style="37" customWidth="1"/>
+    <col min="10541" max="10541" width="14.109375" style="37" customWidth="1"/>
+    <col min="10542" max="10542" width="8.88671875" style="37" customWidth="1"/>
+    <col min="10543" max="10543" width="2.33203125" style="37" customWidth="1"/>
+    <col min="10544" max="10544" width="10.44140625" style="37" customWidth="1"/>
+    <col min="10545" max="10545" width="14.109375" style="37" customWidth="1"/>
+    <col min="10546" max="10754" width="9.109375" style="37"/>
+    <col min="10755" max="10755" width="14.44140625" style="37" customWidth="1"/>
+    <col min="10756" max="10778" width="9.109375" style="37"/>
+    <col min="10779" max="10781" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10782" max="10782" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10783" max="10785" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10786" max="10793" width="9.109375" style="37"/>
+    <col min="10794" max="10794" width="8.33203125" style="37" customWidth="1"/>
+    <col min="10795" max="10795" width="2.6640625" style="37" customWidth="1"/>
     <col min="10796" max="10796" width="9" style="37" customWidth="1"/>
-    <col min="10797" max="10797" width="14.140625" style="37" customWidth="1"/>
-    <col min="10798" max="10798" width="8.85546875" style="37" customWidth="1"/>
-    <col min="10799" max="10799" width="2.28515625" style="37" customWidth="1"/>
-    <col min="10800" max="10800" width="10.42578125" style="37" customWidth="1"/>
-    <col min="10801" max="10801" width="14.140625" style="37" customWidth="1"/>
-    <col min="10802" max="11010" width="9.140625" style="37"/>
-    <col min="11011" max="11011" width="14.42578125" style="37" customWidth="1"/>
-    <col min="11012" max="11034" width="9.140625" style="37"/>
-    <col min="11035" max="11037" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="11038" max="11038" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="11039" max="11041" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="11042" max="11049" width="9.140625" style="37"/>
-    <col min="11050" max="11050" width="8.28515625" style="37" customWidth="1"/>
-    <col min="11051" max="11051" width="2.7109375" style="37" customWidth="1"/>
+    <col min="10797" max="10797" width="14.109375" style="37" customWidth="1"/>
+    <col min="10798" max="10798" width="8.88671875" style="37" customWidth="1"/>
+    <col min="10799" max="10799" width="2.33203125" style="37" customWidth="1"/>
+    <col min="10800" max="10800" width="10.44140625" style="37" customWidth="1"/>
+    <col min="10801" max="10801" width="14.109375" style="37" customWidth="1"/>
+    <col min="10802" max="11010" width="9.109375" style="37"/>
+    <col min="11011" max="11011" width="14.44140625" style="37" customWidth="1"/>
+    <col min="11012" max="11034" width="9.109375" style="37"/>
+    <col min="11035" max="11037" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11038" max="11038" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11039" max="11041" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11042" max="11049" width="9.109375" style="37"/>
+    <col min="11050" max="11050" width="8.33203125" style="37" customWidth="1"/>
+    <col min="11051" max="11051" width="2.6640625" style="37" customWidth="1"/>
     <col min="11052" max="11052" width="9" style="37" customWidth="1"/>
-    <col min="11053" max="11053" width="14.140625" style="37" customWidth="1"/>
-    <col min="11054" max="11054" width="8.85546875" style="37" customWidth="1"/>
-    <col min="11055" max="11055" width="2.28515625" style="37" customWidth="1"/>
-    <col min="11056" max="11056" width="10.42578125" style="37" customWidth="1"/>
-    <col min="11057" max="11057" width="14.140625" style="37" customWidth="1"/>
-    <col min="11058" max="11266" width="9.140625" style="37"/>
-    <col min="11267" max="11267" width="14.42578125" style="37" customWidth="1"/>
-    <col min="11268" max="11290" width="9.140625" style="37"/>
-    <col min="11291" max="11293" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="11294" max="11294" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="11295" max="11297" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="11298" max="11305" width="9.140625" style="37"/>
-    <col min="11306" max="11306" width="8.28515625" style="37" customWidth="1"/>
-    <col min="11307" max="11307" width="2.7109375" style="37" customWidth="1"/>
+    <col min="11053" max="11053" width="14.109375" style="37" customWidth="1"/>
+    <col min="11054" max="11054" width="8.88671875" style="37" customWidth="1"/>
+    <col min="11055" max="11055" width="2.33203125" style="37" customWidth="1"/>
+    <col min="11056" max="11056" width="10.44140625" style="37" customWidth="1"/>
+    <col min="11057" max="11057" width="14.109375" style="37" customWidth="1"/>
+    <col min="11058" max="11266" width="9.109375" style="37"/>
+    <col min="11267" max="11267" width="14.44140625" style="37" customWidth="1"/>
+    <col min="11268" max="11290" width="9.109375" style="37"/>
+    <col min="11291" max="11293" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11294" max="11294" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11295" max="11297" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11298" max="11305" width="9.109375" style="37"/>
+    <col min="11306" max="11306" width="8.33203125" style="37" customWidth="1"/>
+    <col min="11307" max="11307" width="2.6640625" style="37" customWidth="1"/>
     <col min="11308" max="11308" width="9" style="37" customWidth="1"/>
-    <col min="11309" max="11309" width="14.140625" style="37" customWidth="1"/>
-    <col min="11310" max="11310" width="8.85546875" style="37" customWidth="1"/>
-    <col min="11311" max="11311" width="2.28515625" style="37" customWidth="1"/>
-    <col min="11312" max="11312" width="10.42578125" style="37" customWidth="1"/>
-    <col min="11313" max="11313" width="14.140625" style="37" customWidth="1"/>
-    <col min="11314" max="11522" width="9.140625" style="37"/>
-    <col min="11523" max="11523" width="14.42578125" style="37" customWidth="1"/>
-    <col min="11524" max="11546" width="9.140625" style="37"/>
-    <col min="11547" max="11549" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="11550" max="11550" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="11551" max="11553" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="11554" max="11561" width="9.140625" style="37"/>
-    <col min="11562" max="11562" width="8.28515625" style="37" customWidth="1"/>
-    <col min="11563" max="11563" width="2.7109375" style="37" customWidth="1"/>
+    <col min="11309" max="11309" width="14.109375" style="37" customWidth="1"/>
+    <col min="11310" max="11310" width="8.88671875" style="37" customWidth="1"/>
+    <col min="11311" max="11311" width="2.33203125" style="37" customWidth="1"/>
+    <col min="11312" max="11312" width="10.44140625" style="37" customWidth="1"/>
+    <col min="11313" max="11313" width="14.109375" style="37" customWidth="1"/>
+    <col min="11314" max="11522" width="9.109375" style="37"/>
+    <col min="11523" max="11523" width="14.44140625" style="37" customWidth="1"/>
+    <col min="11524" max="11546" width="9.109375" style="37"/>
+    <col min="11547" max="11549" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11550" max="11550" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11551" max="11553" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11554" max="11561" width="9.109375" style="37"/>
+    <col min="11562" max="11562" width="8.33203125" style="37" customWidth="1"/>
+    <col min="11563" max="11563" width="2.6640625" style="37" customWidth="1"/>
     <col min="11564" max="11564" width="9" style="37" customWidth="1"/>
-    <col min="11565" max="11565" width="14.140625" style="37" customWidth="1"/>
-    <col min="11566" max="11566" width="8.85546875" style="37" customWidth="1"/>
-    <col min="11567" max="11567" width="2.28515625" style="37" customWidth="1"/>
-    <col min="11568" max="11568" width="10.42578125" style="37" customWidth="1"/>
-    <col min="11569" max="11569" width="14.140625" style="37" customWidth="1"/>
-    <col min="11570" max="11778" width="9.140625" style="37"/>
-    <col min="11779" max="11779" width="14.42578125" style="37" customWidth="1"/>
-    <col min="11780" max="11802" width="9.140625" style="37"/>
-    <col min="11803" max="11805" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="11806" max="11806" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="11807" max="11809" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="11810" max="11817" width="9.140625" style="37"/>
-    <col min="11818" max="11818" width="8.28515625" style="37" customWidth="1"/>
-    <col min="11819" max="11819" width="2.7109375" style="37" customWidth="1"/>
+    <col min="11565" max="11565" width="14.109375" style="37" customWidth="1"/>
+    <col min="11566" max="11566" width="8.88671875" style="37" customWidth="1"/>
+    <col min="11567" max="11567" width="2.33203125" style="37" customWidth="1"/>
+    <col min="11568" max="11568" width="10.44140625" style="37" customWidth="1"/>
+    <col min="11569" max="11569" width="14.109375" style="37" customWidth="1"/>
+    <col min="11570" max="11778" width="9.109375" style="37"/>
+    <col min="11779" max="11779" width="14.44140625" style="37" customWidth="1"/>
+    <col min="11780" max="11802" width="9.109375" style="37"/>
+    <col min="11803" max="11805" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11806" max="11806" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11807" max="11809" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11810" max="11817" width="9.109375" style="37"/>
+    <col min="11818" max="11818" width="8.33203125" style="37" customWidth="1"/>
+    <col min="11819" max="11819" width="2.6640625" style="37" customWidth="1"/>
     <col min="11820" max="11820" width="9" style="37" customWidth="1"/>
-    <col min="11821" max="11821" width="14.140625" style="37" customWidth="1"/>
-    <col min="11822" max="11822" width="8.85546875" style="37" customWidth="1"/>
-    <col min="11823" max="11823" width="2.28515625" style="37" customWidth="1"/>
-    <col min="11824" max="11824" width="10.42578125" style="37" customWidth="1"/>
-    <col min="11825" max="11825" width="14.140625" style="37" customWidth="1"/>
-    <col min="11826" max="12034" width="9.140625" style="37"/>
-    <col min="12035" max="12035" width="14.42578125" style="37" customWidth="1"/>
-    <col min="12036" max="12058" width="9.140625" style="37"/>
-    <col min="12059" max="12061" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="12062" max="12062" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="12063" max="12065" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="12066" max="12073" width="9.140625" style="37"/>
-    <col min="12074" max="12074" width="8.28515625" style="37" customWidth="1"/>
-    <col min="12075" max="12075" width="2.7109375" style="37" customWidth="1"/>
+    <col min="11821" max="11821" width="14.109375" style="37" customWidth="1"/>
+    <col min="11822" max="11822" width="8.88671875" style="37" customWidth="1"/>
+    <col min="11823" max="11823" width="2.33203125" style="37" customWidth="1"/>
+    <col min="11824" max="11824" width="10.44140625" style="37" customWidth="1"/>
+    <col min="11825" max="11825" width="14.109375" style="37" customWidth="1"/>
+    <col min="11826" max="12034" width="9.109375" style="37"/>
+    <col min="12035" max="12035" width="14.44140625" style="37" customWidth="1"/>
+    <col min="12036" max="12058" width="9.109375" style="37"/>
+    <col min="12059" max="12061" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12062" max="12062" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12063" max="12065" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12066" max="12073" width="9.109375" style="37"/>
+    <col min="12074" max="12074" width="8.33203125" style="37" customWidth="1"/>
+    <col min="12075" max="12075" width="2.6640625" style="37" customWidth="1"/>
     <col min="12076" max="12076" width="9" style="37" customWidth="1"/>
-    <col min="12077" max="12077" width="14.140625" style="37" customWidth="1"/>
-    <col min="12078" max="12078" width="8.85546875" style="37" customWidth="1"/>
-    <col min="12079" max="12079" width="2.28515625" style="37" customWidth="1"/>
-    <col min="12080" max="12080" width="10.42578125" style="37" customWidth="1"/>
-    <col min="12081" max="12081" width="14.140625" style="37" customWidth="1"/>
-    <col min="12082" max="12290" width="9.140625" style="37"/>
-    <col min="12291" max="12291" width="14.42578125" style="37" customWidth="1"/>
-    <col min="12292" max="12314" width="9.140625" style="37"/>
-    <col min="12315" max="12317" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="12318" max="12318" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="12319" max="12321" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="12322" max="12329" width="9.140625" style="37"/>
-    <col min="12330" max="12330" width="8.28515625" style="37" customWidth="1"/>
-    <col min="12331" max="12331" width="2.7109375" style="37" customWidth="1"/>
+    <col min="12077" max="12077" width="14.109375" style="37" customWidth="1"/>
+    <col min="12078" max="12078" width="8.88671875" style="37" customWidth="1"/>
+    <col min="12079" max="12079" width="2.33203125" style="37" customWidth="1"/>
+    <col min="12080" max="12080" width="10.44140625" style="37" customWidth="1"/>
+    <col min="12081" max="12081" width="14.109375" style="37" customWidth="1"/>
+    <col min="12082" max="12290" width="9.109375" style="37"/>
+    <col min="12291" max="12291" width="14.44140625" style="37" customWidth="1"/>
+    <col min="12292" max="12314" width="9.109375" style="37"/>
+    <col min="12315" max="12317" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12318" max="12318" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12319" max="12321" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12322" max="12329" width="9.109375" style="37"/>
+    <col min="12330" max="12330" width="8.33203125" style="37" customWidth="1"/>
+    <col min="12331" max="12331" width="2.6640625" style="37" customWidth="1"/>
     <col min="12332" max="12332" width="9" style="37" customWidth="1"/>
-    <col min="12333" max="12333" width="14.140625" style="37" customWidth="1"/>
-    <col min="12334" max="12334" width="8.85546875" style="37" customWidth="1"/>
-    <col min="12335" max="12335" width="2.28515625" style="37" customWidth="1"/>
-    <col min="12336" max="12336" width="10.42578125" style="37" customWidth="1"/>
-    <col min="12337" max="12337" width="14.140625" style="37" customWidth="1"/>
-    <col min="12338" max="12546" width="9.140625" style="37"/>
-    <col min="12547" max="12547" width="14.42578125" style="37" customWidth="1"/>
-    <col min="12548" max="12570" width="9.140625" style="37"/>
-    <col min="12571" max="12573" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="12574" max="12574" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="12575" max="12577" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="12578" max="12585" width="9.140625" style="37"/>
-    <col min="12586" max="12586" width="8.28515625" style="37" customWidth="1"/>
-    <col min="12587" max="12587" width="2.7109375" style="37" customWidth="1"/>
+    <col min="12333" max="12333" width="14.109375" style="37" customWidth="1"/>
+    <col min="12334" max="12334" width="8.88671875" style="37" customWidth="1"/>
+    <col min="12335" max="12335" width="2.33203125" style="37" customWidth="1"/>
+    <col min="12336" max="12336" width="10.44140625" style="37" customWidth="1"/>
+    <col min="12337" max="12337" width="14.109375" style="37" customWidth="1"/>
+    <col min="12338" max="12546" width="9.109375" style="37"/>
+    <col min="12547" max="12547" width="14.44140625" style="37" customWidth="1"/>
+    <col min="12548" max="12570" width="9.109375" style="37"/>
+    <col min="12571" max="12573" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12574" max="12574" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12575" max="12577" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12578" max="12585" width="9.109375" style="37"/>
+    <col min="12586" max="12586" width="8.33203125" style="37" customWidth="1"/>
+    <col min="12587" max="12587" width="2.6640625" style="37" customWidth="1"/>
     <col min="12588" max="12588" width="9" style="37" customWidth="1"/>
-    <col min="12589" max="12589" width="14.140625" style="37" customWidth="1"/>
-    <col min="12590" max="12590" width="8.85546875" style="37" customWidth="1"/>
-    <col min="12591" max="12591" width="2.28515625" style="37" customWidth="1"/>
-    <col min="12592" max="12592" width="10.42578125" style="37" customWidth="1"/>
-    <col min="12593" max="12593" width="14.140625" style="37" customWidth="1"/>
-    <col min="12594" max="12802" width="9.140625" style="37"/>
-    <col min="12803" max="12803" width="14.42578125" style="37" customWidth="1"/>
-    <col min="12804" max="12826" width="9.140625" style="37"/>
-    <col min="12827" max="12829" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="12830" max="12830" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="12831" max="12833" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="12834" max="12841" width="9.140625" style="37"/>
-    <col min="12842" max="12842" width="8.28515625" style="37" customWidth="1"/>
-    <col min="12843" max="12843" width="2.7109375" style="37" customWidth="1"/>
+    <col min="12589" max="12589" width="14.109375" style="37" customWidth="1"/>
+    <col min="12590" max="12590" width="8.88671875" style="37" customWidth="1"/>
+    <col min="12591" max="12591" width="2.33203125" style="37" customWidth="1"/>
+    <col min="12592" max="12592" width="10.44140625" style="37" customWidth="1"/>
+    <col min="12593" max="12593" width="14.109375" style="37" customWidth="1"/>
+    <col min="12594" max="12802" width="9.109375" style="37"/>
+    <col min="12803" max="12803" width="14.44140625" style="37" customWidth="1"/>
+    <col min="12804" max="12826" width="9.109375" style="37"/>
+    <col min="12827" max="12829" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12830" max="12830" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12831" max="12833" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12834" max="12841" width="9.109375" style="37"/>
+    <col min="12842" max="12842" width="8.33203125" style="37" customWidth="1"/>
+    <col min="12843" max="12843" width="2.6640625" style="37" customWidth="1"/>
     <col min="12844" max="12844" width="9" style="37" customWidth="1"/>
-    <col min="12845" max="12845" width="14.140625" style="37" customWidth="1"/>
-    <col min="12846" max="12846" width="8.85546875" style="37" customWidth="1"/>
-    <col min="12847" max="12847" width="2.28515625" style="37" customWidth="1"/>
-    <col min="12848" max="12848" width="10.42578125" style="37" customWidth="1"/>
-    <col min="12849" max="12849" width="14.140625" style="37" customWidth="1"/>
-    <col min="12850" max="13058" width="9.140625" style="37"/>
-    <col min="13059" max="13059" width="14.42578125" style="37" customWidth="1"/>
-    <col min="13060" max="13082" width="9.140625" style="37"/>
-    <col min="13083" max="13085" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="13086" max="13086" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="13087" max="13089" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="13090" max="13097" width="9.140625" style="37"/>
-    <col min="13098" max="13098" width="8.28515625" style="37" customWidth="1"/>
-    <col min="13099" max="13099" width="2.7109375" style="37" customWidth="1"/>
+    <col min="12845" max="12845" width="14.109375" style="37" customWidth="1"/>
+    <col min="12846" max="12846" width="8.88671875" style="37" customWidth="1"/>
+    <col min="12847" max="12847" width="2.33203125" style="37" customWidth="1"/>
+    <col min="12848" max="12848" width="10.44140625" style="37" customWidth="1"/>
+    <col min="12849" max="12849" width="14.109375" style="37" customWidth="1"/>
+    <col min="12850" max="13058" width="9.109375" style="37"/>
+    <col min="13059" max="13059" width="14.44140625" style="37" customWidth="1"/>
+    <col min="13060" max="13082" width="9.109375" style="37"/>
+    <col min="13083" max="13085" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13086" max="13086" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13087" max="13089" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13090" max="13097" width="9.109375" style="37"/>
+    <col min="13098" max="13098" width="8.33203125" style="37" customWidth="1"/>
+    <col min="13099" max="13099" width="2.6640625" style="37" customWidth="1"/>
     <col min="13100" max="13100" width="9" style="37" customWidth="1"/>
-    <col min="13101" max="13101" width="14.140625" style="37" customWidth="1"/>
-    <col min="13102" max="13102" width="8.85546875" style="37" customWidth="1"/>
-    <col min="13103" max="13103" width="2.28515625" style="37" customWidth="1"/>
-    <col min="13104" max="13104" width="10.42578125" style="37" customWidth="1"/>
-    <col min="13105" max="13105" width="14.140625" style="37" customWidth="1"/>
-    <col min="13106" max="13314" width="9.140625" style="37"/>
-    <col min="13315" max="13315" width="14.42578125" style="37" customWidth="1"/>
-    <col min="13316" max="13338" width="9.140625" style="37"/>
-    <col min="13339" max="13341" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="13342" max="13342" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="13343" max="13345" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="13346" max="13353" width="9.140625" style="37"/>
-    <col min="13354" max="13354" width="8.28515625" style="37" customWidth="1"/>
-    <col min="13355" max="13355" width="2.7109375" style="37" customWidth="1"/>
+    <col min="13101" max="13101" width="14.109375" style="37" customWidth="1"/>
+    <col min="13102" max="13102" width="8.88671875" style="37" customWidth="1"/>
+    <col min="13103" max="13103" width="2.33203125" style="37" customWidth="1"/>
+    <col min="13104" max="13104" width="10.44140625" style="37" customWidth="1"/>
+    <col min="13105" max="13105" width="14.109375" style="37" customWidth="1"/>
+    <col min="13106" max="13314" width="9.109375" style="37"/>
+    <col min="13315" max="13315" width="14.44140625" style="37" customWidth="1"/>
+    <col min="13316" max="13338" width="9.109375" style="37"/>
+    <col min="13339" max="13341" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13342" max="13342" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13343" max="13345" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13346" max="13353" width="9.109375" style="37"/>
+    <col min="13354" max="13354" width="8.33203125" style="37" customWidth="1"/>
+    <col min="13355" max="13355" width="2.6640625" style="37" customWidth="1"/>
     <col min="13356" max="13356" width="9" style="37" customWidth="1"/>
-    <col min="13357" max="13357" width="14.140625" style="37" customWidth="1"/>
-    <col min="13358" max="13358" width="8.85546875" style="37" customWidth="1"/>
-    <col min="13359" max="13359" width="2.28515625" style="37" customWidth="1"/>
-    <col min="13360" max="13360" width="10.42578125" style="37" customWidth="1"/>
-    <col min="13361" max="13361" width="14.140625" style="37" customWidth="1"/>
-    <col min="13362" max="13570" width="9.140625" style="37"/>
-    <col min="13571" max="13571" width="14.42578125" style="37" customWidth="1"/>
-    <col min="13572" max="13594" width="9.140625" style="37"/>
-    <col min="13595" max="13597" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="13598" max="13598" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="13599" max="13601" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="13602" max="13609" width="9.140625" style="37"/>
-    <col min="13610" max="13610" width="8.28515625" style="37" customWidth="1"/>
-    <col min="13611" max="13611" width="2.7109375" style="37" customWidth="1"/>
+    <col min="13357" max="13357" width="14.109375" style="37" customWidth="1"/>
+    <col min="13358" max="13358" width="8.88671875" style="37" customWidth="1"/>
+    <col min="13359" max="13359" width="2.33203125" style="37" customWidth="1"/>
+    <col min="13360" max="13360" width="10.44140625" style="37" customWidth="1"/>
+    <col min="13361" max="13361" width="14.109375" style="37" customWidth="1"/>
+    <col min="13362" max="13570" width="9.109375" style="37"/>
+    <col min="13571" max="13571" width="14.44140625" style="37" customWidth="1"/>
+    <col min="13572" max="13594" width="9.109375" style="37"/>
+    <col min="13595" max="13597" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13598" max="13598" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13599" max="13601" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13602" max="13609" width="9.109375" style="37"/>
+    <col min="13610" max="13610" width="8.33203125" style="37" customWidth="1"/>
+    <col min="13611" max="13611" width="2.6640625" style="37" customWidth="1"/>
     <col min="13612" max="13612" width="9" style="37" customWidth="1"/>
-    <col min="13613" max="13613" width="14.140625" style="37" customWidth="1"/>
-    <col min="13614" max="13614" width="8.85546875" style="37" customWidth="1"/>
-    <col min="13615" max="13615" width="2.28515625" style="37" customWidth="1"/>
-    <col min="13616" max="13616" width="10.42578125" style="37" customWidth="1"/>
-    <col min="13617" max="13617" width="14.140625" style="37" customWidth="1"/>
-    <col min="13618" max="13826" width="9.140625" style="37"/>
-    <col min="13827" max="13827" width="14.42578125" style="37" customWidth="1"/>
-    <col min="13828" max="13850" width="9.140625" style="37"/>
-    <col min="13851" max="13853" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="13854" max="13854" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="13855" max="13857" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="13858" max="13865" width="9.140625" style="37"/>
-    <col min="13866" max="13866" width="8.28515625" style="37" customWidth="1"/>
-    <col min="13867" max="13867" width="2.7109375" style="37" customWidth="1"/>
+    <col min="13613" max="13613" width="14.109375" style="37" customWidth="1"/>
+    <col min="13614" max="13614" width="8.88671875" style="37" customWidth="1"/>
+    <col min="13615" max="13615" width="2.33203125" style="37" customWidth="1"/>
+    <col min="13616" max="13616" width="10.44140625" style="37" customWidth="1"/>
+    <col min="13617" max="13617" width="14.109375" style="37" customWidth="1"/>
+    <col min="13618" max="13826" width="9.109375" style="37"/>
+    <col min="13827" max="13827" width="14.44140625" style="37" customWidth="1"/>
+    <col min="13828" max="13850" width="9.109375" style="37"/>
+    <col min="13851" max="13853" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13854" max="13854" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13855" max="13857" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13858" max="13865" width="9.109375" style="37"/>
+    <col min="13866" max="13866" width="8.33203125" style="37" customWidth="1"/>
+    <col min="13867" max="13867" width="2.6640625" style="37" customWidth="1"/>
     <col min="13868" max="13868" width="9" style="37" customWidth="1"/>
-    <col min="13869" max="13869" width="14.140625" style="37" customWidth="1"/>
-    <col min="13870" max="13870" width="8.85546875" style="37" customWidth="1"/>
-    <col min="13871" max="13871" width="2.28515625" style="37" customWidth="1"/>
-    <col min="13872" max="13872" width="10.42578125" style="37" customWidth="1"/>
-    <col min="13873" max="13873" width="14.140625" style="37" customWidth="1"/>
-    <col min="13874" max="14082" width="9.140625" style="37"/>
-    <col min="14083" max="14083" width="14.42578125" style="37" customWidth="1"/>
-    <col min="14084" max="14106" width="9.140625" style="37"/>
-    <col min="14107" max="14109" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="14110" max="14110" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="14111" max="14113" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="14114" max="14121" width="9.140625" style="37"/>
-    <col min="14122" max="14122" width="8.28515625" style="37" customWidth="1"/>
-    <col min="14123" max="14123" width="2.7109375" style="37" customWidth="1"/>
+    <col min="13869" max="13869" width="14.109375" style="37" customWidth="1"/>
+    <col min="13870" max="13870" width="8.88671875" style="37" customWidth="1"/>
+    <col min="13871" max="13871" width="2.33203125" style="37" customWidth="1"/>
+    <col min="13872" max="13872" width="10.44140625" style="37" customWidth="1"/>
+    <col min="13873" max="13873" width="14.109375" style="37" customWidth="1"/>
+    <col min="13874" max="14082" width="9.109375" style="37"/>
+    <col min="14083" max="14083" width="14.44140625" style="37" customWidth="1"/>
+    <col min="14084" max="14106" width="9.109375" style="37"/>
+    <col min="14107" max="14109" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14110" max="14110" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="14111" max="14113" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14114" max="14121" width="9.109375" style="37"/>
+    <col min="14122" max="14122" width="8.33203125" style="37" customWidth="1"/>
+    <col min="14123" max="14123" width="2.6640625" style="37" customWidth="1"/>
     <col min="14124" max="14124" width="9" style="37" customWidth="1"/>
-    <col min="14125" max="14125" width="14.140625" style="37" customWidth="1"/>
-    <col min="14126" max="14126" width="8.85546875" style="37" customWidth="1"/>
-    <col min="14127" max="14127" width="2.28515625" style="37" customWidth="1"/>
-    <col min="14128" max="14128" width="10.42578125" style="37" customWidth="1"/>
-    <col min="14129" max="14129" width="14.140625" style="37" customWidth="1"/>
-    <col min="14130" max="14338" width="9.140625" style="37"/>
-    <col min="14339" max="14339" width="14.42578125" style="37" customWidth="1"/>
-    <col min="14340" max="14362" width="9.140625" style="37"/>
-    <col min="14363" max="14365" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="14366" max="14366" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="14367" max="14369" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="14370" max="14377" width="9.140625" style="37"/>
-    <col min="14378" max="14378" width="8.28515625" style="37" customWidth="1"/>
-    <col min="14379" max="14379" width="2.7109375" style="37" customWidth="1"/>
+    <col min="14125" max="14125" width="14.109375" style="37" customWidth="1"/>
+    <col min="14126" max="14126" width="8.88671875" style="37" customWidth="1"/>
+    <col min="14127" max="14127" width="2.33203125" style="37" customWidth="1"/>
+    <col min="14128" max="14128" width="10.44140625" style="37" customWidth="1"/>
+    <col min="14129" max="14129" width="14.109375" style="37" customWidth="1"/>
+    <col min="14130" max="14338" width="9.109375" style="37"/>
+    <col min="14339" max="14339" width="14.44140625" style="37" customWidth="1"/>
+    <col min="14340" max="14362" width="9.109375" style="37"/>
+    <col min="14363" max="14365" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14366" max="14366" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="14367" max="14369" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14370" max="14377" width="9.109375" style="37"/>
+    <col min="14378" max="14378" width="8.33203125" style="37" customWidth="1"/>
+    <col min="14379" max="14379" width="2.6640625" style="37" customWidth="1"/>
     <col min="14380" max="14380" width="9" style="37" customWidth="1"/>
-    <col min="14381" max="14381" width="14.140625" style="37" customWidth="1"/>
-    <col min="14382" max="14382" width="8.85546875" style="37" customWidth="1"/>
-    <col min="14383" max="14383" width="2.28515625" style="37" customWidth="1"/>
-    <col min="14384" max="14384" width="10.42578125" style="37" customWidth="1"/>
-    <col min="14385" max="14385" width="14.140625" style="37" customWidth="1"/>
-    <col min="14386" max="14594" width="9.140625" style="37"/>
-    <col min="14595" max="14595" width="14.42578125" style="37" customWidth="1"/>
-    <col min="14596" max="14618" width="9.140625" style="37"/>
-    <col min="14619" max="14621" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="14622" max="14622" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="14623" max="14625" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="14626" max="14633" width="9.140625" style="37"/>
-    <col min="14634" max="14634" width="8.28515625" style="37" customWidth="1"/>
-    <col min="14635" max="14635" width="2.7109375" style="37" customWidth="1"/>
+    <col min="14381" max="14381" width="14.109375" style="37" customWidth="1"/>
+    <col min="14382" max="14382" width="8.88671875" style="37" customWidth="1"/>
+    <col min="14383" max="14383" width="2.33203125" style="37" customWidth="1"/>
+    <col min="14384" max="14384" width="10.44140625" style="37" customWidth="1"/>
+    <col min="14385" max="14385" width="14.109375" style="37" customWidth="1"/>
+    <col min="14386" max="14594" width="9.109375" style="37"/>
+    <col min="14595" max="14595" width="14.44140625" style="37" customWidth="1"/>
+    <col min="14596" max="14618" width="9.109375" style="37"/>
+    <col min="14619" max="14621" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14622" max="14622" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="14623" max="14625" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14626" max="14633" width="9.109375" style="37"/>
+    <col min="14634" max="14634" width="8.33203125" style="37" customWidth="1"/>
+    <col min="14635" max="14635" width="2.6640625" style="37" customWidth="1"/>
     <col min="14636" max="14636" width="9" style="37" customWidth="1"/>
-    <col min="14637" max="14637" width="14.140625" style="37" customWidth="1"/>
-    <col min="14638" max="14638" width="8.85546875" style="37" customWidth="1"/>
-    <col min="14639" max="14639" width="2.28515625" style="37" customWidth="1"/>
-    <col min="14640" max="14640" width="10.42578125" style="37" customWidth="1"/>
-    <col min="14641" max="14641" width="14.140625" style="37" customWidth="1"/>
-    <col min="14642" max="14850" width="9.140625" style="37"/>
-    <col min="14851" max="14851" width="14.42578125" style="37" customWidth="1"/>
-    <col min="14852" max="14874" width="9.140625" style="37"/>
-    <col min="14875" max="14877" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="14878" max="14878" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="14879" max="14881" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="14882" max="14889" width="9.140625" style="37"/>
-    <col min="14890" max="14890" width="8.28515625" style="37" customWidth="1"/>
-    <col min="14891" max="14891" width="2.7109375" style="37" customWidth="1"/>
+    <col min="14637" max="14637" width="14.109375" style="37" customWidth="1"/>
+    <col min="14638" max="14638" width="8.88671875" style="37" customWidth="1"/>
+    <col min="14639" max="14639" width="2.33203125" style="37" customWidth="1"/>
+    <col min="14640" max="14640" width="10.44140625" style="37" customWidth="1"/>
+    <col min="14641" max="14641" width="14.109375" style="37" customWidth="1"/>
+    <col min="14642" max="14850" width="9.109375" style="37"/>
+    <col min="14851" max="14851" width="14.44140625" style="37" customWidth="1"/>
+    <col min="14852" max="14874" width="9.109375" style="37"/>
+    <col min="14875" max="14877" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14878" max="14878" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="14879" max="14881" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="14882" max="14889" width="9.109375" style="37"/>
+    <col min="14890" max="14890" width="8.33203125" style="37" customWidth="1"/>
+    <col min="14891" max="14891" width="2.6640625" style="37" customWidth="1"/>
     <col min="14892" max="14892" width="9" style="37" customWidth="1"/>
-    <col min="14893" max="14893" width="14.140625" style="37" customWidth="1"/>
-    <col min="14894" max="14894" width="8.85546875" style="37" customWidth="1"/>
-    <col min="14895" max="14895" width="2.28515625" style="37" customWidth="1"/>
-    <col min="14896" max="14896" width="10.42578125" style="37" customWidth="1"/>
-    <col min="14897" max="14897" width="14.140625" style="37" customWidth="1"/>
-    <col min="14898" max="15106" width="9.140625" style="37"/>
-    <col min="15107" max="15107" width="14.42578125" style="37" customWidth="1"/>
-    <col min="15108" max="15130" width="9.140625" style="37"/>
-    <col min="15131" max="15133" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="15134" max="15134" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="15135" max="15137" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="15138" max="15145" width="9.140625" style="37"/>
-    <col min="15146" max="15146" width="8.28515625" style="37" customWidth="1"/>
-    <col min="15147" max="15147" width="2.7109375" style="37" customWidth="1"/>
+    <col min="14893" max="14893" width="14.109375" style="37" customWidth="1"/>
+    <col min="14894" max="14894" width="8.88671875" style="37" customWidth="1"/>
+    <col min="14895" max="14895" width="2.33203125" style="37" customWidth="1"/>
+    <col min="14896" max="14896" width="10.44140625" style="37" customWidth="1"/>
+    <col min="14897" max="14897" width="14.109375" style="37" customWidth="1"/>
+    <col min="14898" max="15106" width="9.109375" style="37"/>
+    <col min="15107" max="15107" width="14.44140625" style="37" customWidth="1"/>
+    <col min="15108" max="15130" width="9.109375" style="37"/>
+    <col min="15131" max="15133" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="15134" max="15134" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="15135" max="15137" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="15138" max="15145" width="9.109375" style="37"/>
+    <col min="15146" max="15146" width="8.33203125" style="37" customWidth="1"/>
+    <col min="15147" max="15147" width="2.6640625" style="37" customWidth="1"/>
     <col min="15148" max="15148" width="9" style="37" customWidth="1"/>
-    <col min="15149" max="15149" width="14.140625" style="37" customWidth="1"/>
-    <col min="15150" max="15150" width="8.85546875" style="37" customWidth="1"/>
-    <col min="15151" max="15151" width="2.28515625" style="37" customWidth="1"/>
-    <col min="15152" max="15152" width="10.42578125" style="37" customWidth="1"/>
-    <col min="15153" max="15153" width="14.140625" style="37" customWidth="1"/>
-    <col min="15154" max="15362" width="9.140625" style="37"/>
-    <col min="15363" max="15363" width="14.42578125" style="37" customWidth="1"/>
-    <col min="15364" max="15386" width="9.140625" style="37"/>
-    <col min="15387" max="15389" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="15390" max="15390" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="15391" max="15393" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="15394" max="15401" width="9.140625" style="37"/>
-    <col min="15402" max="15402" width="8.28515625" style="37" customWidth="1"/>
-    <col min="15403" max="15403" width="2.7109375" style="37" customWidth="1"/>
+    <col min="15149" max="15149" width="14.109375" style="37" customWidth="1"/>
+    <col min="15150" max="15150" width="8.88671875" style="37" customWidth="1"/>
+    <col min="15151" max="15151" width="2.33203125" style="37" customWidth="1"/>
+    <col min="15152" max="15152" width="10.44140625" style="37" customWidth="1"/>
+    <col min="15153" max="15153" width="14.109375" style="37" customWidth="1"/>
+    <col min="15154" max="15362" width="9.109375" style="37"/>
+    <col min="15363" max="15363" width="14.44140625" style="37" customWidth="1"/>
+    <col min="15364" max="15386" width="9.109375" style="37"/>
+    <col min="15387" max="15389" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="15390" max="15390" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="15391" max="15393" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="15394" max="15401" width="9.109375" style="37"/>
+    <col min="15402" max="15402" width="8.33203125" style="37" customWidth="1"/>
+    <col min="15403" max="15403" width="2.6640625" style="37" customWidth="1"/>
     <col min="15404" max="15404" width="9" style="37" customWidth="1"/>
-    <col min="15405" max="15405" width="14.140625" style="37" customWidth="1"/>
-    <col min="15406" max="15406" width="8.85546875" style="37" customWidth="1"/>
-    <col min="15407" max="15407" width="2.28515625" style="37" customWidth="1"/>
-    <col min="15408" max="15408" width="10.42578125" style="37" customWidth="1"/>
-    <col min="15409" max="15409" width="14.140625" style="37" customWidth="1"/>
-    <col min="15410" max="15618" width="9.140625" style="37"/>
-    <col min="15619" max="15619" width="14.42578125" style="37" customWidth="1"/>
-    <col min="15620" max="15642" width="9.140625" style="37"/>
-    <col min="15643" max="15645" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="15646" max="15646" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="15647" max="15649" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="15650" max="15657" width="9.140625" style="37"/>
-    <col min="15658" max="15658" width="8.28515625" style="37" customWidth="1"/>
-    <col min="15659" max="15659" width="2.7109375" style="37" customWidth="1"/>
+    <col min="15405" max="15405" width="14.109375" style="37" customWidth="1"/>
+    <col min="15406" max="15406" width="8.88671875" style="37" customWidth="1"/>
+    <col min="15407" max="15407" width="2.33203125" style="37" customWidth="1"/>
+    <col min="15408" max="15408" width="10.44140625" style="37" customWidth="1"/>
+    <col min="15409" max="15409" width="14.109375" style="37" customWidth="1"/>
+    <col min="15410" max="15618" width="9.109375" style="37"/>
+    <col min="15619" max="15619" width="14.44140625" style="37" customWidth="1"/>
+    <col min="15620" max="15642" width="9.109375" style="37"/>
+    <col min="15643" max="15645" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="15646" max="15646" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="15647" max="15649" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="15650" max="15657" width="9.109375" style="37"/>
+    <col min="15658" max="15658" width="8.33203125" style="37" customWidth="1"/>
+    <col min="15659" max="15659" width="2.6640625" style="37" customWidth="1"/>
     <col min="15660" max="15660" width="9" style="37" customWidth="1"/>
-    <col min="15661" max="15661" width="14.140625" style="37" customWidth="1"/>
-    <col min="15662" max="15662" width="8.85546875" style="37" customWidth="1"/>
-    <col min="15663" max="15663" width="2.28515625" style="37" customWidth="1"/>
-    <col min="15664" max="15664" width="10.42578125" style="37" customWidth="1"/>
-    <col min="15665" max="15665" width="14.140625" style="37" customWidth="1"/>
-    <col min="15666" max="15874" width="9.140625" style="37"/>
-    <col min="15875" max="15875" width="14.42578125" style="37" customWidth="1"/>
-    <col min="15876" max="15898" width="9.140625" style="37"/>
-    <col min="15899" max="15901" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="15902" max="15902" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="15903" max="15905" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="15906" max="15913" width="9.140625" style="37"/>
-    <col min="15914" max="15914" width="8.28515625" style="37" customWidth="1"/>
-    <col min="15915" max="15915" width="2.7109375" style="37" customWidth="1"/>
+    <col min="15661" max="15661" width="14.109375" style="37" customWidth="1"/>
+    <col min="15662" max="15662" width="8.88671875" style="37" customWidth="1"/>
+    <col min="15663" max="15663" width="2.33203125" style="37" customWidth="1"/>
+    <col min="15664" max="15664" width="10.44140625" style="37" customWidth="1"/>
+    <col min="15665" max="15665" width="14.109375" style="37" customWidth="1"/>
+    <col min="15666" max="15874" width="9.109375" style="37"/>
+    <col min="15875" max="15875" width="14.44140625" style="37" customWidth="1"/>
+    <col min="15876" max="15898" width="9.109375" style="37"/>
+    <col min="15899" max="15901" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="15902" max="15902" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="15903" max="15905" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="15906" max="15913" width="9.109375" style="37"/>
+    <col min="15914" max="15914" width="8.33203125" style="37" customWidth="1"/>
+    <col min="15915" max="15915" width="2.6640625" style="37" customWidth="1"/>
     <col min="15916" max="15916" width="9" style="37" customWidth="1"/>
-    <col min="15917" max="15917" width="14.140625" style="37" customWidth="1"/>
-    <col min="15918" max="15918" width="8.85546875" style="37" customWidth="1"/>
-    <col min="15919" max="15919" width="2.28515625" style="37" customWidth="1"/>
-    <col min="15920" max="15920" width="10.42578125" style="37" customWidth="1"/>
-    <col min="15921" max="15921" width="14.140625" style="37" customWidth="1"/>
-    <col min="15922" max="16130" width="9.140625" style="37"/>
-    <col min="16131" max="16131" width="14.42578125" style="37" customWidth="1"/>
-    <col min="16132" max="16154" width="9.140625" style="37"/>
-    <col min="16155" max="16157" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="16158" max="16158" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="16159" max="16161" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="16162" max="16169" width="9.140625" style="37"/>
-    <col min="16170" max="16170" width="8.28515625" style="37" customWidth="1"/>
-    <col min="16171" max="16171" width="2.7109375" style="37" customWidth="1"/>
+    <col min="15917" max="15917" width="14.109375" style="37" customWidth="1"/>
+    <col min="15918" max="15918" width="8.88671875" style="37" customWidth="1"/>
+    <col min="15919" max="15919" width="2.33203125" style="37" customWidth="1"/>
+    <col min="15920" max="15920" width="10.44140625" style="37" customWidth="1"/>
+    <col min="15921" max="15921" width="14.109375" style="37" customWidth="1"/>
+    <col min="15922" max="16130" width="9.109375" style="37"/>
+    <col min="16131" max="16131" width="14.44140625" style="37" customWidth="1"/>
+    <col min="16132" max="16154" width="9.109375" style="37"/>
+    <col min="16155" max="16157" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="16158" max="16158" width="10.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="16159" max="16161" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="16162" max="16169" width="9.109375" style="37"/>
+    <col min="16170" max="16170" width="8.33203125" style="37" customWidth="1"/>
+    <col min="16171" max="16171" width="2.6640625" style="37" customWidth="1"/>
     <col min="16172" max="16172" width="9" style="37" customWidth="1"/>
-    <col min="16173" max="16173" width="14.140625" style="37" customWidth="1"/>
-    <col min="16174" max="16174" width="8.85546875" style="37" customWidth="1"/>
-    <col min="16175" max="16175" width="2.28515625" style="37" customWidth="1"/>
-    <col min="16176" max="16176" width="10.42578125" style="37" customWidth="1"/>
-    <col min="16177" max="16177" width="14.140625" style="37" customWidth="1"/>
-    <col min="16178" max="16384" width="9.140625" style="37"/>
+    <col min="16173" max="16173" width="14.109375" style="37" customWidth="1"/>
+    <col min="16174" max="16174" width="8.88671875" style="37" customWidth="1"/>
+    <col min="16175" max="16175" width="2.33203125" style="37" customWidth="1"/>
+    <col min="16176" max="16176" width="10.44140625" style="37" customWidth="1"/>
+    <col min="16177" max="16177" width="14.109375" style="37" customWidth="1"/>
+    <col min="16178" max="16384" width="9.109375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
@@ -25283,72 +25295,72 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="70" t="s">
+      <c r="M3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="69" t="s">
+      <c r="N3" s="66"/>
+      <c r="O3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="69" t="s">
+      <c r="P3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="69" t="s">
+      <c r="Q3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="69" t="s">
+      <c r="R3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="69" t="s">
+      <c r="S3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="69" t="s">
+      <c r="T3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="69" t="s">
+      <c r="U3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="69" t="s">
+      <c r="V3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="69" t="s">
+      <c r="W3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="69" t="s">
+      <c r="X3" s="65" t="s">
         <v>21</v>
       </c>
       <c r="Z3" s="68" t="s">
@@ -25375,69 +25387,69 @@
       <c r="AG3" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="64" t="s">
+      <c r="AI3" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="AJ3" s="64" t="s">
+      <c r="AJ3" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AK3" s="64" t="s">
+      <c r="AK3" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="64" t="s">
+      <c r="AL3" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AM3" s="64" t="s">
+      <c r="AM3" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="AN3" s="64" t="s">
+      <c r="AN3" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AP3" s="64" t="s">
+      <c r="AP3" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AQ3" s="64"/>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="64" t="s">
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="AT3" s="64" t="s">
+      <c r="AT3" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="64" t="s">
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
       <c r="Z4" s="68"/>
       <c r="AA4" s="67"/>
       <c r="AB4" s="68"/>
@@ -25446,22 +25458,22 @@
       <c r="AE4" s="67"/>
       <c r="AF4" s="68"/>
       <c r="AG4" s="67"/>
-      <c r="AI4" s="64"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AP4" s="64"/>
-      <c r="AQ4" s="64"/>
-      <c r="AR4" s="64"/>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="64"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="66"/>
+      <c r="AS4" s="66"/>
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="66"/>
+      <c r="AV4" s="66"/>
+      <c r="AW4" s="66"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" s="39">
         <v>2</v>
       </c>
@@ -25568,7 +25580,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -25677,7 +25689,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" s="39">
         <v>10</v>
       </c>
@@ -25790,7 +25802,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="39">
         <v>20</v>
       </c>
@@ -25903,7 +25915,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="39">
         <v>50</v>
       </c>
@@ -26016,7 +26028,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="39">
         <v>100</v>
       </c>
@@ -26112,7 +26124,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" s="39">
         <v>200</v>
       </c>
@@ -26225,7 +26237,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" s="39">
         <v>500</v>
       </c>
@@ -26326,7 +26338,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
         <v>1000</v>
       </c>
@@ -26427,7 +26439,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
         <v>2000</v>
       </c>
@@ -26524,7 +26536,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" s="39">
         <v>5000</v>
       </c>
@@ -26621,7 +26633,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <v>10000</v>
       </c>
@@ -26701,7 +26713,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
         <v>20000</v>
       </c>
@@ -26798,7 +26810,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <v>50000</v>
       </c>
@@ -26895,7 +26907,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <v>100000</v>
       </c>
@@ -26992,7 +27004,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
       <c r="D20" s="39">
         <v>25</v>
       </c>
@@ -27082,7 +27094,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
       <c r="D21" s="39">
         <v>26</v>
       </c>
@@ -27159,7 +27171,7 @@
       <c r="AQ21" s="49"/>
       <c r="AR21" s="49"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
       <c r="D22" s="39">
         <v>27</v>
       </c>
@@ -27216,7 +27228,7 @@
       <c r="AF22" s="42"/>
       <c r="AG22" s="42"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="D23" s="39">
         <v>28</v>
       </c>
@@ -27290,7 +27302,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
       <c r="D24" s="39">
         <v>29</v>
       </c>
@@ -27364,7 +27376,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
       <c r="D25" s="39">
         <v>30</v>
       </c>
@@ -27438,7 +27450,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
       <c r="Z26" s="42">
         <v>33</v>
       </c>
@@ -27464,7 +27476,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
       <c r="Z27" s="42">
         <v>34</v>
       </c>
@@ -27490,7 +27502,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A28" s="50"/>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
@@ -27510,7 +27522,7 @@
       <c r="AF28" s="42"/>
       <c r="AG28" s="42"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
         <v>30</v>
       </c>
@@ -27542,18 +27554,18 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A30" s="51"/>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
       <c r="K30" s="52"/>
       <c r="L30" s="52" t="s">
         <v>19</v>
@@ -27586,7 +27598,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A31" s="51" t="s">
         <v>34</v>
       </c>
@@ -27646,21 +27658,21 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A32" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="K32" s="66" t="s">
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="K32" s="70" t="s">
         <v>39</v>
       </c>
       <c r="L32" s="55" t="s">
@@ -27694,7 +27706,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="57"/>
       <c r="B33" s="57">
         <v>50</v>
@@ -27720,7 +27732,7 @@
       <c r="I33" s="57">
         <v>0.1</v>
       </c>
-      <c r="K33" s="66"/>
+      <c r="K33" s="70"/>
       <c r="L33" s="55" t="s">
         <v>41</v>
       </c>
@@ -27752,7 +27764,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="58">
         <v>3</v>
       </c>
@@ -27780,7 +27792,7 @@
       <c r="I34" s="59">
         <v>7.25</v>
       </c>
-      <c r="K34" s="66"/>
+      <c r="K34" s="70"/>
       <c r="L34" s="55" t="s">
         <v>42</v>
       </c>
@@ -27795,7 +27807,7 @@
       <c r="AF34" s="42"/>
       <c r="AG34" s="42"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="58">
         <v>2.5</v>
       </c>
@@ -27823,7 +27835,7 @@
       <c r="I35" s="59">
         <v>6.6</v>
       </c>
-      <c r="K35" s="66"/>
+      <c r="K35" s="70"/>
       <c r="L35" s="55" t="s">
         <v>43</v>
       </c>
@@ -27855,7 +27867,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="58">
         <v>2.2000000000000002</v>
       </c>
@@ -27883,7 +27895,7 @@
       <c r="I36" s="59">
         <v>6.2</v>
       </c>
-      <c r="K36" s="66"/>
+      <c r="K36" s="70"/>
       <c r="L36" s="60">
         <v>1</v>
       </c>
@@ -27915,7 +27927,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="58">
         <v>2</v>
       </c>
@@ -27943,7 +27955,7 @@
       <c r="I37" s="59">
         <v>5.91</v>
       </c>
-      <c r="K37" s="66"/>
+      <c r="K37" s="70"/>
       <c r="L37" s="60">
         <v>2</v>
       </c>
@@ -27975,7 +27987,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="58">
         <v>1.8</v>
       </c>
@@ -28003,7 +28015,7 @@
       <c r="I38" s="59">
         <v>5.66</v>
       </c>
-      <c r="K38" s="66"/>
+      <c r="K38" s="70"/>
       <c r="L38" s="60">
         <v>3</v>
       </c>
@@ -28035,7 +28047,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="58">
         <v>1.6</v>
       </c>
@@ -28063,7 +28075,7 @@
       <c r="I39" s="59">
         <v>5.39</v>
       </c>
-      <c r="K39" s="66"/>
+      <c r="K39" s="70"/>
       <c r="L39" s="60">
         <v>4</v>
       </c>
@@ -28095,7 +28107,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="58">
         <v>1.4</v>
       </c>
@@ -28123,7 +28135,7 @@
       <c r="I40" s="59">
         <v>5.1100000000000003</v>
       </c>
-      <c r="K40" s="66"/>
+      <c r="K40" s="70"/>
       <c r="L40" s="60">
         <v>5</v>
       </c>
@@ -28138,7 +28150,7 @@
       <c r="AF40" s="42"/>
       <c r="AG40" s="42"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="58">
         <v>1.2</v>
       </c>
@@ -28166,7 +28178,7 @@
       <c r="I41" s="59">
         <v>4.82</v>
       </c>
-      <c r="K41" s="66"/>
+      <c r="K41" s="70"/>
       <c r="L41" s="60">
         <v>10</v>
       </c>
@@ -28194,7 +28206,7 @@
       <c r="AF41" s="42"/>
       <c r="AG41" s="42"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="58">
         <v>1</v>
       </c>
@@ -28222,7 +28234,7 @@
       <c r="I42" s="59">
         <v>4.54</v>
       </c>
-      <c r="K42" s="66"/>
+      <c r="K42" s="70"/>
       <c r="L42" s="60">
         <v>15</v>
       </c>
@@ -28250,7 +28262,7 @@
       <c r="AF42" s="42"/>
       <c r="AG42" s="42"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="58">
         <v>0.9</v>
       </c>
@@ -28278,7 +28290,7 @@
       <c r="I43" s="59">
         <v>4.3949999999999996</v>
       </c>
-      <c r="K43" s="66"/>
+      <c r="K43" s="70"/>
       <c r="L43" s="60">
         <v>20</v>
       </c>
@@ -28306,7 +28318,7 @@
       <c r="AF43" s="42"/>
       <c r="AG43" s="42"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="58">
         <v>0.8</v>
       </c>
@@ -28334,7 +28346,7 @@
       <c r="I44" s="59">
         <v>4.25</v>
       </c>
-      <c r="K44" s="66"/>
+      <c r="K44" s="70"/>
       <c r="L44" s="60">
         <v>25</v>
       </c>
@@ -28362,7 +28374,7 @@
       <c r="AF44" s="42"/>
       <c r="AG44" s="42"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="58">
         <v>0.7</v>
       </c>
@@ -28390,7 +28402,7 @@
       <c r="I45" s="59">
         <v>4.1050000000000004</v>
       </c>
-      <c r="K45" s="66"/>
+      <c r="K45" s="70"/>
       <c r="L45" s="60">
         <v>30</v>
       </c>
@@ -28418,7 +28430,7 @@
       <c r="AF45" s="42"/>
       <c r="AG45" s="42"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="58">
         <v>0.6</v>
       </c>
@@ -28446,7 +28458,7 @@
       <c r="I46" s="59">
         <v>3.96</v>
       </c>
-      <c r="K46" s="66"/>
+      <c r="K46" s="70"/>
       <c r="L46" s="60">
         <v>40</v>
       </c>
@@ -28454,7 +28466,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="58">
         <v>0.5</v>
       </c>
@@ -28482,7 +28494,7 @@
       <c r="I47" s="59">
         <v>3.8149999999999999</v>
       </c>
-      <c r="K47" s="66"/>
+      <c r="K47" s="70"/>
       <c r="L47" s="60">
         <v>50</v>
       </c>
@@ -28490,7 +28502,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="58">
         <v>0.4</v>
       </c>
@@ -28518,7 +28530,7 @@
       <c r="I48" s="59">
         <v>3.67</v>
       </c>
-      <c r="K48" s="66"/>
+      <c r="K48" s="70"/>
       <c r="L48" s="60">
         <v>60</v>
       </c>
@@ -28526,7 +28538,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="58">
         <v>0.3</v>
       </c>
@@ -28554,7 +28566,7 @@
       <c r="I49" s="59">
         <v>3.5249999999999999</v>
       </c>
-      <c r="K49" s="66"/>
+      <c r="K49" s="70"/>
       <c r="L49" s="60">
         <v>70</v>
       </c>
@@ -28562,7 +28574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="58">
         <v>0.2</v>
       </c>
@@ -28590,7 +28602,7 @@
       <c r="I50" s="59">
         <v>3.38</v>
       </c>
-      <c r="K50" s="66"/>
+      <c r="K50" s="70"/>
       <c r="L50" s="60">
         <v>80</v>
       </c>
@@ -28598,7 +28610,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="58">
         <v>0.1</v>
       </c>
@@ -28626,7 +28638,7 @@
       <c r="I51" s="59">
         <v>3.2349999999999999</v>
       </c>
-      <c r="K51" s="66"/>
+      <c r="K51" s="70"/>
       <c r="L51" s="60">
         <v>90</v>
       </c>
@@ -28634,7 +28646,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="58">
         <v>0</v>
       </c>
@@ -28662,7 +28674,7 @@
       <c r="I52" s="59">
         <v>3.09</v>
       </c>
-      <c r="K52" s="66"/>
+      <c r="K52" s="70"/>
       <c r="L52" s="60">
         <v>100</v>
       </c>
@@ -28670,7 +28682,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="58">
         <v>-0.1</v>
       </c>
@@ -28699,7 +28711,7 @@
       <c r="I53" s="59">
         <v>2.95</v>
       </c>
-      <c r="K53" s="66"/>
+      <c r="K53" s="70"/>
       <c r="L53" s="60">
         <v>125</v>
       </c>
@@ -28707,7 +28719,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="58">
         <v>-0.2</v>
       </c>
@@ -28737,7 +28749,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="58">
         <v>-0.3</v>
       </c>
@@ -28774,7 +28786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="61">
         <v>-0.4</v>
       </c>
@@ -28808,7 +28820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="61">
         <v>-0.5</v>
       </c>
@@ -28838,7 +28850,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="58">
         <v>-0.6</v>
       </c>
@@ -28868,7 +28880,7 @@
         <v>2.2749999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="58">
         <v>-0.7</v>
       </c>
@@ -28898,7 +28910,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="58">
         <v>-0.8</v>
       </c>
@@ -28928,7 +28940,7 @@
         <v>2.0350000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="58">
         <v>-0.9</v>
       </c>
@@ -28958,7 +28970,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="58">
         <v>-1</v>
       </c>
@@ -28988,7 +29000,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="58">
         <v>-1.2</v>
       </c>
@@ -29018,7 +29030,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="58">
         <v>-1.4</v>
       </c>
@@ -29048,7 +29060,7 @@
         <v>1.4650000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="58">
         <v>-1.6</v>
       </c>
@@ -29078,7 +29090,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="58">
         <v>-1.8</v>
       </c>
@@ -29108,7 +29120,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="58">
         <v>-2</v>
       </c>
@@ -29138,7 +29150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="58">
         <v>-2.2000000000000002</v>
       </c>
@@ -29168,7 +29180,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="58">
         <v>-2.5</v>
       </c>
@@ -29198,7 +29210,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="58">
         <v>-3</v>
       </c>
@@ -29228,7 +29240,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="63"/>
       <c r="B72" s="63"/>
       <c r="C72" s="63"/>
@@ -29248,32 +29260,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AS3:AS4"/>
     <mergeCell ref="AT3:AV4"/>
     <mergeCell ref="AW3:AW4"/>
@@ -29290,9 +29276,843 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B622E7F-E4C5-4903-BA5F-68A2F6938F4F}">
+  <dimension ref="B2:L12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="12" width="8.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0.49519999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.50349999999999995</v>
+      </c>
+      <c r="F3">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.51</v>
+      </c>
+      <c r="H3">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.51570000000000005</v>
+      </c>
+      <c r="J3">
+        <v>0.5181</v>
+      </c>
+      <c r="K3">
+        <v>0.5202</v>
+      </c>
+      <c r="L3">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>0.52359999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.5252</v>
+      </c>
+      <c r="E4">
+        <v>0.52680000000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.52959999999999996</v>
+      </c>
+      <c r="H4">
+        <v>0.53090000000000004</v>
+      </c>
+      <c r="I4">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="J4">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.5343</v>
+      </c>
+      <c r="L4">
+        <v>0.5353</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.53710000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.53879999999999995</v>
+      </c>
+      <c r="G5">
+        <v>0.53959999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.54020000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J5">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="K5">
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>0.54359999999999997</v>
+      </c>
+      <c r="D6">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="F6">
+        <v>0.54530000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.54579999999999995</v>
+      </c>
+      <c r="H6">
+        <v>0.54630000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.54679999999999995</v>
+      </c>
+      <c r="J6">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.54769999999999996</v>
+      </c>
+      <c r="L6">
+        <v>0.54810000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>0.54849999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="E7">
+        <v>0.54930000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.54969999999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.55010000000000003</v>
+      </c>
+      <c r="H7">
+        <v>0.5504</v>
+      </c>
+      <c r="I7">
+        <v>0.55079999999999996</v>
+      </c>
+      <c r="J7">
+        <v>0.55110000000000003</v>
+      </c>
+      <c r="K7">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.55179999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>0.55210000000000004</v>
+      </c>
+      <c r="D8">
+        <v>0.5524</v>
+      </c>
+      <c r="E8">
+        <v>0.55269999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="G8">
+        <v>0.55330000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.55349999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="J8">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="K8">
+        <v>0.55430000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.55449999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>0.55479999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.55520000000000003</v>
+      </c>
+      <c r="F9">
+        <v>0.55549999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.55569999999999997</v>
+      </c>
+      <c r="H9">
+        <v>0.55589999999999995</v>
+      </c>
+      <c r="I9">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="J9">
+        <v>0.55630000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.55669999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.56720000000000004</v>
+      </c>
+      <c r="F10">
+        <v>0.55740000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.55759999999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="I10">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="J10">
+        <v>0.55810000000000004</v>
+      </c>
+      <c r="K10">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="L10">
+        <v>0.5585</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>0.55859999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.55869999999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.55889999999999995</v>
+      </c>
+      <c r="F11">
+        <v>0.55910000000000004</v>
+      </c>
+      <c r="G11">
+        <v>0.55920000000000003</v>
+      </c>
+      <c r="H11">
+        <v>0.55930000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.5595</v>
+      </c>
+      <c r="J11">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="L11">
+        <v>0.55989999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.56020000000000003</v>
+      </c>
+      <c r="E12">
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="F12">
+        <v>0.56040000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.56059999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="I12">
+        <v>0.50680000000000003</v>
+      </c>
+      <c r="J12">
+        <v>0.50690000000000002</v>
+      </c>
+      <c r="K12">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="L12">
+        <v>0.56110000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A0FB7-8D1C-40C8-AD46-1621FE110BF9}">
+  <dimension ref="B2:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="12" width="8.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0.9496</v>
+      </c>
+      <c r="D3">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="F3">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="G3">
+        <v>1.0095000000000001</v>
+      </c>
+      <c r="H3">
+        <v>1.0206</v>
+      </c>
+      <c r="I3">
+        <v>1.0316000000000001</v>
+      </c>
+      <c r="J3">
+        <v>1.0410999999999999</v>
+      </c>
+      <c r="K3">
+        <v>1.0492999999999999</v>
+      </c>
+      <c r="L3">
+        <v>1.0565</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1.0628</v>
+      </c>
+      <c r="D4">
+        <v>1.0696000000000001</v>
+      </c>
+      <c r="E4">
+        <v>1.0753999999999999</v>
+      </c>
+      <c r="F4">
+        <v>1.0810999999999999</v>
+      </c>
+      <c r="G4">
+        <v>1.0864</v>
+      </c>
+      <c r="H4">
+        <v>1.0914999999999999</v>
+      </c>
+      <c r="I4">
+        <v>1.0861000000000001</v>
+      </c>
+      <c r="J4">
+        <v>1.1004</v>
+      </c>
+      <c r="K4">
+        <v>1.1047</v>
+      </c>
+      <c r="L4">
+        <v>1.1086</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>1.1124000000000001</v>
+      </c>
+      <c r="D5">
+        <v>1.1158999999999999</v>
+      </c>
+      <c r="E5">
+        <v>1.1193</v>
+      </c>
+      <c r="F5">
+        <v>1.1226</v>
+      </c>
+      <c r="G5">
+        <v>1.1254999999999999</v>
+      </c>
+      <c r="H5">
+        <v>1.1286</v>
+      </c>
+      <c r="I5">
+        <v>1.1313</v>
+      </c>
+      <c r="J5">
+        <v>1.1338999999999999</v>
+      </c>
+      <c r="K5">
+        <v>1.1363000000000001</v>
+      </c>
+      <c r="L5">
+        <v>1.1388</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>1.1413</v>
+      </c>
+      <c r="D6">
+        <v>1.1435999999999999</v>
+      </c>
+      <c r="E6">
+        <v>1.1457999999999999</v>
+      </c>
+      <c r="F6">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="G6">
+        <v>1.1498999999999999</v>
+      </c>
+      <c r="H6">
+        <v>1.1518999999999999</v>
+      </c>
+      <c r="I6">
+        <v>1.1537999999999999</v>
+      </c>
+      <c r="J6">
+        <v>1.1556999999999999</v>
+      </c>
+      <c r="K6">
+        <v>1.1547000000000001</v>
+      </c>
+      <c r="L6">
+        <v>1.159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>1.1607000000000001</v>
+      </c>
+      <c r="D7">
+        <v>1.1623000000000001</v>
+      </c>
+      <c r="E7">
+        <v>1.1637999999999999</v>
+      </c>
+      <c r="F7">
+        <v>1.1657999999999999</v>
+      </c>
+      <c r="G7">
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="H7">
+        <v>1.1680999999999999</v>
+      </c>
+      <c r="I7">
+        <v>1.196</v>
+      </c>
+      <c r="J7">
+        <v>1.1708000000000001</v>
+      </c>
+      <c r="K7">
+        <v>1.1720999999999999</v>
+      </c>
+      <c r="L7">
+        <v>1.1734</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>1.1747000000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.1758999999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.177</v>
+      </c>
+      <c r="F8">
+        <v>1.1781999999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.1793</v>
+      </c>
+      <c r="H8">
+        <v>1.1802999999999999</v>
+      </c>
+      <c r="I8">
+        <v>1.1814</v>
+      </c>
+      <c r="J8">
+        <v>1.1823999999999999</v>
+      </c>
+      <c r="K8">
+        <v>1.1834</v>
+      </c>
+      <c r="L8">
+        <v>1.1843999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>1.1854</v>
+      </c>
+      <c r="D9">
+        <v>1.1863999999999999</v>
+      </c>
+      <c r="E9">
+        <v>1.1873</v>
+      </c>
+      <c r="F9">
+        <v>1.1880999999999999</v>
+      </c>
+      <c r="G9">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.1898</v>
+      </c>
+      <c r="I9">
+        <v>1.1906000000000001</v>
+      </c>
+      <c r="J9">
+        <v>1.1915</v>
+      </c>
+      <c r="K9">
+        <v>1.1922999999999999</v>
+      </c>
+      <c r="L9">
+        <v>1.1930000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>1.1938</v>
+      </c>
+      <c r="D10">
+        <v>1.1944999999999999</v>
+      </c>
+      <c r="E10">
+        <v>1.1953</v>
+      </c>
+      <c r="F10">
+        <v>1.1959</v>
+      </c>
+      <c r="G10">
+        <v>1.1967000000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.1973</v>
+      </c>
+      <c r="I10">
+        <v>1.1987000000000001</v>
+      </c>
+      <c r="J10">
+        <v>1.1987000000000001</v>
+      </c>
+      <c r="K10">
+        <v>1.1994</v>
+      </c>
+      <c r="L10">
+        <v>1.2000999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>1.2007000000000001</v>
+      </c>
+      <c r="D11">
+        <v>1.2013</v>
+      </c>
+      <c r="E11">
+        <v>1.202</v>
+      </c>
+      <c r="F11">
+        <v>1.2025999999999999</v>
+      </c>
+      <c r="G11">
+        <v>1.2032</v>
+      </c>
+      <c r="H11">
+        <v>1.2038</v>
+      </c>
+      <c r="I11">
+        <v>1.2043999999999999</v>
+      </c>
+      <c r="J11">
+        <v>2.2048999999999999</v>
+      </c>
+      <c r="K11">
+        <v>1.2055</v>
+      </c>
+      <c r="L11">
+        <v>1.206</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>1.2064999999999999</v>
+      </c>
+      <c r="D12">
+        <v>1.2069000000000001</v>
+      </c>
+      <c r="E12">
+        <v>1.2073</v>
+      </c>
+      <c r="F12">
+        <v>1.2077</v>
+      </c>
+      <c r="G12">
+        <v>1.2081</v>
+      </c>
+      <c r="H12">
+        <v>1.2083999999999999</v>
+      </c>
+      <c r="I12">
+        <v>1.2087000000000001</v>
+      </c>
+      <c r="J12">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="K12">
+        <v>1.2093</v>
+      </c>
+      <c r="L12">
+        <v>1.2096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>